--- a/i18n/de.xlsx
+++ b/i18n/de.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matej\Programming\wingsearch\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F909226F-58FF-41F0-B9BF-2E992BEEC828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AA659A-B4F0-45E8-9ED2-A42034AA28FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Other" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Birds!$A$1:$F$262</definedName>
-    <definedName name="ExternalData_2" localSheetId="1" hidden="1">Bonuses!$A$1:$G$34</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Birds!$A$1:$F$357</definedName>
+    <definedName name="ExternalData_2" localSheetId="1" hidden="1">Bonuses!$A$1:$G$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="1028">
   <si>
     <t>id</t>
   </si>
@@ -2541,6 +2541,591 @@
   </si>
   <si>
     <t>Goldammer</t>
+  </si>
+  <si>
+    <t>Abbott's Booby</t>
+  </si>
+  <si>
+    <t>Papasula abbotti</t>
+  </si>
+  <si>
+    <t>Australasian Pipit</t>
+  </si>
+  <si>
+    <t>Anthus novaeseelandiae</t>
+  </si>
+  <si>
+    <t>Australasian Shoveler</t>
+  </si>
+  <si>
+    <t>Spatula rhynchotis</t>
+  </si>
+  <si>
+    <t>Australian Ibis</t>
+  </si>
+  <si>
+    <t>Threskiornis moluccus</t>
+  </si>
+  <si>
+    <t>Australian Magpie</t>
+  </si>
+  <si>
+    <t>Gymnorhina tibicen</t>
+  </si>
+  <si>
+    <t>Australian Owlet-Nightjar</t>
+  </si>
+  <si>
+    <t>Aegotheles cristatus</t>
+  </si>
+  <si>
+    <t>Australian Raven</t>
+  </si>
+  <si>
+    <t>Corvus coronoides</t>
+  </si>
+  <si>
+    <t>Australian Reed Warbler</t>
+  </si>
+  <si>
+    <t>Acrocephalus australis</t>
+  </si>
+  <si>
+    <t>Australian Shelduck</t>
+  </si>
+  <si>
+    <t>Tadorna tadornoides</t>
+  </si>
+  <si>
+    <t>Australian Zebra Finch</t>
+  </si>
+  <si>
+    <t>Taeniopygia castanotis</t>
+  </si>
+  <si>
+    <t>Black Noddy</t>
+  </si>
+  <si>
+    <t>Anous minutus</t>
+  </si>
+  <si>
+    <t>Black Swan</t>
+  </si>
+  <si>
+    <t>Cygnus atratus</t>
+  </si>
+  <si>
+    <t>Black-Shouldered Kite</t>
+  </si>
+  <si>
+    <t>Elanus axillaris</t>
+  </si>
+  <si>
+    <t>Blyth's Hornbill</t>
+  </si>
+  <si>
+    <t>Rhyticeros plicatus</t>
+  </si>
+  <si>
+    <t>Brolga</t>
+  </si>
+  <si>
+    <t>Antigone rubicunda</t>
+  </si>
+  <si>
+    <t>Brown Falcon</t>
+  </si>
+  <si>
+    <t>Falco berigora</t>
+  </si>
+  <si>
+    <t>Budgerigar</t>
+  </si>
+  <si>
+    <t>Melopsittacus undulatus</t>
+  </si>
+  <si>
+    <t>Cockatiel</t>
+  </si>
+  <si>
+    <t>Nymphicus hollandicus</t>
+  </si>
+  <si>
+    <t>Count Raggi's Bird-of-Paradise</t>
+  </si>
+  <si>
+    <t>Paradisaea raggiana</t>
+  </si>
+  <si>
+    <t>Crested Pigeon</t>
+  </si>
+  <si>
+    <t>Ocyphaps lophotes</t>
+  </si>
+  <si>
+    <t>Crimson Chat</t>
+  </si>
+  <si>
+    <t>Epthianura tricolor</t>
+  </si>
+  <si>
+    <t>Eastern Rosella</t>
+  </si>
+  <si>
+    <t>Platycercus eximius</t>
+  </si>
+  <si>
+    <t>Eastern Whipbird</t>
+  </si>
+  <si>
+    <t>Psophodes olivaceus</t>
+  </si>
+  <si>
+    <t>Emu</t>
+  </si>
+  <si>
+    <t>Dromaius novaehollandiae</t>
+  </si>
+  <si>
+    <t>Galah</t>
+  </si>
+  <si>
+    <t>Eolophus roseicapilla</t>
+  </si>
+  <si>
+    <t>Golden-Headed Cisticola</t>
+  </si>
+  <si>
+    <t>Cisticola exilis</t>
+  </si>
+  <si>
+    <t>Gould's Finch</t>
+  </si>
+  <si>
+    <t>Erythrura gouldiae</t>
+  </si>
+  <si>
+    <t>Green Pygmy-Goose</t>
+  </si>
+  <si>
+    <t>Nettapus pulchellus</t>
+  </si>
+  <si>
+    <t>Grey Butcherbird</t>
+  </si>
+  <si>
+    <t>Cracticus torquatus</t>
+  </si>
+  <si>
+    <t>Grey Shrikethrush</t>
+  </si>
+  <si>
+    <t>Colluricincla harmonica</t>
+  </si>
+  <si>
+    <t>Grey Teal</t>
+  </si>
+  <si>
+    <t>Anas gracilis</t>
+  </si>
+  <si>
+    <t>Grey Warbler</t>
+  </si>
+  <si>
+    <t>Gerygone igata</t>
+  </si>
+  <si>
+    <t>Grey-Headed Mannikin</t>
+  </si>
+  <si>
+    <t>Lonchura caniceps</t>
+  </si>
+  <si>
+    <t>Horsfield's Bronze-Cuckoo</t>
+  </si>
+  <si>
+    <t>Chrysococcyx basalis</t>
+  </si>
+  <si>
+    <t>Horsfield's Bushlark</t>
+  </si>
+  <si>
+    <t>Mirafra javanica</t>
+  </si>
+  <si>
+    <t>Kākāpо̄</t>
+  </si>
+  <si>
+    <t>Strigops habroptila</t>
+  </si>
+  <si>
+    <t>Kea</t>
+  </si>
+  <si>
+    <t>Nestor notabilis</t>
+  </si>
+  <si>
+    <t>Kelp Gull</t>
+  </si>
+  <si>
+    <t>Larus dominicanus</t>
+  </si>
+  <si>
+    <t>Kererū</t>
+  </si>
+  <si>
+    <t>Hemiphaga novaeseelandiae</t>
+  </si>
+  <si>
+    <t>Korimako</t>
+  </si>
+  <si>
+    <t>Anthornis melanura</t>
+  </si>
+  <si>
+    <t>Laughing Kookaburra</t>
+  </si>
+  <si>
+    <t>Dacelo novaeguineae</t>
+  </si>
+  <si>
+    <t>Lesser Frigatebird</t>
+  </si>
+  <si>
+    <t>Fregata ariel</t>
+  </si>
+  <si>
+    <t>Lewin's Honeyeater</t>
+  </si>
+  <si>
+    <t>Meliphaga lewinii</t>
+  </si>
+  <si>
+    <t>Little Penguin</t>
+  </si>
+  <si>
+    <t>Eudyptula minor</t>
+  </si>
+  <si>
+    <t>Little Pied Cormorant</t>
+  </si>
+  <si>
+    <t>Microcarbo melanoleucos</t>
+  </si>
+  <si>
+    <t>Magpie-Lark</t>
+  </si>
+  <si>
+    <t>Grallina cyanoleuca</t>
+  </si>
+  <si>
+    <t>Major Mitchell's Cockatoo</t>
+  </si>
+  <si>
+    <t>Lophochroa leadbeateri</t>
+  </si>
+  <si>
+    <t>Malleefowl</t>
+  </si>
+  <si>
+    <t>Leipoa ocellata</t>
+  </si>
+  <si>
+    <t>Maned Duck</t>
+  </si>
+  <si>
+    <t>Chenonetta jubata</t>
+  </si>
+  <si>
+    <t>Many-Colored Fruit Dove</t>
+  </si>
+  <si>
+    <t>Ptilinopus perousii</t>
+  </si>
+  <si>
+    <t>Masked Lapwing</t>
+  </si>
+  <si>
+    <t>Vanellus miles</t>
+  </si>
+  <si>
+    <t>Mistletoebird</t>
+  </si>
+  <si>
+    <t>Dicaeum hirundinaceum</t>
+  </si>
+  <si>
+    <t>Musk Duck</t>
+  </si>
+  <si>
+    <t>Biziura lobata</t>
+  </si>
+  <si>
+    <t>New Holland Honeyeater</t>
+  </si>
+  <si>
+    <t>Phylidonyris novaehollandiae</t>
+  </si>
+  <si>
+    <t>Noisy Miner</t>
+  </si>
+  <si>
+    <t>Manorina melanocephala</t>
+  </si>
+  <si>
+    <t>North Island Brown Kiwi</t>
+  </si>
+  <si>
+    <t>Apteryx mantelli</t>
+  </si>
+  <si>
+    <t>Orange-Footed Scrubfowl</t>
+  </si>
+  <si>
+    <t>Megapodius reinwardt</t>
+  </si>
+  <si>
+    <t>Pacific Black Duck</t>
+  </si>
+  <si>
+    <t>Anas superciliosa</t>
+  </si>
+  <si>
+    <t>Peaceful Dove</t>
+  </si>
+  <si>
+    <t>Geopelia placida</t>
+  </si>
+  <si>
+    <t>Pesquet's Parrot</t>
+  </si>
+  <si>
+    <t>Psittrichas fulgidus</t>
+  </si>
+  <si>
+    <t>Pheasant Coucal</t>
+  </si>
+  <si>
+    <t>Centropus phasianinus</t>
+  </si>
+  <si>
+    <t>Pink-Eared Duck</t>
+  </si>
+  <si>
+    <t>Malacorhynchus membranaceus</t>
+  </si>
+  <si>
+    <t>Plains-Wanderer</t>
+  </si>
+  <si>
+    <t>Pedionomus torquatus</t>
+  </si>
+  <si>
+    <t>Princess Stephanie's Astrapia</t>
+  </si>
+  <si>
+    <t>Astrapia stephaniae</t>
+  </si>
+  <si>
+    <t>Pūkeko</t>
+  </si>
+  <si>
+    <t>Porphyrio melanotus</t>
+  </si>
+  <si>
+    <t>Rainbow Lorikeet</t>
+  </si>
+  <si>
+    <t>Trichoglossus moluccanus</t>
+  </si>
+  <si>
+    <t>Red Wattlebird</t>
+  </si>
+  <si>
+    <t>Anthochaera carunculata</t>
+  </si>
+  <si>
+    <t>Red-Backed Fairywren</t>
+  </si>
+  <si>
+    <t>Malurus melanocephalus</t>
+  </si>
+  <si>
+    <t>Red-Capped Robin</t>
+  </si>
+  <si>
+    <t>Petroica goodenovii</t>
+  </si>
+  <si>
+    <t>Red-Necked Avocet</t>
+  </si>
+  <si>
+    <t>Recurvirostra novaehollandiae</t>
+  </si>
+  <si>
+    <t>Red-Winged Parrot</t>
+  </si>
+  <si>
+    <t>Aprosmictus erythropterus</t>
+  </si>
+  <si>
+    <t>Regent Bowerbird</t>
+  </si>
+  <si>
+    <t>Sericulus chrysocephalus</t>
+  </si>
+  <si>
+    <t>Royal Spoonbill</t>
+  </si>
+  <si>
+    <t>Platalea regia</t>
+  </si>
+  <si>
+    <t>Rufous Night-Heron</t>
+  </si>
+  <si>
+    <t>Nycticorax caledonicus</t>
+  </si>
+  <si>
+    <t>Rufous Owl</t>
+  </si>
+  <si>
+    <t>Ninox rufa</t>
+  </si>
+  <si>
+    <t>Rufous-Banded Honeyeater</t>
+  </si>
+  <si>
+    <t>Conopophila albogularis</t>
+  </si>
+  <si>
+    <t>Sacred Kingfisher</t>
+  </si>
+  <si>
+    <t>Todiramphus sanctus</t>
+  </si>
+  <si>
+    <t>Silvereye</t>
+  </si>
+  <si>
+    <t>Zosterops lateralis</t>
+  </si>
+  <si>
+    <t>South Island Robin</t>
+  </si>
+  <si>
+    <t>Petroica australis</t>
+  </si>
+  <si>
+    <t>Southern Cassowary</t>
+  </si>
+  <si>
+    <t>Casuarius casuarius</t>
+  </si>
+  <si>
+    <t>Spangled Drongo</t>
+  </si>
+  <si>
+    <t>Dicrurus bracteatus</t>
+  </si>
+  <si>
+    <t>Splendid Fairywren</t>
+  </si>
+  <si>
+    <t>Malurus splendens</t>
+  </si>
+  <si>
+    <t>Spotless Crake</t>
+  </si>
+  <si>
+    <t>Zapornia tabuensis</t>
+  </si>
+  <si>
+    <t>Stubble Quail</t>
+  </si>
+  <si>
+    <t>Coturnix pectoralis</t>
+  </si>
+  <si>
+    <t>Sulphur-Crested Cockatoo</t>
+  </si>
+  <si>
+    <t>Cacatua galerita</t>
+  </si>
+  <si>
+    <t>Superb Lyrebird</t>
+  </si>
+  <si>
+    <t>Menura novaehollandiae</t>
+  </si>
+  <si>
+    <t>Tawny Frogmouth</t>
+  </si>
+  <si>
+    <t>Podargus strigoides</t>
+  </si>
+  <si>
+    <t>Tūī</t>
+  </si>
+  <si>
+    <t>Prosthemadera novaeseelandiae</t>
+  </si>
+  <si>
+    <t>Wedge-Tailed Eagle</t>
+  </si>
+  <si>
+    <t>Aquila audax</t>
+  </si>
+  <si>
+    <t>Welcome Swallow</t>
+  </si>
+  <si>
+    <t>Hirundo neoxena</t>
+  </si>
+  <si>
+    <t>White-Bellied Sea-Eagle</t>
+  </si>
+  <si>
+    <t>Haliaeetus leucogaster</t>
+  </si>
+  <si>
+    <t>White-Breasted Woodswallow</t>
+  </si>
+  <si>
+    <t>Artamus leucoryn</t>
+  </si>
+  <si>
+    <t>White-Faced Heron</t>
+  </si>
+  <si>
+    <t>Egretta novaehollandiae</t>
+  </si>
+  <si>
+    <t>Willie-Wagtail</t>
+  </si>
+  <si>
+    <t>Rhipidura leucophrys</t>
+  </si>
+  <si>
+    <t>Wrybill</t>
+  </si>
+  <si>
+    <t>Anarhynchus frontalis</t>
+  </si>
+  <si>
+    <t>Forest Data Analyst</t>
+  </si>
+  <si>
+    <t>Grassland Data Analyst</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer</t>
+  </si>
+  <si>
+    <t>Site Selection Expert</t>
+  </si>
+  <si>
+    <t>Wetland Data Analyst</t>
   </si>
 </sst>
 </file>
@@ -2581,7 +3166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2662,8 +3247,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:F262" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F262" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:F357" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F357" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{25ED0C0D-B939-406D-8B67-A9F9A8641DEE}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="10"/>
@@ -2677,8 +3262,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6299CC7B-9130-4C9A-A587-FBEBFEEB5D0F}" name="bonuses" displayName="bonuses" ref="A1:G34" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G34" xr:uid="{35D50B44-8490-4501-A753-CAF3081EA540}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6299CC7B-9130-4C9A-A587-FBEBFEEB5D0F}" name="bonuses" displayName="bonuses" ref="A1:G39" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G39" xr:uid="{35D50B44-8490-4501-A753-CAF3081EA540}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{339841CB-3C69-4C68-9375-1B8F78B4B947}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="5"/>
@@ -2966,23 +3551,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D262"/>
+    <sheetView topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="A263" sqref="A263:C357"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3002,7 +3587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3022,7 +3607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3042,7 +3627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3062,7 +3647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3082,7 +3667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3102,7 +3687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3122,7 +3707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3142,7 +3727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3162,7 +3747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3182,7 +3767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3202,7 +3787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3222,7 +3807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3242,7 +3827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3262,7 +3847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3282,7 +3867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3302,7 +3887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3322,7 +3907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3342,7 +3927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3362,7 +3947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3382,7 +3967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3402,7 +3987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3422,7 +4007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3442,7 +4027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3462,7 +4047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3482,7 +4067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3502,7 +4087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3522,7 +4107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3542,7 +4127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3562,7 +4147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3582,7 +4167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3602,7 +4187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3622,7 +4207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3642,7 +4227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3662,7 +4247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3682,7 +4267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3702,7 +4287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3722,7 +4307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3742,7 +4327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -3762,7 +4347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3782,7 +4367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3802,7 +4387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3822,7 +4407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3842,7 +4427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3862,7 +4447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3882,7 +4467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3902,7 +4487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3922,7 +4507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3942,7 +4527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3962,7 +4547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -3982,7 +4567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4002,7 +4587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4022,7 +4607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4042,7 +4627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4062,7 +4647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4082,7 +4667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4102,7 +4687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4122,7 +4707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4142,7 +4727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4162,7 +4747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4182,7 +4767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4202,7 +4787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4222,7 +4807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4242,7 +4827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4262,7 +4847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4282,7 +4867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4302,7 +4887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4322,7 +4907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4342,7 +4927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4362,7 +4947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4382,7 +4967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4402,7 +4987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4422,7 +5007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4442,7 +5027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4462,7 +5047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -4482,7 +5067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -4502,7 +5087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -4522,7 +5107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -4542,7 +5127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -4562,7 +5147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -4582,7 +5167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -4602,7 +5187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -4622,7 +5207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -4642,7 +5227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -4662,7 +5247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -4682,7 +5267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -4702,7 +5287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -4722,7 +5307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -4742,7 +5327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -4762,7 +5347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -4782,7 +5367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -4802,7 +5387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -4822,7 +5407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -4842,7 +5427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -4862,7 +5447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -4882,7 +5467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -4902,7 +5487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -4922,7 +5507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -4942,7 +5527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -4962,7 +5547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -4982,7 +5567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -5002,7 +5587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -5022,7 +5607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -5042,7 +5627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -5062,7 +5647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -5082,7 +5667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -5102,7 +5687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -5122,7 +5707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -5142,7 +5727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -5162,7 +5747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -5182,7 +5767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -5202,7 +5787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -5222,7 +5807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -5242,7 +5827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -5262,7 +5847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -5282,7 +5867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -5302,7 +5887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -5322,7 +5907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -5342,7 +5927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -5362,7 +5947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -5382,7 +5967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -5402,7 +5987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -5422,7 +6007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -5442,7 +6027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -5462,7 +6047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -5482,7 +6067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -5502,7 +6087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -5522,7 +6107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -5542,7 +6127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -5562,7 +6147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -5582,7 +6167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -5602,7 +6187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -5622,7 +6207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -5642,7 +6227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -5662,7 +6247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -5682,7 +6267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -5702,7 +6287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -5722,7 +6307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -5742,7 +6327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -5762,7 +6347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -5782,7 +6367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -5802,7 +6387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>142</v>
       </c>
@@ -5822,7 +6407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>143</v>
       </c>
@@ -5842,7 +6427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -5862,7 +6447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -5882,7 +6467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -5902,7 +6487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -5922,7 +6507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -5942,7 +6527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -5962,7 +6547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -5982,7 +6567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>151</v>
       </c>
@@ -6002,7 +6587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -6022,7 +6607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -6042,7 +6627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -6062,7 +6647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>155</v>
       </c>
@@ -6082,7 +6667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>156</v>
       </c>
@@ -6102,7 +6687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -6122,7 +6707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -6142,7 +6727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -6162,7 +6747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>160</v>
       </c>
@@ -6182,7 +6767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -6202,7 +6787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -6222,7 +6807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -6242,7 +6827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>164</v>
       </c>
@@ -6262,7 +6847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>165</v>
       </c>
@@ -6282,7 +6867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>166</v>
       </c>
@@ -6302,7 +6887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>167</v>
       </c>
@@ -6322,7 +6907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -6342,7 +6927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>169</v>
       </c>
@@ -6362,7 +6947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -6382,7 +6967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -6402,7 +6987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -6422,7 +7007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -6442,7 +7027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>174</v>
       </c>
@@ -6462,7 +7047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -6482,7 +7067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>176</v>
       </c>
@@ -6502,7 +7087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>177</v>
       </c>
@@ -6522,7 +7107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>178</v>
       </c>
@@ -6542,7 +7127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>179</v>
       </c>
@@ -6562,7 +7147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>180</v>
       </c>
@@ -6582,7 +7167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>181</v>
       </c>
@@ -6602,7 +7187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>182</v>
       </c>
@@ -6622,7 +7207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>183</v>
       </c>
@@ -6642,7 +7227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>184</v>
       </c>
@@ -6662,7 +7247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>185</v>
       </c>
@@ -6682,7 +7267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>186</v>
       </c>
@@ -6702,7 +7287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>187</v>
       </c>
@@ -6722,7 +7307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>188</v>
       </c>
@@ -6742,7 +7327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>189</v>
       </c>
@@ -6762,7 +7347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>190</v>
       </c>
@@ -6782,7 +7367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>191</v>
       </c>
@@ -6802,7 +7387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>192</v>
       </c>
@@ -6822,7 +7407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -6842,7 +7427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>194</v>
       </c>
@@ -6862,7 +7447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>195</v>
       </c>
@@ -6882,7 +7467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>196</v>
       </c>
@@ -6902,7 +7487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>197</v>
       </c>
@@ -6922,7 +7507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>198</v>
       </c>
@@ -6942,7 +7527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>199</v>
       </c>
@@ -6962,7 +7547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>200</v>
       </c>
@@ -6982,7 +7567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>201</v>
       </c>
@@ -7002,7 +7587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>203</v>
       </c>
@@ -7022,7 +7607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>204</v>
       </c>
@@ -7042,7 +7627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>205</v>
       </c>
@@ -7062,7 +7647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>206</v>
       </c>
@@ -7082,7 +7667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>207</v>
       </c>
@@ -7102,7 +7687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>208</v>
       </c>
@@ -7122,7 +7707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>209</v>
       </c>
@@ -7142,7 +7727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>210</v>
       </c>
@@ -7162,7 +7747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>211</v>
       </c>
@@ -7182,7 +7767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>212</v>
       </c>
@@ -7202,7 +7787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>213</v>
       </c>
@@ -7222,7 +7807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>214</v>
       </c>
@@ -7242,7 +7827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>215</v>
       </c>
@@ -7262,7 +7847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>216</v>
       </c>
@@ -7282,7 +7867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>217</v>
       </c>
@@ -7302,7 +7887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>218</v>
       </c>
@@ -7322,7 +7907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>219</v>
       </c>
@@ -7342,7 +7927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>220</v>
       </c>
@@ -7362,7 +7947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>221</v>
       </c>
@@ -7382,7 +7967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>222</v>
       </c>
@@ -7402,7 +7987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>223</v>
       </c>
@@ -7422,7 +8007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>224</v>
       </c>
@@ -7442,7 +8027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>225</v>
       </c>
@@ -7462,7 +8047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>226</v>
       </c>
@@ -7482,7 +8067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>227</v>
       </c>
@@ -7502,7 +8087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>228</v>
       </c>
@@ -7522,7 +8107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>229</v>
       </c>
@@ -7542,7 +8127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>230</v>
       </c>
@@ -7562,7 +8147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>231</v>
       </c>
@@ -7582,7 +8167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>232</v>
       </c>
@@ -7602,7 +8187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>233</v>
       </c>
@@ -7622,7 +8207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>234</v>
       </c>
@@ -7642,7 +8227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>235</v>
       </c>
@@ -7662,7 +8247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>236</v>
       </c>
@@ -7682,7 +8267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>237</v>
       </c>
@@ -7702,7 +8287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>238</v>
       </c>
@@ -7722,7 +8307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>239</v>
       </c>
@@ -7742,7 +8327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>240</v>
       </c>
@@ -7762,7 +8347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>241</v>
       </c>
@@ -7782,7 +8367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>242</v>
       </c>
@@ -7802,7 +8387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>243</v>
       </c>
@@ -7822,7 +8407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>244</v>
       </c>
@@ -7842,7 +8427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>245</v>
       </c>
@@ -7862,7 +8447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>246</v>
       </c>
@@ -7882,7 +8467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>247</v>
       </c>
@@ -7902,7 +8487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>248</v>
       </c>
@@ -7922,7 +8507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>249</v>
       </c>
@@ -7942,7 +8527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>250</v>
       </c>
@@ -7962,7 +8547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>251</v>
       </c>
@@ -7982,7 +8567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>252</v>
       </c>
@@ -8002,7 +8587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>253</v>
       </c>
@@ -8022,7 +8607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>254</v>
       </c>
@@ -8042,7 +8627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>255</v>
       </c>
@@ -8062,7 +8647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>256</v>
       </c>
@@ -8082,7 +8667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>257</v>
       </c>
@@ -8102,7 +8687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>258</v>
       </c>
@@ -8122,7 +8707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>259</v>
       </c>
@@ -8142,7 +8727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>260</v>
       </c>
@@ -8162,7 +8747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>261</v>
       </c>
@@ -8182,7 +8767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>262</v>
       </c>
@@ -8202,7 +8787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>263</v>
       </c>
@@ -8221,6 +8806,1336 @@
       <c r="F262" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>264</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>265</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>266</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>267</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>268</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>269</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>270</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>271</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>272</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>273</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>274</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>275</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>276</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>277</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>278</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>279</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>280</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>281</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>282</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>283</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>284</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>285</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>286</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>287</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>288</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>289</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>290</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>291</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>292</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>293</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>294</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>295</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>296</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>297</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>298</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>299</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>300</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>301</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>302</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>303</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>304</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>305</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>306</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>307</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>308</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>309</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>310</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>311</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>312</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>313</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>314</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>315</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>316</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>317</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>318</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>319</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>320</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>321</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>322</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>323</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>324</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+      <c r="F323" s="1"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>325</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>326</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>327</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>328</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>329</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>330</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>331</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>332</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>333</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>334</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>335</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>336</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>337</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>338</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>339</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>340</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>341</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>342</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>343</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>344</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>345</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>346</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>347</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>348</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>349</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>350</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>351</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>352</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>353</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>354</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>355</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>356</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>357</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>358</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8232,22 +10147,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29F73C7-BAF7-4DDB-A3F3-74A889132A9F}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8270,7 +10187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -8293,7 +10210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -8316,7 +10233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -8339,7 +10256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -8362,7 +10279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -8385,7 +10302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -8408,7 +10325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -8431,7 +10348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -8454,7 +10371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -8477,7 +10394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -8500,7 +10417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -8523,7 +10440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -8546,7 +10463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -8569,7 +10486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -8592,7 +10509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -8615,7 +10532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -8638,7 +10555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -8661,7 +10578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -8684,7 +10601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -8707,7 +10624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -8730,7 +10647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -8753,7 +10670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -8776,7 +10693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1022</v>
       </c>
@@ -8799,7 +10716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1023</v>
       </c>
@@ -8822,7 +10739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1024</v>
       </c>
@@ -8845,7 +10762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1025</v>
       </c>
@@ -8868,7 +10785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1026</v>
       </c>
@@ -8891,7 +10808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1027</v>
       </c>
@@ -8914,7 +10831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -8937,7 +10854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -8960,7 +10877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -8983,7 +10900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1031</v>
       </c>
@@ -9006,7 +10923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1032</v>
       </c>
@@ -9028,6 +10945,71 @@
       <c r="G34" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1033</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1034</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1035</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1036</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1037</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9045,13 +11027,13 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.9296875" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -9059,27 +11041,27 @@
         <v>566</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>571</v>
       </c>

--- a/i18n/de.xlsx
+++ b/i18n/de.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AA659A-B4F0-45E8-9ED2-A42034AA28FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B1A993-BC3A-459E-B25E-FC76FAEF22FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1029">
   <si>
     <t>id</t>
   </si>
@@ -3126,16 +3126,25 @@
   </si>
   <si>
     <t>Wetland Data Analyst</t>
+  </si>
+  <si>
+    <t>GAME END</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3278,8 +3287,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5AA05F43-7971-4EB4-8E5C-9E7EFB591048}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{A5CFAA4D-6579-4D29-89EB-6C57AE6E1FEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5AA05F43-7971-4EB4-8E5C-9E7EFB591048}" name="Table4" displayName="Table4" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{A5CFAA4D-6579-4D29-89EB-6C57AE6E1FEB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EA688C91-7F6D-4D7A-9D79-A30EB35759F6}" name="English name"/>
     <tableColumn id="2" xr3:uid="{3A0CACDB-DCE4-4775-8258-271B6485FC6A}" name="Translated"/>
@@ -10149,7 +10158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29F73C7-BAF7-4DDB-A3F3-74A889132A9F}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A35" sqref="A35:B39"/>
     </sheetView>
   </sheetViews>
@@ -11021,10 +11030,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D758ED0-344A-47B5-8000-C5BBB7F38038}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11063,10 +11072,16 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>571</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/i18n/de.xlsx
+++ b/i18n/de.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B1A993-BC3A-459E-B25E-FC76FAEF22FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BE533E-071C-47B9-8290-29501039CE56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="1030">
   <si>
     <t>id</t>
   </si>
@@ -3129,6 +3129,9 @@
   </si>
   <si>
     <t>GAME END</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -3177,7 +3180,19 @@
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3226,14 +3241,18 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{342334EA-CD0C-475A-9424-8830DAA235E3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="11" unboundColumnsRight="4">
+    <queryTableFields count="10">
       <queryTableField id="1" name="id" tableColumnId="1"/>
       <queryTableField id="2" name="English name" tableColumnId="2"/>
       <queryTableField id="3" name="Scientific name" tableColumnId="3"/>
       <queryTableField id="4" name="Common name" tableColumnId="4"/>
       <queryTableField id="5" name="Power text" tableColumnId="5"/>
       <queryTableField id="6" name="Note" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3256,15 +3275,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:F357" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F357" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:J357" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J357" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{25ED0C0D-B939-406D-8B67-A9F9A8641DEE}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F31DEB5D-C6B9-4F1B-820C-4F95CE57D16A}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A5506B6F-49BA-42EE-A718-CC5148A660D3}" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{09B53191-4035-465E-9330-BD4E97D6D12B}" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3E46B35F-181F-4677-927E-F31B43E5FCB4}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{F31DEB5D-C6B9-4F1B-820C-4F95CE57D16A}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A5506B6F-49BA-42EE-A718-CC5148A660D3}" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{09B53191-4035-465E-9330-BD4E97D6D12B}" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{3E46B35F-181F-4677-927E-F31B43E5FCB4}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{AB4B94B6-6B83-49FC-A327-0A1F51DDE917}" uniqueName="7" name="Anatomist" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{3F166C6F-AA54-4C53-926B-B1B372220F05}" uniqueName="8" name="Cartographer" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{8BC985DB-E7AD-4BC9-BB79-A44872A9BC4A}" uniqueName="9" name="Historian" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{6C9564BB-F826-4C1F-A220-E68FAE8DA7C8}" uniqueName="10" name="Photographer" queryTableFieldId="10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3275,12 +3298,12 @@
   <autoFilter ref="A1:G39" xr:uid="{35D50B44-8490-4501-A753-CAF3081EA540}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{339841CB-3C69-4C68-9375-1B8F78B4B947}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{6E49BD89-CAF6-41F4-96CF-6DF3FD6EEA37}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B65DE2EA-D492-4089-8B68-9542CC81F833}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{02D544BE-21DA-4CF7-BD1B-D83445917C90}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{F2682937-4B01-4B76-AF27-0D1B8942118C}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{5D15D6CB-F420-4619-9C0C-DF47D651A99D}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{6E49BD89-CAF6-41F4-96CF-6DF3FD6EEA37}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{B65DE2EA-D492-4089-8B68-9542CC81F833}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{02D544BE-21DA-4CF7-BD1B-D83445917C90}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{F2682937-4B01-4B76-AF27-0D1B8942118C}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{5D15D6CB-F420-4619-9C0C-DF47D651A99D}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3560,10 +3583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F357"/>
+  <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263:C357"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3576,7 +3599,7 @@
     <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3595,8 +3618,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3615,8 +3650,20 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3635,8 +3682,20 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3655,8 +3714,20 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3675,8 +3746,20 @@
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3695,8 +3778,20 @@
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3715,8 +3810,20 @@
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3735,8 +3842,20 @@
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3755,8 +3874,20 @@
       <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3775,8 +3906,20 @@
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3795,8 +3938,20 @@
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3815,8 +3970,20 @@
       <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3835,8 +4002,20 @@
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3855,8 +4034,20 @@
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3875,8 +4066,20 @@
       <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3895,8 +4098,20 @@
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3915,8 +4130,20 @@
       <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3935,8 +4162,20 @@
       <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3955,8 +4194,20 @@
       <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3975,8 +4226,20 @@
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3995,8 +4258,20 @@
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -4015,8 +4290,20 @@
       <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4035,8 +4322,20 @@
       <c r="F23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4055,8 +4354,20 @@
       <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -4075,8 +4386,20 @@
       <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -4095,8 +4418,20 @@
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -4115,8 +4450,20 @@
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -4135,8 +4482,20 @@
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -4155,8 +4514,20 @@
       <c r="F29" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4175,8 +4546,20 @@
       <c r="F30" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -4195,8 +4578,20 @@
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -4215,8 +4610,20 @@
       <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -4235,8 +4642,20 @@
       <c r="F33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4255,8 +4674,20 @@
       <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4275,8 +4706,20 @@
       <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4295,8 +4738,20 @@
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4315,8 +4770,20 @@
       <c r="F37" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4335,8 +4802,20 @@
       <c r="F38" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4355,8 +4834,20 @@
       <c r="F39" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4375,8 +4866,20 @@
       <c r="F40" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4395,8 +4898,20 @@
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4415,8 +4930,20 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4435,8 +4962,20 @@
       <c r="F43" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4455,8 +4994,20 @@
       <c r="F44" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4475,8 +5026,20 @@
       <c r="F45" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4495,8 +5058,20 @@
       <c r="F46" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -4515,8 +5090,20 @@
       <c r="F47" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4535,8 +5122,20 @@
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -4555,8 +5154,20 @@
       <c r="F49" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4575,8 +5186,20 @@
       <c r="F50" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4595,8 +5218,20 @@
       <c r="F51" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4615,8 +5250,20 @@
       <c r="F52" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4635,8 +5282,20 @@
       <c r="F53" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4655,8 +5314,20 @@
       <c r="F54" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4675,8 +5346,20 @@
       <c r="F55" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4695,8 +5378,20 @@
       <c r="F56" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4715,8 +5410,20 @@
       <c r="F57" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4735,8 +5442,20 @@
       <c r="F58" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4755,8 +5474,20 @@
       <c r="F59" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4775,8 +5506,20 @@
       <c r="F60" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4795,8 +5538,20 @@
       <c r="F61" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4815,8 +5570,20 @@
       <c r="F62" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4835,8 +5602,20 @@
       <c r="F63" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4855,8 +5634,20 @@
       <c r="F64" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4875,8 +5666,20 @@
       <c r="F65" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4895,8 +5698,20 @@
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4915,8 +5730,20 @@
       <c r="F67" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4935,8 +5762,20 @@
       <c r="F68" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4955,8 +5794,20 @@
       <c r="F69" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4975,8 +5826,20 @@
       <c r="F70" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4995,8 +5858,20 @@
       <c r="F71" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -5015,8 +5890,20 @@
       <c r="F72" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -5035,8 +5922,20 @@
       <c r="F73" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -5055,8 +5954,20 @@
       <c r="F74" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -5075,8 +5986,20 @@
       <c r="F75" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -5095,8 +6018,20 @@
       <c r="F76" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -5115,8 +6050,20 @@
       <c r="F77" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -5135,8 +6082,20 @@
       <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -5155,8 +6114,20 @@
       <c r="F79" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -5175,8 +6146,20 @@
       <c r="F80" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -5195,8 +6178,20 @@
       <c r="F81" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -5215,8 +6210,20 @@
       <c r="F82" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -5235,8 +6242,20 @@
       <c r="F83" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -5255,8 +6274,20 @@
       <c r="F84" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -5275,8 +6306,20 @@
       <c r="F85" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -5295,8 +6338,20 @@
       <c r="F86" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -5315,8 +6370,20 @@
       <c r="F87" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -5335,8 +6402,20 @@
       <c r="F88" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -5355,8 +6434,20 @@
       <c r="F89" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -5375,8 +6466,20 @@
       <c r="F90" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -5395,8 +6498,20 @@
       <c r="F91" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -5415,8 +6530,20 @@
       <c r="F92" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -5435,8 +6562,20 @@
       <c r="F93" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -5455,8 +6594,20 @@
       <c r="F94" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -5475,8 +6626,20 @@
       <c r="F95" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -5495,8 +6658,20 @@
       <c r="F96" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -5515,8 +6690,20 @@
       <c r="F97" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -5535,8 +6722,20 @@
       <c r="F98" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -5555,8 +6754,20 @@
       <c r="F99" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -5575,8 +6786,20 @@
       <c r="F100" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -5595,8 +6818,20 @@
       <c r="F101" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -5615,8 +6850,20 @@
       <c r="F102" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -5635,8 +6882,20 @@
       <c r="F103" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -5655,8 +6914,20 @@
       <c r="F104" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -5675,8 +6946,20 @@
       <c r="F105" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -5695,8 +6978,20 @@
       <c r="F106" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -5715,8 +7010,20 @@
       <c r="F107" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -5735,8 +7042,20 @@
       <c r="F108" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -5755,8 +7074,20 @@
       <c r="F109" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -5775,8 +7106,20 @@
       <c r="F110" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -5795,8 +7138,20 @@
       <c r="F111" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -5815,8 +7170,20 @@
       <c r="F112" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -5835,8 +7202,20 @@
       <c r="F113" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -5855,8 +7234,20 @@
       <c r="F114" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -5875,8 +7266,20 @@
       <c r="F115" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -5895,8 +7298,20 @@
       <c r="F116" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -5915,8 +7330,20 @@
       <c r="F117" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -5935,8 +7362,20 @@
       <c r="F118" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -5955,8 +7394,20 @@
       <c r="F119" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -5975,8 +7426,20 @@
       <c r="F120" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -5995,8 +7458,20 @@
       <c r="F121" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -6015,8 +7490,20 @@
       <c r="F122" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -6035,8 +7522,20 @@
       <c r="F123" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -6055,8 +7554,20 @@
       <c r="F124" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -6075,8 +7586,20 @@
       <c r="F125" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -6095,8 +7618,20 @@
       <c r="F126" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -6115,8 +7650,20 @@
       <c r="F127" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -6135,8 +7682,20 @@
       <c r="F128" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -6155,8 +7714,20 @@
       <c r="F129" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -6175,8 +7746,20 @@
       <c r="F130" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -6195,8 +7778,20 @@
       <c r="F131" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -6215,8 +7810,20 @@
       <c r="F132" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -6235,8 +7842,20 @@
       <c r="F133" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -6255,8 +7874,20 @@
       <c r="F134" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -6275,8 +7906,20 @@
       <c r="F135" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -6295,8 +7938,20 @@
       <c r="F136" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -6315,8 +7970,20 @@
       <c r="F137" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -6335,8 +8002,20 @@
       <c r="F138" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -6355,8 +8034,20 @@
       <c r="F139" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -6375,8 +8066,20 @@
       <c r="F140" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -6395,8 +8098,20 @@
       <c r="F141" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>142</v>
       </c>
@@ -6415,8 +8130,20 @@
       <c r="F142" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>143</v>
       </c>
@@ -6435,8 +8162,20 @@
       <c r="F143" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -6455,8 +8194,20 @@
       <c r="F144" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -6475,8 +8226,20 @@
       <c r="F145" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -6495,8 +8258,20 @@
       <c r="F146" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -6515,8 +8290,20 @@
       <c r="F147" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -6535,8 +8322,20 @@
       <c r="F148" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -6555,8 +8354,20 @@
       <c r="F149" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -6575,8 +8386,20 @@
       <c r="F150" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>151</v>
       </c>
@@ -6595,8 +8418,20 @@
       <c r="F151" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -6615,8 +8450,20 @@
       <c r="F152" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -6635,8 +8482,20 @@
       <c r="F153" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -6655,8 +8514,20 @@
       <c r="F154" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>155</v>
       </c>
@@ -6675,8 +8546,20 @@
       <c r="F155" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>156</v>
       </c>
@@ -6695,8 +8578,20 @@
       <c r="F156" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -6715,8 +8610,20 @@
       <c r="F157" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -6735,8 +8642,20 @@
       <c r="F158" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -6755,8 +8674,20 @@
       <c r="F159" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>160</v>
       </c>
@@ -6775,8 +8706,20 @@
       <c r="F160" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -6795,8 +8738,20 @@
       <c r="F161" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -6815,8 +8770,20 @@
       <c r="F162" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -6835,8 +8802,20 @@
       <c r="F163" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>164</v>
       </c>
@@ -6855,8 +8834,20 @@
       <c r="F164" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>165</v>
       </c>
@@ -6875,8 +8866,20 @@
       <c r="F165" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>166</v>
       </c>
@@ -6895,8 +8898,20 @@
       <c r="F166" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>167</v>
       </c>
@@ -6915,8 +8930,20 @@
       <c r="F167" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -6935,8 +8962,20 @@
       <c r="F168" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>169</v>
       </c>
@@ -6955,8 +8994,20 @@
       <c r="F169" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -6975,8 +9026,20 @@
       <c r="F170" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -6995,8 +9058,20 @@
       <c r="F171" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -7015,8 +9090,20 @@
       <c r="F172" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -7035,8 +9122,20 @@
       <c r="F173" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>174</v>
       </c>
@@ -7055,8 +9154,20 @@
       <c r="F174" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -7075,8 +9186,20 @@
       <c r="F175" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>176</v>
       </c>
@@ -7095,8 +9218,20 @@
       <c r="F176" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>177</v>
       </c>
@@ -7115,8 +9250,20 @@
       <c r="F177" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>178</v>
       </c>
@@ -7135,8 +9282,20 @@
       <c r="F178" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>179</v>
       </c>
@@ -7155,8 +9314,20 @@
       <c r="F179" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>180</v>
       </c>
@@ -7175,8 +9346,20 @@
       <c r="F180" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>181</v>
       </c>
@@ -7195,8 +9378,20 @@
       <c r="F181" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>182</v>
       </c>
@@ -7215,8 +9410,20 @@
       <c r="F182" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>183</v>
       </c>
@@ -7235,8 +9442,20 @@
       <c r="F183" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>184</v>
       </c>
@@ -7255,8 +9474,20 @@
       <c r="F184" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>185</v>
       </c>
@@ -7275,8 +9506,20 @@
       <c r="F185" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>186</v>
       </c>
@@ -7295,8 +9538,20 @@
       <c r="F186" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>187</v>
       </c>
@@ -7315,8 +9570,20 @@
       <c r="F187" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>188</v>
       </c>
@@ -7335,8 +9602,20 @@
       <c r="F188" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>189</v>
       </c>
@@ -7355,8 +9634,20 @@
       <c r="F189" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>190</v>
       </c>
@@ -7375,8 +9666,20 @@
       <c r="F190" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>191</v>
       </c>
@@ -7395,8 +9698,20 @@
       <c r="F191" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>192</v>
       </c>
@@ -7415,8 +9730,20 @@
       <c r="F192" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -7435,8 +9762,20 @@
       <c r="F193" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>194</v>
       </c>
@@ -7455,8 +9794,20 @@
       <c r="F194" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>195</v>
       </c>
@@ -7475,8 +9826,20 @@
       <c r="F195" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>196</v>
       </c>
@@ -7495,8 +9858,20 @@
       <c r="F196" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>197</v>
       </c>
@@ -7515,8 +9890,20 @@
       <c r="F197" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>198</v>
       </c>
@@ -7535,8 +9922,20 @@
       <c r="F198" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>199</v>
       </c>
@@ -7555,8 +9954,20 @@
       <c r="F199" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>200</v>
       </c>
@@ -7575,8 +9986,20 @@
       <c r="F200" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>201</v>
       </c>
@@ -7595,8 +10018,20 @@
       <c r="F201" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>203</v>
       </c>
@@ -7615,8 +10050,20 @@
       <c r="F202" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>204</v>
       </c>
@@ -7635,8 +10082,20 @@
       <c r="F203" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>205</v>
       </c>
@@ -7655,8 +10114,20 @@
       <c r="F204" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>206</v>
       </c>
@@ -7675,8 +10146,20 @@
       <c r="F205" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>207</v>
       </c>
@@ -7695,8 +10178,20 @@
       <c r="F206" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>208</v>
       </c>
@@ -7715,8 +10210,20 @@
       <c r="F207" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>209</v>
       </c>
@@ -7735,8 +10242,20 @@
       <c r="F208" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>210</v>
       </c>
@@ -7755,8 +10274,20 @@
       <c r="F209" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>211</v>
       </c>
@@ -7775,8 +10306,20 @@
       <c r="F210" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>212</v>
       </c>
@@ -7795,8 +10338,20 @@
       <c r="F211" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>213</v>
       </c>
@@ -7815,8 +10370,20 @@
       <c r="F212" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>214</v>
       </c>
@@ -7835,8 +10402,20 @@
       <c r="F213" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>215</v>
       </c>
@@ -7855,8 +10434,20 @@
       <c r="F214" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>216</v>
       </c>
@@ -7875,8 +10466,20 @@
       <c r="F215" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>217</v>
       </c>
@@ -7895,8 +10498,20 @@
       <c r="F216" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>218</v>
       </c>
@@ -7915,8 +10530,20 @@
       <c r="F217" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>219</v>
       </c>
@@ -7935,8 +10562,20 @@
       <c r="F218" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>220</v>
       </c>
@@ -7955,8 +10594,20 @@
       <c r="F219" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>221</v>
       </c>
@@ -7975,8 +10626,20 @@
       <c r="F220" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>222</v>
       </c>
@@ -7995,8 +10658,20 @@
       <c r="F221" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>223</v>
       </c>
@@ -8015,8 +10690,20 @@
       <c r="F222" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>224</v>
       </c>
@@ -8035,8 +10722,20 @@
       <c r="F223" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>225</v>
       </c>
@@ -8055,8 +10754,20 @@
       <c r="F224" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>226</v>
       </c>
@@ -8075,8 +10786,20 @@
       <c r="F225" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G225" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>227</v>
       </c>
@@ -8095,8 +10818,20 @@
       <c r="F226" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>228</v>
       </c>
@@ -8115,8 +10850,20 @@
       <c r="F227" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G227" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>229</v>
       </c>
@@ -8135,8 +10882,20 @@
       <c r="F228" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>230</v>
       </c>
@@ -8155,8 +10914,20 @@
       <c r="F229" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>231</v>
       </c>
@@ -8175,8 +10946,20 @@
       <c r="F230" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>232</v>
       </c>
@@ -8195,8 +10978,20 @@
       <c r="F231" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G231" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>233</v>
       </c>
@@ -8215,8 +11010,20 @@
       <c r="F232" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>234</v>
       </c>
@@ -8235,8 +11042,20 @@
       <c r="F233" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>235</v>
       </c>
@@ -8255,8 +11074,20 @@
       <c r="F234" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>236</v>
       </c>
@@ -8275,8 +11106,20 @@
       <c r="F235" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>237</v>
       </c>
@@ -8295,8 +11138,20 @@
       <c r="F236" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>238</v>
       </c>
@@ -8315,8 +11170,20 @@
       <c r="F237" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G237" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>239</v>
       </c>
@@ -8335,8 +11202,20 @@
       <c r="F238" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>240</v>
       </c>
@@ -8355,8 +11234,20 @@
       <c r="F239" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>241</v>
       </c>
@@ -8375,8 +11266,20 @@
       <c r="F240" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>242</v>
       </c>
@@ -8395,8 +11298,20 @@
       <c r="F241" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>243</v>
       </c>
@@ -8415,8 +11330,20 @@
       <c r="F242" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>244</v>
       </c>
@@ -8435,8 +11362,20 @@
       <c r="F243" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G243" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>245</v>
       </c>
@@ -8455,8 +11394,20 @@
       <c r="F244" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G244" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>246</v>
       </c>
@@ -8475,8 +11426,20 @@
       <c r="F245" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G245" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>247</v>
       </c>
@@ -8495,8 +11458,20 @@
       <c r="F246" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G246" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>248</v>
       </c>
@@ -8515,8 +11490,20 @@
       <c r="F247" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G247" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>249</v>
       </c>
@@ -8535,8 +11522,20 @@
       <c r="F248" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G248" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>250</v>
       </c>
@@ -8555,8 +11554,20 @@
       <c r="F249" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G249" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>251</v>
       </c>
@@ -8575,8 +11586,20 @@
       <c r="F250" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>252</v>
       </c>
@@ -8595,8 +11618,20 @@
       <c r="F251" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>253</v>
       </c>
@@ -8615,8 +11650,20 @@
       <c r="F252" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>254</v>
       </c>
@@ -8635,8 +11682,20 @@
       <c r="F253" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>255</v>
       </c>
@@ -8655,8 +11714,20 @@
       <c r="F254" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>256</v>
       </c>
@@ -8675,8 +11746,20 @@
       <c r="F255" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G255" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>257</v>
       </c>
@@ -8695,8 +11778,20 @@
       <c r="F256" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>258</v>
       </c>
@@ -8715,8 +11810,20 @@
       <c r="F257" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G257" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>259</v>
       </c>
@@ -8735,8 +11842,20 @@
       <c r="F258" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G258" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>260</v>
       </c>
@@ -8755,8 +11874,20 @@
       <c r="F259" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G259" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>261</v>
       </c>
@@ -8775,8 +11906,20 @@
       <c r="F260" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G260" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>262</v>
       </c>
@@ -8795,8 +11938,20 @@
       <c r="F261" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G261" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>263</v>
       </c>
@@ -8815,8 +11970,20 @@
       <c r="F262" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>264</v>
       </c>
@@ -8829,8 +11996,20 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G263" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>265</v>
       </c>
@@ -8843,8 +12022,20 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G264" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>266</v>
       </c>
@@ -8857,8 +12048,20 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G265" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>267</v>
       </c>
@@ -8871,8 +12074,20 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G266" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>268</v>
       </c>
@@ -8885,8 +12100,20 @@
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G267" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>269</v>
       </c>
@@ -8899,8 +12126,20 @@
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G268" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>270</v>
       </c>
@@ -8913,8 +12152,20 @@
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G269" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>271</v>
       </c>
@@ -8927,8 +12178,20 @@
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G270" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>272</v>
       </c>
@@ -8941,8 +12204,20 @@
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G271" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>273</v>
       </c>
@@ -8955,8 +12230,20 @@
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G272" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>274</v>
       </c>
@@ -8969,8 +12256,20 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>275</v>
       </c>
@@ -8983,8 +12282,20 @@
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>276</v>
       </c>
@@ -8997,8 +12308,20 @@
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G275" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>277</v>
       </c>
@@ -9011,8 +12334,20 @@
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>278</v>
       </c>
@@ -9025,8 +12360,20 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>279</v>
       </c>
@@ -9039,8 +12386,20 @@
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>280</v>
       </c>
@@ -9053,8 +12412,20 @@
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>281</v>
       </c>
@@ -9067,8 +12438,20 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>282</v>
       </c>
@@ -9081,8 +12464,20 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>283</v>
       </c>
@@ -9095,8 +12490,20 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G282" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>284</v>
       </c>
@@ -9109,8 +12516,20 @@
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>285</v>
       </c>
@@ -9123,8 +12542,20 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>286</v>
       </c>
@@ -9137,8 +12568,20 @@
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>287</v>
       </c>
@@ -9151,8 +12594,20 @@
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>288</v>
       </c>
@@ -9165,8 +12620,20 @@
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>289</v>
       </c>
@@ -9179,8 +12646,20 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G288" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>290</v>
       </c>
@@ -9193,8 +12672,20 @@
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G289" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>291</v>
       </c>
@@ -9207,8 +12698,20 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G290" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>292</v>
       </c>
@@ -9221,8 +12724,20 @@
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>293</v>
       </c>
@@ -9235,8 +12750,20 @@
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>294</v>
       </c>
@@ -9249,8 +12776,20 @@
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>295</v>
       </c>
@@ -9263,8 +12802,20 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>296</v>
       </c>
@@ -9277,8 +12828,20 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G295" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>297</v>
       </c>
@@ -9291,8 +12854,20 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G296" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>298</v>
       </c>
@@ -9305,8 +12880,20 @@
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>299</v>
       </c>
@@ -9319,8 +12906,20 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>300</v>
       </c>
@@ -9333,8 +12932,20 @@
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>301</v>
       </c>
@@ -9347,8 +12958,20 @@
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G300" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>302</v>
       </c>
@@ -9361,8 +12984,20 @@
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>303</v>
       </c>
@@ -9375,8 +13010,20 @@
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>304</v>
       </c>
@@ -9389,8 +13036,20 @@
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>305</v>
       </c>
@@ -9403,8 +13062,20 @@
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>306</v>
       </c>
@@ -9417,8 +13088,20 @@
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>307</v>
       </c>
@@ -9431,8 +13114,20 @@
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G306" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>308</v>
       </c>
@@ -9445,8 +13140,20 @@
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>309</v>
       </c>
@@ -9459,8 +13166,20 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>310</v>
       </c>
@@ -9473,8 +13192,20 @@
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G309" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>311</v>
       </c>
@@ -9487,8 +13218,20 @@
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G310" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>312</v>
       </c>
@@ -9501,8 +13244,20 @@
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>313</v>
       </c>
@@ -9515,8 +13270,20 @@
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>314</v>
       </c>
@@ -9529,8 +13296,20 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G313" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I313" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>315</v>
       </c>
@@ -9543,8 +13322,20 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>316</v>
       </c>
@@ -9557,8 +13348,20 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>317</v>
       </c>
@@ -9571,8 +13374,20 @@
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G316" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>318</v>
       </c>
@@ -9585,8 +13400,20 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G317" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>319</v>
       </c>
@@ -9599,8 +13426,20 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G318" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>320</v>
       </c>
@@ -9613,8 +13452,20 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G319" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>321</v>
       </c>
@@ -9627,8 +13478,20 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G320" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>322</v>
       </c>
@@ -9641,8 +13504,20 @@
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G321" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I321" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>323</v>
       </c>
@@ -9655,8 +13530,20 @@
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G322" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>324</v>
       </c>
@@ -9669,8 +13556,20 @@
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G323" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>325</v>
       </c>
@@ -9683,8 +13582,20 @@
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G324" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>326</v>
       </c>
@@ -9697,8 +13608,20 @@
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G325" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H325" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>327</v>
       </c>
@@ -9711,8 +13634,20 @@
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G326" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>328</v>
       </c>
@@ -9725,8 +13660,20 @@
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>329</v>
       </c>
@@ -9739,8 +13686,20 @@
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G328" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>330</v>
       </c>
@@ -9753,8 +13712,20 @@
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G329" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>331</v>
       </c>
@@ -9767,8 +13738,20 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G330" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>332</v>
       </c>
@@ -9781,8 +13764,20 @@
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G331" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>333</v>
       </c>
@@ -9795,8 +13790,20 @@
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G332" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>334</v>
       </c>
@@ -9809,8 +13816,20 @@
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G333" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>335</v>
       </c>
@@ -9823,8 +13842,20 @@
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G334" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>336</v>
       </c>
@@ -9837,8 +13868,20 @@
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G335" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>337</v>
       </c>
@@ -9851,8 +13894,20 @@
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G336" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H336" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I336" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>338</v>
       </c>
@@ -9865,8 +13920,20 @@
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>339</v>
       </c>
@@ -9879,8 +13946,20 @@
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>340</v>
       </c>
@@ -9893,8 +13972,20 @@
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G339" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>341</v>
       </c>
@@ -9907,8 +13998,20 @@
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G340" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H340" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>342</v>
       </c>
@@ -9921,8 +14024,20 @@
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G341" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>343</v>
       </c>
@@ -9935,8 +14050,20 @@
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G342" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>344</v>
       </c>
@@ -9949,8 +14076,20 @@
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G343" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>345</v>
       </c>
@@ -9963,8 +14102,20 @@
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>346</v>
       </c>
@@ -9977,8 +14128,20 @@
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G345" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>347</v>
       </c>
@@ -9991,8 +14154,20 @@
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G346" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>348</v>
       </c>
@@ -10005,8 +14180,20 @@
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G347" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>349</v>
       </c>
@@ -10019,8 +14206,20 @@
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G348" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>350</v>
       </c>
@@ -10033,8 +14232,20 @@
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G349" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>351</v>
       </c>
@@ -10047,8 +14258,20 @@
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G350" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>352</v>
       </c>
@@ -10061,8 +14284,20 @@
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G351" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>353</v>
       </c>
@@ -10075,8 +14310,20 @@
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G352" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>354</v>
       </c>
@@ -10089,8 +14336,20 @@
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G353" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>355</v>
       </c>
@@ -10103,8 +14362,20 @@
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G354" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>356</v>
       </c>
@@ -10117,8 +14388,20 @@
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G355" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>357</v>
       </c>
@@ -10131,8 +14414,20 @@
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G356" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>358</v>
       </c>
@@ -10145,8 +14440,21 @@
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
+      <c r="G357" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I357" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -11032,7 +15340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D758ED0-344A-47B5-8000-C5BBB7F38038}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>

--- a/i18n/de.xlsx
+++ b/i18n/de.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="1123">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -859,7 +859,36 @@
     <t xml:space="preserve">Eisvogel</t>
   </si>
   <si>
-    <t xml:space="preserve">Nimm 1 [fish] aus dem Vorrat eines Mitspielers und lege ihn in deinen eigenen Vorrat. Der betroffene Mitspieler erhält 1 [die] aus dem Vogelhäuschen.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nimm 1 [fish] aus dem Vorrat eines Mitspielers und </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">lagere ihn auf dieser Karte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Der betroffene Mitspieler erhält 1 [die] aus dem Vogelhäuschen.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Common Little Bittern</t>
@@ -1138,7 +1167,36 @@
     <t xml:space="preserve">Eichelhäher</t>
   </si>
   <si>
-    <t xml:space="preserve">Nimm 1 [seed] aus dem Vorrat eines Mitspielers und lege ihn in deinen eigenen Vorrat. Der betroffene Mitspieler erhält 1 [die] aus dem Vogelhäuschen.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nimm 1 [seed] aus dem Vorrat eines Mitspielers und </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">lagere ihn auf dieser Karte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Der betroffene Mitspieler erhält 1 [die] aus dem Vogelhäuschen.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Eurasian Magpie</t>
@@ -1654,7 +1712,7 @@
     <t xml:space="preserve">Steinkauz</t>
   </si>
   <si>
-    <t xml:space="preserve">Nimm 1 [rodent] aus dem Vorrat eines Mitspielers und lege ihn in deinen eigenen Vorrat. Der betroffene Mitspieler erhält 1 [die] aus dem Vogelhäuschen.</t>
+    <t xml:space="preserve">Nimm 1 [rodent] aus dem Vorrat eines Mitspielers und lagere ihn auf dieser Karte. Der betroffene Mitspieler erhält 1 [die] aus dem Vogelhäuschen.</t>
   </si>
   <si>
     <t xml:space="preserve">Loggerhead Shrike</t>
@@ -1975,7 +2033,36 @@
     <t xml:space="preserve">Neuntöter</t>
   </si>
   <si>
-    <t xml:space="preserve">Nimm 1 [invertebrate] aus dem Vorrat eines Mitspielers und lege ihn in deinen eigenen Vorrat. Der betroffene Mitspieler erhält 1 [die] aus dem Vogelhäuschen.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nimm 1 [invertebrate] aus dem Vorrat eines Mitspielers und </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">lagere ihn auf dieser Karte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Der betroffene Mitspieler erhält 1 [die] aus dem Vogelhäuschen.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Red-Bellied Woodpecker </t>
@@ -3172,6 +3259,9 @@
     <t xml:space="preserve">Morphologe</t>
   </si>
   <si>
+    <t xml:space="preserve">Mit die Europa-Erweiterung gelten nun durch neue Vögel die folgenden zusätzlichen Begriffe: Fuß, Höcker</t>
+  </si>
+  <si>
     <t xml:space="preserve">Backyard Birder</t>
   </si>
   <si>
@@ -3205,6 +3295,9 @@
     <t xml:space="preserve">Geograf</t>
   </si>
   <si>
+    <t xml:space="preserve">Mit die Europa-Erweiterung gelten nun durch neue Vögel die folgenden zusätzlichen Begriffe: Korse, Ligurien, Türke</t>
+  </si>
+  <si>
     <t xml:space="preserve">Citizen Scientist</t>
   </si>
   <si>
@@ -3253,6 +3346,9 @@
     <t xml:space="preserve">Biologe</t>
   </si>
   <si>
+    <t xml:space="preserve">Mit die Europa-Erweiterung gelten nun durch neue Vögel die folgenden zusätzlichen Begriffe: Biene, Buch(e), Kohl, Koralle, Maus, Tanne, Wespe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Large Bird Specialist</t>
   </si>
   <si>
@@ -3284,6 +3380,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fotograf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit die Europa-Erweiterung gelten nun durch neue Vögel die folgenden zusätzlichen Begriffe: grau, koralle</t>
   </si>
   <si>
     <t xml:space="preserve">Platform Builder</t>
@@ -3468,12 +3567,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3485,11 +3584,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3572,56 +3667,56 @@
   </sheetPr>
   <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E163" activeCellId="0" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="160.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="160.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3630,7 +3725,7 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2"/>
@@ -3641,7 +3736,7 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3650,7 +3745,7 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2"/>
@@ -3663,7 +3758,7 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3672,7 +3767,7 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="2"/>
@@ -3685,7 +3780,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3694,7 +3789,7 @@
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2"/>
@@ -3707,7 +3802,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3716,7 +3811,7 @@
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="2"/>
@@ -3729,7 +3824,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3738,7 +3833,7 @@
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="2"/>
@@ -3753,7 +3848,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3762,7 +3857,7 @@
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="2"/>
@@ -3775,7 +3870,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3784,7 +3879,7 @@
       <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="2"/>
@@ -3797,7 +3892,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3806,7 +3901,7 @@
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="2"/>
@@ -3821,7 +3916,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3830,7 +3925,7 @@
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="2"/>
@@ -3843,7 +3938,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3852,7 +3947,7 @@
       <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="2"/>
@@ -3867,7 +3962,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3876,7 +3971,7 @@
       <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="2"/>
@@ -3889,7 +3984,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3898,7 +3993,7 @@
       <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="2"/>
@@ -3911,7 +4006,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3920,7 +4015,7 @@
       <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="2"/>
@@ -3931,7 +4026,7 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3940,7 +4035,7 @@
       <c r="C16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E16" s="2"/>
@@ -3955,7 +4050,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3964,7 +4059,7 @@
       <c r="C17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E17" s="2"/>
@@ -3979,7 +4074,7 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3988,7 +4083,7 @@
       <c r="C18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -4001,7 +4096,7 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -4010,7 +4105,7 @@
       <c r="C19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="2"/>
@@ -4021,7 +4116,7 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4030,7 +4125,7 @@
       <c r="C20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E20" s="2"/>
@@ -4041,7 +4136,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -4050,7 +4145,7 @@
       <c r="C21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E21" s="2"/>
@@ -4063,7 +4158,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -4072,7 +4167,7 @@
       <c r="C22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E22" s="2"/>
@@ -4083,7 +4178,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -4092,7 +4187,7 @@
       <c r="C23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E23" s="2"/>
@@ -4103,7 +4198,7 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -4112,7 +4207,7 @@
       <c r="C24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E24" s="2"/>
@@ -4125,7 +4220,7 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4134,7 +4229,7 @@
       <c r="C25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E25" s="2"/>
@@ -4151,7 +4246,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4160,7 +4255,7 @@
       <c r="C26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E26" s="2"/>
@@ -4171,7 +4266,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -4180,7 +4275,7 @@
       <c r="C27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E27" s="2"/>
@@ -4193,7 +4288,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -4202,7 +4297,7 @@
       <c r="C28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E28" s="2"/>
@@ -4213,7 +4308,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -4222,7 +4317,7 @@
       <c r="C29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -4237,7 +4332,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -4246,7 +4341,7 @@
       <c r="C30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E30" s="2"/>
@@ -4259,7 +4354,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -4268,7 +4363,7 @@
       <c r="C31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E31" s="2"/>
@@ -4281,7 +4376,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -4290,7 +4385,7 @@
       <c r="C32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E32" s="2"/>
@@ -4303,7 +4398,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4312,7 +4407,7 @@
       <c r="C33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -4327,7 +4422,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -4336,7 +4431,7 @@
       <c r="C34" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>112</v>
       </c>
       <c r="E34" s="2"/>
@@ -4351,7 +4446,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -4360,7 +4455,7 @@
       <c r="C35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E35" s="2"/>
@@ -4375,7 +4470,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -4384,7 +4479,7 @@
       <c r="C36" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E36" s="2"/>
@@ -4399,7 +4494,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -4408,7 +4503,7 @@
       <c r="C37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E37" s="2"/>
@@ -4423,7 +4518,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -4432,7 +4527,7 @@
       <c r="C38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -4449,7 +4544,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -4458,7 +4553,7 @@
       <c r="C39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E39" s="2"/>
@@ -4473,7 +4568,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4482,7 +4577,7 @@
       <c r="C40" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>131</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -4499,7 +4594,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -4508,7 +4603,7 @@
       <c r="C41" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -4525,7 +4620,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -4534,7 +4629,7 @@
       <c r="C42" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E42" s="2"/>
@@ -4549,7 +4644,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -4558,7 +4653,7 @@
       <c r="C43" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E43" s="2"/>
@@ -4571,7 +4666,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4580,7 +4675,7 @@
       <c r="C44" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E44" s="2"/>
@@ -4593,7 +4688,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4602,7 +4697,7 @@
       <c r="C45" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E45" s="2"/>
@@ -4617,7 +4712,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -4626,7 +4721,7 @@
       <c r="C46" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -4645,7 +4740,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -4654,7 +4749,7 @@
       <c r="C47" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>155</v>
       </c>
       <c r="E47" s="2"/>
@@ -4667,7 +4762,7 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4676,7 +4771,7 @@
       <c r="C48" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -4689,7 +4784,7 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -4698,7 +4793,7 @@
       <c r="C49" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>162</v>
       </c>
       <c r="E49" s="2"/>
@@ -4711,7 +4806,7 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -4720,7 +4815,7 @@
       <c r="C50" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E50" s="2"/>
@@ -4733,7 +4828,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -4742,7 +4837,7 @@
       <c r="C51" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E51" s="2"/>
@@ -4755,7 +4850,7 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -4764,7 +4859,7 @@
       <c r="C52" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E52" s="2"/>
@@ -4777,7 +4872,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -4786,7 +4881,7 @@
       <c r="C53" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>174</v>
       </c>
       <c r="E53" s="2"/>
@@ -4799,7 +4894,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -4808,7 +4903,7 @@
       <c r="C54" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E54" s="2"/>
@@ -4823,7 +4918,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -4832,7 +4927,7 @@
       <c r="C55" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -4845,7 +4940,7 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -4854,7 +4949,7 @@
       <c r="C56" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>184</v>
       </c>
       <c r="E56" s="2"/>
@@ -4865,7 +4960,7 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -4874,7 +4969,7 @@
       <c r="C57" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E57" s="2"/>
@@ -4885,7 +4980,7 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -4894,7 +4989,7 @@
       <c r="C58" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>190</v>
       </c>
       <c r="E58" s="2"/>
@@ -4907,7 +5002,7 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -4916,7 +5011,7 @@
       <c r="C59" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E59" s="2"/>
@@ -4929,7 +5024,7 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -4938,7 +5033,7 @@
       <c r="C60" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E60" s="2"/>
@@ -4951,7 +5046,7 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -4960,7 +5055,7 @@
       <c r="C61" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>199</v>
       </c>
       <c r="E61" s="2"/>
@@ -4973,7 +5068,7 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -4982,7 +5077,7 @@
       <c r="C62" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>202</v>
       </c>
       <c r="E62" s="2"/>
@@ -4995,7 +5090,7 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -5004,7 +5099,7 @@
       <c r="C63" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E63" s="2"/>
@@ -5017,7 +5112,7 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -5026,7 +5121,7 @@
       <c r="C64" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -5041,7 +5136,7 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -5050,7 +5145,7 @@
       <c r="C65" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>212</v>
       </c>
       <c r="E65" s="2"/>
@@ -5063,7 +5158,7 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -5072,7 +5167,7 @@
       <c r="C66" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>215</v>
       </c>
       <c r="E66" s="2"/>
@@ -5083,7 +5178,7 @@
       <c r="J66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -5092,7 +5187,7 @@
       <c r="C67" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>218</v>
       </c>
       <c r="E67" s="2"/>
@@ -5105,7 +5200,7 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -5114,7 +5209,7 @@
       <c r="C68" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E68" s="2"/>
@@ -5129,7 +5224,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -5138,7 +5233,7 @@
       <c r="C69" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -5151,7 +5246,7 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -5160,7 +5255,7 @@
       <c r="C70" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>228</v>
       </c>
       <c r="E70" s="2"/>
@@ -5175,7 +5270,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -5184,7 +5279,7 @@
       <c r="C71" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>231</v>
       </c>
       <c r="E71" s="2"/>
@@ -5197,7 +5292,7 @@
       <c r="J71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -5206,7 +5301,7 @@
       <c r="C72" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>234</v>
       </c>
       <c r="E72" s="2"/>
@@ -5217,7 +5312,7 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -5226,7 +5321,7 @@
       <c r="C73" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E73" s="2"/>
@@ -5239,7 +5334,7 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -5248,7 +5343,7 @@
       <c r="C74" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>240</v>
       </c>
       <c r="E74" s="2"/>
@@ -5261,7 +5356,7 @@
       <c r="J74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -5270,7 +5365,7 @@
       <c r="C75" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>243</v>
       </c>
       <c r="E75" s="2"/>
@@ -5281,7 +5376,7 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -5290,7 +5385,7 @@
       <c r="C76" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>246</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -5305,7 +5400,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="A77" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -5314,7 +5409,7 @@
       <c r="C77" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="1" t="s">
         <v>250</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -5329,7 +5424,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="A78" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -5338,7 +5433,7 @@
       <c r="C78" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="1" t="s">
         <v>254</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -5351,7 +5446,7 @@
       <c r="J78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -5360,7 +5455,7 @@
       <c r="C79" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="1" t="s">
         <v>258</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -5373,7 +5468,7 @@
       <c r="J79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -5382,7 +5477,7 @@
       <c r="C80" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="1" t="s">
         <v>262</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -5395,7 +5490,7 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="A81" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -5404,7 +5499,7 @@
       <c r="C81" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -5417,7 +5512,7 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="A82" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -5426,7 +5521,7 @@
       <c r="C82" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -5443,7 +5538,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="A83" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -5452,7 +5547,7 @@
       <c r="C83" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E83" s="2"/>
@@ -5463,7 +5558,7 @@
       <c r="J83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="A84" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -5472,7 +5567,7 @@
       <c r="C84" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="1" t="s">
         <v>276</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -5485,7 +5580,7 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -5494,7 +5589,7 @@
       <c r="C85" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -5507,7 +5602,7 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+      <c r="A86" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -5516,7 +5611,7 @@
       <c r="C86" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="1" t="s">
         <v>284</v>
       </c>
       <c r="E86" s="2"/>
@@ -5527,7 +5622,7 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="A87" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -5536,7 +5631,7 @@
       <c r="C87" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="1" t="s">
         <v>287</v>
       </c>
       <c r="E87" s="2"/>
@@ -5547,7 +5642,7 @@
       <c r="J87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+      <c r="A88" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -5556,7 +5651,7 @@
       <c r="C88" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -5571,7 +5666,7 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="A89" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -5580,7 +5675,7 @@
       <c r="C89" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="1" t="s">
         <v>294</v>
       </c>
       <c r="E89" s="2"/>
@@ -5591,7 +5686,7 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="A90" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -5600,7 +5695,7 @@
       <c r="C90" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -5613,7 +5708,7 @@
       <c r="J90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="A91" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -5622,7 +5717,7 @@
       <c r="C91" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E91" s="2"/>
@@ -5633,7 +5728,7 @@
       <c r="J91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+      <c r="A92" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -5642,7 +5737,7 @@
       <c r="C92" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="1" t="s">
         <v>303</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -5655,7 +5750,7 @@
       <c r="J92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+      <c r="A93" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -5664,7 +5759,7 @@
       <c r="C93" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -5677,7 +5772,7 @@
       <c r="J93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+      <c r="A94" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -5686,7 +5781,7 @@
       <c r="C94" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="1" t="s">
         <v>311</v>
       </c>
       <c r="E94" s="2"/>
@@ -5703,7 +5798,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="A95" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -5712,7 +5807,7 @@
       <c r="C95" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="1" t="s">
         <v>314</v>
       </c>
       <c r="E95" s="2"/>
@@ -5723,7 +5818,7 @@
       <c r="J95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+      <c r="A96" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -5732,7 +5827,7 @@
       <c r="C96" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -5749,7 +5844,7 @@
       <c r="J96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="A97" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -5758,7 +5853,7 @@
       <c r="C97" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="1" t="s">
         <v>321</v>
       </c>
       <c r="E97" s="2"/>
@@ -5771,7 +5866,7 @@
       <c r="J97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+      <c r="A98" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -5780,7 +5875,7 @@
       <c r="C98" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="1" t="s">
         <v>324</v>
       </c>
       <c r="E98" s="2"/>
@@ -5791,7 +5886,7 @@
       <c r="J98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+      <c r="A99" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -5800,7 +5895,7 @@
       <c r="C99" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="1" t="s">
         <v>327</v>
       </c>
       <c r="E99" s="2"/>
@@ -5813,7 +5908,7 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+      <c r="A100" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -5822,7 +5917,7 @@
       <c r="C100" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E100" s="2"/>
@@ -5833,7 +5928,7 @@
       <c r="J100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+      <c r="A101" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -5842,7 +5937,7 @@
       <c r="C101" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -5855,7 +5950,7 @@
       <c r="J101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+      <c r="A102" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -5864,7 +5959,7 @@
       <c r="C102" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E102" s="2"/>
@@ -5879,7 +5974,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+      <c r="A103" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -5888,7 +5983,7 @@
       <c r="C103" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="1" t="s">
         <v>340</v>
       </c>
       <c r="E103" s="2" t="s">
@@ -5903,7 +5998,7 @@
       <c r="J103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+      <c r="A104" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -5912,7 +6007,7 @@
       <c r="C104" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="1" t="s">
         <v>343</v>
       </c>
       <c r="E104" s="2"/>
@@ -5925,7 +6020,7 @@
       <c r="J104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+      <c r="A105" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -5934,7 +6029,7 @@
       <c r="C105" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="1" t="s">
         <v>346</v>
       </c>
       <c r="E105" s="2"/>
@@ -5947,7 +6042,7 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+      <c r="A106" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -5956,7 +6051,7 @@
       <c r="C106" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E106" s="2"/>
@@ -5969,7 +6064,7 @@
       <c r="J106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="A107" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -5978,7 +6073,7 @@
       <c r="C107" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="1" t="s">
         <v>352</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -5991,7 +6086,7 @@
       <c r="J107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+      <c r="A108" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -6000,7 +6095,7 @@
       <c r="C108" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E108" s="2" t="s">
@@ -6017,7 +6112,7 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+      <c r="A109" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -6026,7 +6121,7 @@
       <c r="C109" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="1" t="s">
         <v>359</v>
       </c>
       <c r="E109" s="2" t="s">
@@ -6043,7 +6138,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+      <c r="A110" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -6052,7 +6147,7 @@
       <c r="C110" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="1" t="s">
         <v>363</v>
       </c>
       <c r="E110" s="2" t="s">
@@ -6069,7 +6164,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+      <c r="A111" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -6078,7 +6173,7 @@
       <c r="C111" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E111" s="2" t="s">
@@ -6093,7 +6188,7 @@
       <c r="J111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+      <c r="A112" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -6102,7 +6197,7 @@
       <c r="C112" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="1" t="s">
         <v>369</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -6117,7 +6212,7 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+      <c r="A113" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -6126,7 +6221,7 @@
       <c r="C113" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="1" t="s">
         <v>373</v>
       </c>
       <c r="E113" s="3" t="s">
@@ -6141,7 +6236,7 @@
       <c r="J113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+      <c r="A114" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -6150,7 +6245,7 @@
       <c r="C114" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="1" t="s">
         <v>377</v>
       </c>
       <c r="E114" s="2" t="s">
@@ -6165,7 +6260,7 @@
       <c r="J114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+      <c r="A115" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -6174,7 +6269,7 @@
       <c r="C115" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E115" s="2" t="s">
@@ -6189,7 +6284,7 @@
       <c r="J115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+      <c r="A116" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -6198,7 +6293,7 @@
       <c r="C116" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" s="1" t="s">
         <v>384</v>
       </c>
       <c r="E116" s="2" t="s">
@@ -6213,7 +6308,7 @@
       <c r="J116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+      <c r="A117" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -6222,7 +6317,7 @@
       <c r="C117" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -6237,7 +6332,7 @@
       <c r="J117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+      <c r="A118" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -6246,7 +6341,7 @@
       <c r="C118" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" s="1" t="s">
         <v>391</v>
       </c>
       <c r="E118" s="2" t="s">
@@ -6261,7 +6356,7 @@
       <c r="J118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+      <c r="A119" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -6270,7 +6365,7 @@
       <c r="C119" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" s="1" t="s">
         <v>395</v>
       </c>
       <c r="E119" s="2" t="s">
@@ -6287,7 +6382,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+      <c r="A120" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -6296,7 +6391,7 @@
       <c r="C120" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" s="1" t="s">
         <v>399</v>
       </c>
       <c r="E120" s="2" t="s">
@@ -6311,7 +6406,7 @@
       <c r="J120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+      <c r="A121" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -6320,7 +6415,7 @@
       <c r="C121" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="1" t="s">
         <v>403</v>
       </c>
       <c r="E121" s="2" t="s">
@@ -6335,7 +6430,7 @@
       <c r="J121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
+      <c r="A122" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -6344,7 +6439,7 @@
       <c r="C122" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="1" t="s">
         <v>407</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -6359,7 +6454,7 @@
       <c r="J122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
+      <c r="A123" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -6368,10 +6463,10 @@
       <c r="C123" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E123" s="1" t="s">
         <v>412</v>
       </c>
       <c r="F123" s="2"/>
@@ -6383,7 +6478,7 @@
       <c r="J123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
+      <c r="A124" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -6392,7 +6487,7 @@
       <c r="C124" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" s="1" t="s">
         <v>415</v>
       </c>
       <c r="E124" s="2"/>
@@ -6405,7 +6500,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
+      <c r="A125" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -6414,7 +6509,7 @@
       <c r="C125" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="1" t="s">
         <v>418</v>
       </c>
       <c r="E125" s="2"/>
@@ -6427,7 +6522,7 @@
       <c r="J125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
+      <c r="A126" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -6436,7 +6531,7 @@
       <c r="C126" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" s="1" t="s">
         <v>421</v>
       </c>
       <c r="E126" s="2"/>
@@ -6449,7 +6544,7 @@
       <c r="J126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+      <c r="A127" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -6458,7 +6553,7 @@
       <c r="C127" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="1" t="s">
         <v>424</v>
       </c>
       <c r="E127" s="2"/>
@@ -6469,7 +6564,7 @@
       <c r="J127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
+      <c r="A128" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -6478,7 +6573,7 @@
       <c r="C128" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" s="1" t="s">
         <v>427</v>
       </c>
       <c r="E128" s="2" t="s">
@@ -6495,7 +6590,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
+      <c r="A129" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -6504,7 +6599,7 @@
       <c r="C129" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" s="1" t="s">
         <v>431</v>
       </c>
       <c r="E129" s="2"/>
@@ -6517,7 +6612,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
+      <c r="A130" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -6526,7 +6621,7 @@
       <c r="C130" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" s="1" t="s">
         <v>434</v>
       </c>
       <c r="E130" s="2"/>
@@ -6537,7 +6632,7 @@
       <c r="J130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
+      <c r="A131" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -6546,7 +6641,7 @@
       <c r="C131" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" s="1" t="s">
         <v>437</v>
       </c>
       <c r="E131" s="2"/>
@@ -6559,7 +6654,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
+      <c r="A132" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -6568,7 +6663,7 @@
       <c r="C132" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" s="1" t="s">
         <v>440</v>
       </c>
       <c r="E132" s="2"/>
@@ -6581,7 +6676,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
+      <c r="A133" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -6590,7 +6685,7 @@
       <c r="C133" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E133" s="2"/>
@@ -6603,7 +6698,7 @@
       <c r="J133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="n">
+      <c r="A134" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -6612,7 +6707,7 @@
       <c r="C134" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" s="1" t="s">
         <v>446</v>
       </c>
       <c r="E134" s="2" t="s">
@@ -6627,7 +6722,7 @@
       <c r="J134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="n">
+      <c r="A135" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -6636,7 +6731,7 @@
       <c r="C135" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D135" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E135" s="2"/>
@@ -6647,7 +6742,7 @@
       <c r="J135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="n">
+      <c r="A136" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -6656,7 +6751,7 @@
       <c r="C136" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D136" s="1" t="s">
         <v>453</v>
       </c>
       <c r="E136" s="2"/>
@@ -6667,7 +6762,7 @@
       <c r="J136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="n">
+      <c r="A137" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -6676,7 +6771,7 @@
       <c r="C137" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="D137" s="1" t="s">
         <v>456</v>
       </c>
       <c r="E137" s="2" t="s">
@@ -6689,7 +6784,7 @@
       <c r="J137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
+      <c r="A138" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -6698,10 +6793,10 @@
       <c r="C138" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D138" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="E138" s="3" t="s">
         <v>461</v>
       </c>
       <c r="F138" s="2"/>
@@ -6711,7 +6806,7 @@
       <c r="J138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
+      <c r="A139" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -6720,7 +6815,7 @@
       <c r="C139" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" s="1" t="s">
         <v>464</v>
       </c>
       <c r="E139" s="2"/>
@@ -6733,7 +6828,7 @@
       <c r="J139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="n">
+      <c r="A140" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -6742,7 +6837,7 @@
       <c r="C140" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" s="1" t="s">
         <v>467</v>
       </c>
       <c r="E140" s="2"/>
@@ -6753,7 +6848,7 @@
       <c r="J140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="n">
+      <c r="A141" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -6762,7 +6857,7 @@
       <c r="C141" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" s="1" t="s">
         <v>470</v>
       </c>
       <c r="E141" s="2"/>
@@ -6775,7 +6870,7 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="n">
+      <c r="A142" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -6784,7 +6879,7 @@
       <c r="C142" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" s="1" t="s">
         <v>473</v>
       </c>
       <c r="E142" s="2" t="s">
@@ -6799,7 +6894,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="n">
+      <c r="A143" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -6808,7 +6903,7 @@
       <c r="C143" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" s="1" t="s">
         <v>477</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -6823,7 +6918,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="n">
+      <c r="A144" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -6832,7 +6927,7 @@
       <c r="C144" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" s="1" t="s">
         <v>480</v>
       </c>
       <c r="E144" s="2" t="s">
@@ -6845,7 +6940,7 @@
       <c r="J144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
+      <c r="A145" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -6854,7 +6949,7 @@
       <c r="C145" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="D145" s="1" t="s">
         <v>483</v>
       </c>
       <c r="E145" s="2" t="s">
@@ -6867,7 +6962,7 @@
       <c r="J145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="n">
+      <c r="A146" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -6876,7 +6971,7 @@
       <c r="C146" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D146" s="0" t="s">
+      <c r="D146" s="1" t="s">
         <v>487</v>
       </c>
       <c r="E146" s="2"/>
@@ -6887,7 +6982,7 @@
       <c r="J146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="n">
+      <c r="A147" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -6896,10 +6991,10 @@
       <c r="C147" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="D147" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="E147" s="3" t="s">
         <v>491</v>
       </c>
       <c r="F147" s="2"/>
@@ -6909,7 +7004,7 @@
       <c r="J147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="n">
+      <c r="A148" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -6918,7 +7013,7 @@
       <c r="C148" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D148" s="0" t="s">
+      <c r="D148" s="1" t="s">
         <v>494</v>
       </c>
       <c r="E148" s="2"/>
@@ -6929,7 +7024,7 @@
       <c r="J148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="n">
+      <c r="A149" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -6938,7 +7033,7 @@
       <c r="C149" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D149" s="0" t="s">
+      <c r="D149" s="1" t="s">
         <v>497</v>
       </c>
       <c r="E149" s="2"/>
@@ -6949,7 +7044,7 @@
       <c r="J149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="n">
+      <c r="A150" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -6958,7 +7053,7 @@
       <c r="C150" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D150" s="0" t="s">
+      <c r="D150" s="1" t="s">
         <v>500</v>
       </c>
       <c r="E150" s="2"/>
@@ -6971,7 +7066,7 @@
       <c r="J150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="n">
+      <c r="A151" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -6980,7 +7075,7 @@
       <c r="C151" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D151" s="0" t="s">
+      <c r="D151" s="1" t="s">
         <v>503</v>
       </c>
       <c r="E151" s="2"/>
@@ -6991,7 +7086,7 @@
       <c r="J151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="n">
+      <c r="A152" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -7000,7 +7095,7 @@
       <c r="C152" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D152" s="0" t="s">
+      <c r="D152" s="1" t="s">
         <v>506</v>
       </c>
       <c r="E152" s="2" t="s">
@@ -7013,7 +7108,7 @@
       <c r="J152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="n">
+      <c r="A153" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -7022,7 +7117,7 @@
       <c r="C153" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D153" s="0" t="s">
+      <c r="D153" s="1" t="s">
         <v>510</v>
       </c>
       <c r="E153" s="2"/>
@@ -7033,7 +7128,7 @@
       <c r="J153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="n">
+      <c r="A154" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -7042,7 +7137,7 @@
       <c r="C154" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D154" s="0" t="s">
+      <c r="D154" s="1" t="s">
         <v>513</v>
       </c>
       <c r="E154" s="2"/>
@@ -7055,7 +7150,7 @@
       <c r="J154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="n">
+      <c r="A155" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -7064,7 +7159,7 @@
       <c r="C155" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D155" s="0" t="s">
+      <c r="D155" s="1" t="s">
         <v>516</v>
       </c>
       <c r="E155" s="2"/>
@@ -7077,7 +7172,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="n">
+      <c r="A156" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -7086,7 +7181,7 @@
       <c r="C156" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D156" s="0" t="s">
+      <c r="D156" s="1" t="s">
         <v>519</v>
       </c>
       <c r="E156" s="2"/>
@@ -7097,7 +7192,7 @@
       <c r="J156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="n">
+      <c r="A157" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -7106,7 +7201,7 @@
       <c r="C157" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D157" s="0" t="s">
+      <c r="D157" s="1" t="s">
         <v>522</v>
       </c>
       <c r="E157" s="2"/>
@@ -7117,7 +7212,7 @@
       <c r="J157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="n">
+      <c r="A158" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -7126,7 +7221,7 @@
       <c r="C158" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D158" s="0" t="s">
+      <c r="D158" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E158" s="2"/>
@@ -7137,7 +7232,7 @@
       <c r="J158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="n">
+      <c r="A159" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -7146,7 +7241,7 @@
       <c r="C159" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="D159" s="1" t="s">
         <v>528</v>
       </c>
       <c r="E159" s="2"/>
@@ -7159,7 +7254,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="n">
+      <c r="A160" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -7168,7 +7263,7 @@
       <c r="C160" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D160" s="0" t="s">
+      <c r="D160" s="1" t="s">
         <v>531</v>
       </c>
       <c r="E160" s="2" t="s">
@@ -7187,7 +7282,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="n">
+      <c r="A161" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -7196,7 +7291,7 @@
       <c r="C161" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D161" s="1" t="s">
         <v>534</v>
       </c>
       <c r="E161" s="2"/>
@@ -7207,7 +7302,7 @@
       <c r="J161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="n">
+      <c r="A162" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -7216,7 +7311,7 @@
       <c r="C162" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="D162" s="1" t="s">
         <v>537</v>
       </c>
       <c r="E162" s="2" t="s">
@@ -7229,7 +7324,7 @@
       <c r="J162" s="2"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="n">
+      <c r="A163" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -7238,7 +7333,7 @@
       <c r="C163" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D163" s="0" t="s">
+      <c r="D163" s="1" t="s">
         <v>541</v>
       </c>
       <c r="E163" s="2" t="s">
@@ -7251,7 +7346,7 @@
       <c r="J163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="n">
+      <c r="A164" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -7260,7 +7355,7 @@
       <c r="C164" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D164" s="0" t="s">
+      <c r="D164" s="1" t="s">
         <v>545</v>
       </c>
       <c r="E164" s="2"/>
@@ -7273,7 +7368,7 @@
       <c r="J164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="n">
+      <c r="A165" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -7282,7 +7377,7 @@
       <c r="C165" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D165" s="0" t="s">
+      <c r="D165" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E165" s="2" t="s">
@@ -7297,7 +7392,7 @@
       <c r="J165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="n">
+      <c r="A166" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -7306,7 +7401,7 @@
       <c r="C166" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D166" s="0" t="s">
+      <c r="D166" s="1" t="s">
         <v>551</v>
       </c>
       <c r="E166" s="2"/>
@@ -7317,7 +7412,7 @@
       <c r="J166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="n">
+      <c r="A167" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -7326,7 +7421,7 @@
       <c r="C167" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D167" s="0" t="s">
+      <c r="D167" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E167" s="2"/>
@@ -7339,7 +7434,7 @@
       <c r="J167" s="2"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="n">
+      <c r="A168" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -7348,7 +7443,7 @@
       <c r="C168" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D168" s="0" t="s">
+      <c r="D168" s="1" t="s">
         <v>557</v>
       </c>
       <c r="E168" s="2" t="s">
@@ -7363,7 +7458,7 @@
       <c r="J168" s="2"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="n">
+      <c r="A169" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -7372,7 +7467,7 @@
       <c r="C169" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D169" s="0" t="s">
+      <c r="D169" s="1" t="s">
         <v>561</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -7385,7 +7480,7 @@
       <c r="J169" s="2"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="n">
+      <c r="A170" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -7394,7 +7489,7 @@
       <c r="C170" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D170" s="0" t="s">
+      <c r="D170" s="1" t="s">
         <v>564</v>
       </c>
       <c r="E170" s="2"/>
@@ -7409,7 +7504,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="n">
+      <c r="A171" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -7418,7 +7513,7 @@
       <c r="C171" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D171" s="0" t="s">
+      <c r="D171" s="1" t="s">
         <v>567</v>
       </c>
       <c r="E171" s="2"/>
@@ -7431,7 +7526,7 @@
       <c r="J171" s="2"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="n">
+      <c r="A172" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -7440,7 +7535,7 @@
       <c r="C172" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D172" s="0" t="s">
+      <c r="D172" s="1" t="s">
         <v>570</v>
       </c>
       <c r="E172" s="2"/>
@@ -7451,7 +7546,7 @@
       <c r="J172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="n">
+      <c r="A173" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -7460,7 +7555,7 @@
       <c r="C173" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D173" s="0" t="s">
+      <c r="D173" s="1" t="s">
         <v>573</v>
       </c>
       <c r="E173" s="2" t="s">
@@ -7473,7 +7568,7 @@
       <c r="J173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="n">
+      <c r="A174" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -7482,7 +7577,7 @@
       <c r="C174" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="D174" s="0" t="s">
+      <c r="D174" s="1" t="s">
         <v>577</v>
       </c>
       <c r="E174" s="2"/>
@@ -7497,7 +7592,7 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="n">
+      <c r="A175" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -7506,7 +7601,7 @@
       <c r="C175" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D175" s="0" t="s">
+      <c r="D175" s="1" t="s">
         <v>580</v>
       </c>
       <c r="E175" s="2"/>
@@ -7519,7 +7614,7 @@
       <c r="J175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="n">
+      <c r="A176" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -7528,7 +7623,7 @@
       <c r="C176" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D176" s="0" t="s">
+      <c r="D176" s="1" t="s">
         <v>583</v>
       </c>
       <c r="E176" s="2"/>
@@ -7541,7 +7636,7 @@
       <c r="J176" s="2"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="n">
+      <c r="A177" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -7550,7 +7645,7 @@
       <c r="C177" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="D177" s="0" t="s">
+      <c r="D177" s="1" t="s">
         <v>586</v>
       </c>
       <c r="E177" s="2" t="s">
@@ -7565,7 +7660,7 @@
       <c r="J177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="n">
+      <c r="A178" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -7574,7 +7669,7 @@
       <c r="C178" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D178" s="0" t="s">
+      <c r="D178" s="1" t="s">
         <v>590</v>
       </c>
       <c r="E178" s="2" t="s">
@@ -7589,7 +7684,7 @@
       <c r="J178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="n">
+      <c r="A179" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -7598,7 +7693,7 @@
       <c r="C179" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D179" s="0" t="s">
+      <c r="D179" s="1" t="s">
         <v>593</v>
       </c>
       <c r="E179" s="2"/>
@@ -7611,7 +7706,7 @@
       <c r="J179" s="2"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="n">
+      <c r="A180" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -7620,7 +7715,7 @@
       <c r="C180" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D180" s="0" t="s">
+      <c r="D180" s="1" t="s">
         <v>596</v>
       </c>
       <c r="E180" s="2"/>
@@ -7633,7 +7728,7 @@
       <c r="J180" s="2"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="n">
+      <c r="A181" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -7642,7 +7737,7 @@
       <c r="C181" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D181" s="0" t="s">
+      <c r="D181" s="1" t="s">
         <v>599</v>
       </c>
       <c r="E181" s="2"/>
@@ -7655,7 +7750,7 @@
       <c r="J181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="n">
+      <c r="A182" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -7664,7 +7759,7 @@
       <c r="C182" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D182" s="0" t="s">
+      <c r="D182" s="1" t="s">
         <v>602</v>
       </c>
       <c r="E182" s="2"/>
@@ -7675,7 +7770,7 @@
       <c r="J182" s="2"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="n">
+      <c r="A183" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -7684,7 +7779,7 @@
       <c r="C183" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D183" s="0" t="s">
+      <c r="D183" s="1" t="s">
         <v>605</v>
       </c>
       <c r="E183" s="2"/>
@@ -7695,7 +7790,7 @@
       <c r="J183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="n">
+      <c r="A184" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -7704,7 +7799,7 @@
       <c r="C184" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D184" s="0" t="s">
+      <c r="D184" s="1" t="s">
         <v>608</v>
       </c>
       <c r="E184" s="2"/>
@@ -7717,7 +7812,7 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="n">
+      <c r="A185" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -7726,7 +7821,7 @@
       <c r="C185" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="D185" s="0" t="s">
+      <c r="D185" s="1" t="s">
         <v>611</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -7741,7 +7836,7 @@
       <c r="J185" s="2"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="n">
+      <c r="A186" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -7750,7 +7845,7 @@
       <c r="C186" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="D186" s="0" t="s">
+      <c r="D186" s="1" t="s">
         <v>615</v>
       </c>
       <c r="E186" s="2"/>
@@ -7763,7 +7858,7 @@
       <c r="J186" s="2"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="n">
+      <c r="A187" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -7772,7 +7867,7 @@
       <c r="C187" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D187" s="0" t="s">
+      <c r="D187" s="1" t="s">
         <v>618</v>
       </c>
       <c r="E187" s="2"/>
@@ -7785,7 +7880,7 @@
       <c r="J187" s="2"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="n">
+      <c r="A188" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -7794,7 +7889,7 @@
       <c r="C188" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D188" s="0" t="s">
+      <c r="D188" s="1" t="s">
         <v>621</v>
       </c>
       <c r="E188" s="2"/>
@@ -7805,7 +7900,7 @@
       <c r="J188" s="2"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="n">
+      <c r="A189" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -7814,7 +7909,7 @@
       <c r="C189" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="D189" s="0" t="s">
+      <c r="D189" s="1" t="s">
         <v>624</v>
       </c>
       <c r="E189" s="2"/>
@@ -7825,7 +7920,7 @@
       <c r="J189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="n">
+      <c r="A190" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -7834,7 +7929,7 @@
       <c r="C190" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D190" s="0" t="s">
+      <c r="D190" s="1" t="s">
         <v>627</v>
       </c>
       <c r="E190" s="2"/>
@@ -7845,7 +7940,7 @@
       <c r="J190" s="2"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="n">
+      <c r="A191" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -7854,7 +7949,7 @@
       <c r="C191" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D191" s="0" t="s">
+      <c r="D191" s="1" t="s">
         <v>630</v>
       </c>
       <c r="E191" s="2"/>
@@ -7867,7 +7962,7 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="n">
+      <c r="A192" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -7876,7 +7971,7 @@
       <c r="C192" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="D192" s="0" t="s">
+      <c r="D192" s="1" t="s">
         <v>633</v>
       </c>
       <c r="E192" s="2"/>
@@ -7889,7 +7984,7 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="n">
+      <c r="A193" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -7898,7 +7993,7 @@
       <c r="C193" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D193" s="0" t="s">
+      <c r="D193" s="1" t="s">
         <v>636</v>
       </c>
       <c r="E193" s="2"/>
@@ -7909,7 +8004,7 @@
       <c r="J193" s="2"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="n">
+      <c r="A194" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -7918,7 +8013,7 @@
       <c r="C194" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="D194" s="0" t="s">
+      <c r="D194" s="1" t="s">
         <v>639</v>
       </c>
       <c r="E194" s="2"/>
@@ -7933,7 +8028,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="n">
+      <c r="A195" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -7942,7 +8037,7 @@
       <c r="C195" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D195" s="0" t="s">
+      <c r="D195" s="1" t="s">
         <v>642</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -7957,7 +8052,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="n">
+      <c r="A196" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -7966,7 +8061,7 @@
       <c r="C196" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="D196" s="0" t="s">
+      <c r="D196" s="1" t="s">
         <v>645</v>
       </c>
       <c r="E196" s="2" t="s">
@@ -7981,7 +8076,7 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="n">
+      <c r="A197" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -7990,7 +8085,7 @@
       <c r="C197" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D197" s="0" t="s">
+      <c r="D197" s="1" t="s">
         <v>648</v>
       </c>
       <c r="E197" s="2" t="s">
@@ -8007,7 +8102,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="n">
+      <c r="A198" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -8016,7 +8111,7 @@
       <c r="C198" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D198" s="0" t="s">
+      <c r="D198" s="1" t="s">
         <v>652</v>
       </c>
       <c r="E198" s="2"/>
@@ -8031,7 +8126,7 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="n">
+      <c r="A199" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -8040,7 +8135,7 @@
       <c r="C199" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="D199" s="0" t="s">
+      <c r="D199" s="1" t="s">
         <v>655</v>
       </c>
       <c r="E199" s="2"/>
@@ -8055,7 +8150,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="n">
+      <c r="A200" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -8064,7 +8159,7 @@
       <c r="C200" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D200" s="0" t="s">
+      <c r="D200" s="1" t="s">
         <v>658</v>
       </c>
       <c r="E200" s="2"/>
@@ -8079,7 +8174,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="n">
+      <c r="A201" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -8088,7 +8183,7 @@
       <c r="C201" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="D201" s="0" t="s">
+      <c r="D201" s="1" t="s">
         <v>661</v>
       </c>
       <c r="E201" s="2"/>
@@ -8101,7 +8196,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="n">
+      <c r="A202" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -8110,7 +8205,7 @@
       <c r="C202" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D202" s="0" t="s">
+      <c r="D202" s="1" t="s">
         <v>664</v>
       </c>
       <c r="E202" s="2"/>
@@ -8125,7 +8220,7 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="n">
+      <c r="A203" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -8134,7 +8229,7 @@
       <c r="C203" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="D203" s="0" t="s">
+      <c r="D203" s="1" t="s">
         <v>667</v>
       </c>
       <c r="E203" s="2"/>
@@ -8149,7 +8244,7 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="n">
+      <c r="A204" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -8158,7 +8253,7 @@
       <c r="C204" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D204" s="0" t="s">
+      <c r="D204" s="1" t="s">
         <v>670</v>
       </c>
       <c r="E204" s="2" t="s">
@@ -8175,7 +8270,7 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="n">
+      <c r="A205" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -8184,7 +8279,7 @@
       <c r="C205" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="D205" s="0" t="s">
+      <c r="D205" s="1" t="s">
         <v>674</v>
       </c>
       <c r="E205" s="2"/>
@@ -8199,7 +8294,7 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="n">
+      <c r="A206" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -8208,7 +8303,7 @@
       <c r="C206" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="D206" s="0" t="s">
+      <c r="D206" s="1" t="s">
         <v>677</v>
       </c>
       <c r="E206" s="2"/>
@@ -8223,7 +8318,7 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="n">
+      <c r="A207" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -8232,7 +8327,7 @@
       <c r="C207" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D207" s="0" t="s">
+      <c r="D207" s="1" t="s">
         <v>680</v>
       </c>
       <c r="E207" s="2"/>
@@ -8247,7 +8342,7 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="n">
+      <c r="A208" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -8256,7 +8351,7 @@
       <c r="C208" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="D208" s="0" t="s">
+      <c r="D208" s="1" t="s">
         <v>683</v>
       </c>
       <c r="E208" s="2"/>
@@ -8269,7 +8364,7 @@
       <c r="J208" s="2"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="n">
+      <c r="A209" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -8278,7 +8373,7 @@
       <c r="C209" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="D209" s="0" t="s">
+      <c r="D209" s="1" t="s">
         <v>686</v>
       </c>
       <c r="E209" s="2"/>
@@ -8293,7 +8388,7 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="n">
+      <c r="A210" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -8302,7 +8397,7 @@
       <c r="C210" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="D210" s="0" t="s">
+      <c r="D210" s="1" t="s">
         <v>689</v>
       </c>
       <c r="E210" s="2"/>
@@ -8317,7 +8412,7 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="n">
+      <c r="A211" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -8326,7 +8421,7 @@
       <c r="C211" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="D211" s="0" t="s">
+      <c r="D211" s="1" t="s">
         <v>692</v>
       </c>
       <c r="E211" s="2"/>
@@ -8341,7 +8436,7 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="n">
+      <c r="A212" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -8350,7 +8445,7 @@
       <c r="C212" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="D212" s="0" t="s">
+      <c r="D212" s="1" t="s">
         <v>695</v>
       </c>
       <c r="E212" s="2"/>
@@ -8365,7 +8460,7 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="n">
+      <c r="A213" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -8374,7 +8469,7 @@
       <c r="C213" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="D213" s="0" t="s">
+      <c r="D213" s="1" t="s">
         <v>698</v>
       </c>
       <c r="E213" s="2"/>
@@ -8387,7 +8482,7 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="n">
+      <c r="A214" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -8396,7 +8491,7 @@
       <c r="C214" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="D214" s="0" t="s">
+      <c r="D214" s="1" t="s">
         <v>701</v>
       </c>
       <c r="E214" s="2" t="s">
@@ -8409,7 +8504,7 @@
       <c r="J214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="n">
+      <c r="A215" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -8418,7 +8513,7 @@
       <c r="C215" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D215" s="0" t="s">
+      <c r="D215" s="1" t="s">
         <v>705</v>
       </c>
       <c r="E215" s="2"/>
@@ -8431,7 +8526,7 @@
       <c r="J215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="n">
+      <c r="A216" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -8440,7 +8535,7 @@
       <c r="C216" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="D216" s="0" t="s">
+      <c r="D216" s="1" t="s">
         <v>708</v>
       </c>
       <c r="E216" s="2"/>
@@ -8455,7 +8550,7 @@
       <c r="J216" s="2"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="n">
+      <c r="A217" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -8464,7 +8559,7 @@
       <c r="C217" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="D217" s="0" t="s">
+      <c r="D217" s="1" t="s">
         <v>711</v>
       </c>
       <c r="E217" s="2" t="s">
@@ -8479,7 +8574,7 @@
       <c r="J217" s="2"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="n">
+      <c r="A218" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -8488,7 +8583,7 @@
       <c r="C218" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="D218" s="0" t="s">
+      <c r="D218" s="1" t="s">
         <v>715</v>
       </c>
       <c r="E218" s="2"/>
@@ -8499,7 +8594,7 @@
       <c r="J218" s="2"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="n">
+      <c r="A219" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -8508,7 +8603,7 @@
       <c r="C219" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="D219" s="0" t="s">
+      <c r="D219" s="1" t="s">
         <v>718</v>
       </c>
       <c r="E219" s="2"/>
@@ -8519,7 +8614,7 @@
       <c r="J219" s="2"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="n">
+      <c r="A220" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -8528,7 +8623,7 @@
       <c r="C220" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="D220" s="0" t="s">
+      <c r="D220" s="1" t="s">
         <v>721</v>
       </c>
       <c r="E220" s="2"/>
@@ -8541,7 +8636,7 @@
       <c r="J220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="n">
+      <c r="A221" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -8550,7 +8645,7 @@
       <c r="C221" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="D221" s="0" t="s">
+      <c r="D221" s="1" t="s">
         <v>724</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -8565,7 +8660,7 @@
       <c r="J221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="n">
+      <c r="A222" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -8574,7 +8669,7 @@
       <c r="C222" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="D222" s="0" t="s">
+      <c r="D222" s="1" t="s">
         <v>728</v>
       </c>
       <c r="E222" s="2" t="s">
@@ -8587,7 +8682,7 @@
       <c r="J222" s="2"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="n">
+      <c r="A223" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -8596,7 +8691,7 @@
       <c r="C223" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="D223" s="0" t="s">
+      <c r="D223" s="1" t="s">
         <v>732</v>
       </c>
       <c r="E223" s="2"/>
@@ -8609,7 +8704,7 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="n">
+      <c r="A224" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -8618,7 +8713,7 @@
       <c r="C224" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="D224" s="0" t="s">
+      <c r="D224" s="1" t="s">
         <v>735</v>
       </c>
       <c r="E224" s="2" t="s">
@@ -8633,7 +8728,7 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="n">
+      <c r="A225" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -8642,7 +8737,7 @@
       <c r="C225" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="D225" s="0" t="s">
+      <c r="D225" s="1" t="s">
         <v>738</v>
       </c>
       <c r="E225" s="2"/>
@@ -8653,7 +8748,7 @@
       <c r="J225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="n">
+      <c r="A226" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -8662,7 +8757,7 @@
       <c r="C226" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="D226" s="0" t="s">
+      <c r="D226" s="1" t="s">
         <v>741</v>
       </c>
       <c r="E226" s="2"/>
@@ -8673,7 +8768,7 @@
       <c r="J226" s="2"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="n">
+      <c r="A227" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -8682,7 +8777,7 @@
       <c r="C227" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="D227" s="0" t="s">
+      <c r="D227" s="1" t="s">
         <v>744</v>
       </c>
       <c r="E227" s="2"/>
@@ -8693,7 +8788,7 @@
       <c r="J227" s="2"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="n">
+      <c r="A228" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -8702,7 +8797,7 @@
       <c r="C228" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="D228" s="0" t="s">
+      <c r="D228" s="1" t="s">
         <v>747</v>
       </c>
       <c r="E228" s="2"/>
@@ -8715,7 +8810,7 @@
       <c r="J228" s="2"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="n">
+      <c r="A229" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -8724,7 +8819,7 @@
       <c r="C229" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="D229" s="0" t="s">
+      <c r="D229" s="1" t="s">
         <v>750</v>
       </c>
       <c r="E229" s="2"/>
@@ -8735,7 +8830,7 @@
       <c r="J229" s="2"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="n">
+      <c r="A230" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -8744,7 +8839,7 @@
       <c r="C230" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="D230" s="0" t="s">
+      <c r="D230" s="1" t="s">
         <v>753</v>
       </c>
       <c r="E230" s="2" t="s">
@@ -8759,7 +8854,7 @@
       <c r="J230" s="2"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="n">
+      <c r="A231" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -8768,7 +8863,7 @@
       <c r="C231" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="D231" s="0" t="s">
+      <c r="D231" s="1" t="s">
         <v>757</v>
       </c>
       <c r="E231" s="2"/>
@@ -8779,7 +8874,7 @@
       <c r="J231" s="2"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="n">
+      <c r="A232" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -8788,7 +8883,7 @@
       <c r="C232" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="D232" s="0" t="s">
+      <c r="D232" s="1" t="s">
         <v>760</v>
       </c>
       <c r="E232" s="2"/>
@@ -8799,7 +8894,7 @@
       <c r="J232" s="2"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="n">
+      <c r="A233" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -8808,7 +8903,7 @@
       <c r="C233" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="D233" s="0" t="s">
+      <c r="D233" s="1" t="s">
         <v>763</v>
       </c>
       <c r="E233" s="2" t="s">
@@ -8821,7 +8916,7 @@
       <c r="J233" s="2"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="n">
+      <c r="A234" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -8830,7 +8925,7 @@
       <c r="C234" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="D234" s="0" t="s">
+      <c r="D234" s="1" t="s">
         <v>767</v>
       </c>
       <c r="E234" s="2"/>
@@ -8841,7 +8936,7 @@
       <c r="J234" s="2"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="n">
+      <c r="A235" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -8850,7 +8945,7 @@
       <c r="C235" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="D235" s="0" t="s">
+      <c r="D235" s="1" t="s">
         <v>770</v>
       </c>
       <c r="E235" s="2"/>
@@ -8861,7 +8956,7 @@
       <c r="J235" s="2"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="n">
+      <c r="A236" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -8870,7 +8965,7 @@
       <c r="C236" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="D236" s="0" t="s">
+      <c r="D236" s="1" t="s">
         <v>773</v>
       </c>
       <c r="E236" s="2"/>
@@ -8881,7 +8976,7 @@
       <c r="J236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="n">
+      <c r="A237" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -8890,7 +8985,7 @@
       <c r="C237" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="D237" s="0" t="s">
+      <c r="D237" s="1" t="s">
         <v>776</v>
       </c>
       <c r="E237" s="2"/>
@@ -8903,7 +8998,7 @@
       <c r="J237" s="2"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="n">
+      <c r="A238" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -8912,7 +9007,7 @@
       <c r="C238" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="D238" s="0" t="s">
+      <c r="D238" s="1" t="s">
         <v>779</v>
       </c>
       <c r="E238" s="2"/>
@@ -8923,7 +9018,7 @@
       <c r="J238" s="2"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="n">
+      <c r="A239" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -8932,7 +9027,7 @@
       <c r="C239" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="D239" s="0" t="s">
+      <c r="D239" s="1" t="s">
         <v>782</v>
       </c>
       <c r="E239" s="2"/>
@@ -8945,7 +9040,7 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="n">
+      <c r="A240" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -8954,7 +9049,7 @@
       <c r="C240" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="D240" s="0" t="s">
+      <c r="D240" s="1" t="s">
         <v>785</v>
       </c>
       <c r="E240" s="2"/>
@@ -8967,7 +9062,7 @@
       <c r="J240" s="2"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="n">
+      <c r="A241" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -8976,7 +9071,7 @@
       <c r="C241" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="D241" s="0" t="s">
+      <c r="D241" s="1" t="s">
         <v>788</v>
       </c>
       <c r="E241" s="2"/>
@@ -8989,7 +9084,7 @@
       <c r="J241" s="2"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="n">
+      <c r="A242" s="1" t="n">
         <v>243</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -8998,7 +9093,7 @@
       <c r="C242" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="D242" s="0" t="s">
+      <c r="D242" s="1" t="s">
         <v>791</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -9013,7 +9108,7 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="n">
+      <c r="A243" s="1" t="n">
         <v>244</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -9022,7 +9117,7 @@
       <c r="C243" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="D243" s="0" t="s">
+      <c r="D243" s="1" t="s">
         <v>794</v>
       </c>
       <c r="E243" s="2" t="s">
@@ -9039,7 +9134,7 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="n">
+      <c r="A244" s="1" t="n">
         <v>245</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -9048,7 +9143,7 @@
       <c r="C244" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="D244" s="0" t="s">
+      <c r="D244" s="1" t="s">
         <v>797</v>
       </c>
       <c r="E244" s="2" t="s">
@@ -9065,7 +9160,7 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="n">
+      <c r="A245" s="1" t="n">
         <v>246</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -9074,7 +9169,7 @@
       <c r="C245" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="D245" s="0" t="s">
+      <c r="D245" s="1" t="s">
         <v>801</v>
       </c>
       <c r="E245" s="2"/>
@@ -9089,7 +9184,7 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="n">
+      <c r="A246" s="1" t="n">
         <v>247</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -9098,7 +9193,7 @@
       <c r="C246" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="D246" s="0" t="s">
+      <c r="D246" s="1" t="s">
         <v>804</v>
       </c>
       <c r="E246" s="2"/>
@@ -9113,7 +9208,7 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="n">
+      <c r="A247" s="1" t="n">
         <v>248</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -9122,7 +9217,7 @@
       <c r="C247" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="D247" s="0" t="s">
+      <c r="D247" s="1" t="s">
         <v>807</v>
       </c>
       <c r="E247" s="2"/>
@@ -9137,7 +9232,7 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="n">
+      <c r="A248" s="1" t="n">
         <v>249</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -9146,7 +9241,7 @@
       <c r="C248" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="D248" s="0" t="s">
+      <c r="D248" s="1" t="s">
         <v>810</v>
       </c>
       <c r="E248" s="2" t="s">
@@ -9163,7 +9258,7 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="n">
+      <c r="A249" s="1" t="n">
         <v>250</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -9172,7 +9267,7 @@
       <c r="C249" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="D249" s="0" t="s">
+      <c r="D249" s="1" t="s">
         <v>813</v>
       </c>
       <c r="E249" s="2"/>
@@ -9187,7 +9282,7 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="n">
+      <c r="A250" s="1" t="n">
         <v>251</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -9196,7 +9291,7 @@
       <c r="C250" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="D250" s="0" t="s">
+      <c r="D250" s="1" t="s">
         <v>816</v>
       </c>
       <c r="E250" s="2"/>
@@ -9207,7 +9302,7 @@
       <c r="J250" s="2"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="n">
+      <c r="A251" s="1" t="n">
         <v>252</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -9216,7 +9311,7 @@
       <c r="C251" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="D251" s="0" t="s">
+      <c r="D251" s="1" t="s">
         <v>819</v>
       </c>
       <c r="E251" s="2"/>
@@ -9227,7 +9322,7 @@
       <c r="J251" s="2"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="n">
+      <c r="A252" s="1" t="n">
         <v>253</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -9236,7 +9331,7 @@
       <c r="C252" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="D252" s="0" t="s">
+      <c r="D252" s="1" t="s">
         <v>822</v>
       </c>
       <c r="E252" s="2"/>
@@ -9247,7 +9342,7 @@
       <c r="J252" s="2"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="n">
+      <c r="A253" s="1" t="n">
         <v>254</v>
       </c>
       <c r="B253" s="2" t="s">
@@ -9256,7 +9351,7 @@
       <c r="C253" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="D253" s="0" t="s">
+      <c r="D253" s="1" t="s">
         <v>825</v>
       </c>
       <c r="E253" s="2"/>
@@ -9269,7 +9364,7 @@
       <c r="J253" s="2"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="n">
+      <c r="A254" s="1" t="n">
         <v>255</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -9278,7 +9373,7 @@
       <c r="C254" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="D254" s="0" t="s">
+      <c r="D254" s="1" t="s">
         <v>828</v>
       </c>
       <c r="E254" s="2" t="s">
@@ -9291,7 +9386,7 @@
       <c r="J254" s="2"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="n">
+      <c r="A255" s="1" t="n">
         <v>256</v>
       </c>
       <c r="B255" s="2" t="s">
@@ -9300,7 +9395,7 @@
       <c r="C255" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="D255" s="0" t="s">
+      <c r="D255" s="1" t="s">
         <v>831</v>
       </c>
       <c r="E255" s="2"/>
@@ -9311,7 +9406,7 @@
       <c r="J255" s="2"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="n">
+      <c r="A256" s="1" t="n">
         <v>257</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -9320,7 +9415,7 @@
       <c r="C256" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="D256" s="0" t="s">
+      <c r="D256" s="1" t="s">
         <v>834</v>
       </c>
       <c r="E256" s="2"/>
@@ -9331,7 +9426,7 @@
       <c r="J256" s="2"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="n">
+      <c r="A257" s="1" t="n">
         <v>258</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -9340,7 +9435,7 @@
       <c r="C257" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="D257" s="0" t="s">
+      <c r="D257" s="1" t="s">
         <v>837</v>
       </c>
       <c r="E257" s="2"/>
@@ -9355,7 +9450,7 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="n">
+      <c r="A258" s="1" t="n">
         <v>259</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -9364,7 +9459,7 @@
       <c r="C258" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="D258" s="0" t="s">
+      <c r="D258" s="1" t="s">
         <v>840</v>
       </c>
       <c r="E258" s="2"/>
@@ -9379,7 +9474,7 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="n">
+      <c r="A259" s="1" t="n">
         <v>260</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -9388,7 +9483,7 @@
       <c r="C259" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="D259" s="0" t="s">
+      <c r="D259" s="1" t="s">
         <v>843</v>
       </c>
       <c r="E259" s="2"/>
@@ -9403,7 +9498,7 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="n">
+      <c r="A260" s="1" t="n">
         <v>261</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -9412,7 +9507,7 @@
       <c r="C260" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D260" s="0" t="s">
+      <c r="D260" s="1" t="s">
         <v>846</v>
       </c>
       <c r="E260" s="2"/>
@@ -9427,7 +9522,7 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="n">
+      <c r="A261" s="1" t="n">
         <v>262</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -9436,7 +9531,7 @@
       <c r="C261" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="D261" s="0" t="s">
+      <c r="D261" s="1" t="s">
         <v>849</v>
       </c>
       <c r="E261" s="2"/>
@@ -9451,7 +9546,7 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="n">
+      <c r="A262" s="1" t="n">
         <v>263</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -9460,7 +9555,7 @@
       <c r="C262" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="D262" s="0" t="s">
+      <c r="D262" s="1" t="s">
         <v>852</v>
       </c>
       <c r="E262" s="2" t="s">
@@ -9475,7 +9570,7 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="n">
+      <c r="A263" s="1" t="n">
         <v>264</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -9495,7 +9590,7 @@
       <c r="J263" s="2"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="n">
+      <c r="A264" s="1" t="n">
         <v>265</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -9515,7 +9610,7 @@
       <c r="J264" s="2"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="n">
+      <c r="A265" s="1" t="n">
         <v>266</v>
       </c>
       <c r="B265" s="2" t="s">
@@ -9535,7 +9630,7 @@
       <c r="J265" s="2"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="n">
+      <c r="A266" s="1" t="n">
         <v>267</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -9555,7 +9650,7 @@
       <c r="J266" s="2"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="n">
+      <c r="A267" s="1" t="n">
         <v>268</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -9575,7 +9670,7 @@
       <c r="J267" s="2"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="n">
+      <c r="A268" s="1" t="n">
         <v>269</v>
       </c>
       <c r="B268" s="2" t="s">
@@ -9595,7 +9690,7 @@
       <c r="J268" s="2"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="n">
+      <c r="A269" s="1" t="n">
         <v>270</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -9615,7 +9710,7 @@
       <c r="J269" s="2"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="n">
+      <c r="A270" s="1" t="n">
         <v>271</v>
       </c>
       <c r="B270" s="2" t="s">
@@ -9635,7 +9730,7 @@
       <c r="J270" s="2"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="n">
+      <c r="A271" s="1" t="n">
         <v>272</v>
       </c>
       <c r="B271" s="2" t="s">
@@ -9655,7 +9750,7 @@
       <c r="J271" s="2"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="n">
+      <c r="A272" s="1" t="n">
         <v>273</v>
       </c>
       <c r="B272" s="2" t="s">
@@ -9675,7 +9770,7 @@
       <c r="J272" s="2"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="n">
+      <c r="A273" s="1" t="n">
         <v>274</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -9695,7 +9790,7 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="n">
+      <c r="A274" s="1" t="n">
         <v>275</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -9715,7 +9810,7 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="n">
+      <c r="A275" s="1" t="n">
         <v>276</v>
       </c>
       <c r="B275" s="2" t="s">
@@ -9737,7 +9832,7 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="n">
+      <c r="A276" s="1" t="n">
         <v>277</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -9757,7 +9852,7 @@
       <c r="J276" s="2"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="n">
+      <c r="A277" s="1" t="n">
         <v>278</v>
       </c>
       <c r="B277" s="2" t="s">
@@ -9775,7 +9870,7 @@
       <c r="J277" s="2"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="n">
+      <c r="A278" s="1" t="n">
         <v>279</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -9795,7 +9890,7 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="n">
+      <c r="A279" s="1" t="n">
         <v>280</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -9813,7 +9908,7 @@
       <c r="J279" s="2"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="n">
+      <c r="A280" s="1" t="n">
         <v>281</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -9831,7 +9926,7 @@
       <c r="J280" s="2"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="n">
+      <c r="A281" s="1" t="n">
         <v>282</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -9851,7 +9946,7 @@
       <c r="J281" s="2"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="n">
+      <c r="A282" s="1" t="n">
         <v>283</v>
       </c>
       <c r="B282" s="2" t="s">
@@ -9871,7 +9966,7 @@
       <c r="J282" s="2"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="n">
+      <c r="A283" s="1" t="n">
         <v>284</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -9891,7 +9986,7 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="n">
+      <c r="A284" s="1" t="n">
         <v>285</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -9913,7 +10008,7 @@
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="n">
+      <c r="A285" s="1" t="n">
         <v>286</v>
       </c>
       <c r="B285" s="2" t="s">
@@ -9933,7 +10028,7 @@
       <c r="J285" s="2"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="n">
+      <c r="A286" s="1" t="n">
         <v>287</v>
       </c>
       <c r="B286" s="2" t="s">
@@ -9951,7 +10046,7 @@
       <c r="J286" s="2"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="n">
+      <c r="A287" s="1" t="n">
         <v>288</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -9969,7 +10064,7 @@
       <c r="J287" s="2"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="n">
+      <c r="A288" s="1" t="n">
         <v>289</v>
       </c>
       <c r="B288" s="2" t="s">
@@ -9991,7 +10086,7 @@
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="n">
+      <c r="A289" s="1" t="n">
         <v>290</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -10011,7 +10106,7 @@
       <c r="J289" s="2"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="n">
+      <c r="A290" s="1" t="n">
         <v>291</v>
       </c>
       <c r="B290" s="2" t="s">
@@ -10031,7 +10126,7 @@
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="n">
+      <c r="A291" s="1" t="n">
         <v>292</v>
       </c>
       <c r="B291" s="2" t="s">
@@ -10051,7 +10146,7 @@
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="n">
+      <c r="A292" s="1" t="n">
         <v>293</v>
       </c>
       <c r="B292" s="2" t="s">
@@ -10071,7 +10166,7 @@
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="n">
+      <c r="A293" s="1" t="n">
         <v>294</v>
       </c>
       <c r="B293" s="2" t="s">
@@ -10091,7 +10186,7 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="n">
+      <c r="A294" s="1" t="n">
         <v>295</v>
       </c>
       <c r="B294" s="2" t="s">
@@ -10111,7 +10206,7 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="n">
+      <c r="A295" s="1" t="n">
         <v>296</v>
       </c>
       <c r="B295" s="2" t="s">
@@ -10133,7 +10228,7 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="n">
+      <c r="A296" s="1" t="n">
         <v>297</v>
       </c>
       <c r="B296" s="2" t="s">
@@ -10155,7 +10250,7 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="n">
+      <c r="A297" s="1" t="n">
         <v>298</v>
       </c>
       <c r="B297" s="2" t="s">
@@ -10175,7 +10270,7 @@
       <c r="J297" s="2"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="n">
+      <c r="A298" s="1" t="n">
         <v>299</v>
       </c>
       <c r="B298" s="2" t="s">
@@ -10193,7 +10288,7 @@
       <c r="J298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="n">
+      <c r="A299" s="1" t="n">
         <v>300</v>
       </c>
       <c r="B299" s="2" t="s">
@@ -10211,7 +10306,7 @@
       <c r="J299" s="2"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="n">
+      <c r="A300" s="1" t="n">
         <v>301</v>
       </c>
       <c r="B300" s="2" t="s">
@@ -10229,7 +10324,7 @@
       <c r="J300" s="2"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="n">
+      <c r="A301" s="1" t="n">
         <v>302</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -10247,7 +10342,7 @@
       <c r="J301" s="2"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="n">
+      <c r="A302" s="1" t="n">
         <v>303</v>
       </c>
       <c r="B302" s="2" t="s">
@@ -10265,7 +10360,7 @@
       <c r="J302" s="2"/>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="n">
+      <c r="A303" s="1" t="n">
         <v>304</v>
       </c>
       <c r="B303" s="2" t="s">
@@ -10283,7 +10378,7 @@
       <c r="J303" s="2"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="n">
+      <c r="A304" s="1" t="n">
         <v>305</v>
       </c>
       <c r="B304" s="2" t="s">
@@ -10301,7 +10396,7 @@
       <c r="J304" s="2"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="n">
+      <c r="A305" s="1" t="n">
         <v>306</v>
       </c>
       <c r="B305" s="2" t="s">
@@ -10321,7 +10416,7 @@
       <c r="J305" s="2"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="n">
+      <c r="A306" s="1" t="n">
         <v>307</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -10339,7 +10434,7 @@
       <c r="J306" s="2"/>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="n">
+      <c r="A307" s="1" t="n">
         <v>308</v>
       </c>
       <c r="B307" s="2" t="s">
@@ -10357,7 +10452,7 @@
       <c r="J307" s="2"/>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="n">
+      <c r="A308" s="1" t="n">
         <v>309</v>
       </c>
       <c r="B308" s="2" t="s">
@@ -10375,7 +10470,7 @@
       <c r="J308" s="2"/>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="n">
+      <c r="A309" s="1" t="n">
         <v>310</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -10395,7 +10490,7 @@
       <c r="J309" s="2"/>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="n">
+      <c r="A310" s="1" t="n">
         <v>311</v>
       </c>
       <c r="B310" s="2" t="s">
@@ -10415,7 +10510,7 @@
       <c r="J310" s="2"/>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="n">
+      <c r="A311" s="1" t="n">
         <v>312</v>
       </c>
       <c r="B311" s="2" t="s">
@@ -10433,7 +10528,7 @@
       <c r="J311" s="2"/>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="n">
+      <c r="A312" s="1" t="n">
         <v>313</v>
       </c>
       <c r="B312" s="2" t="s">
@@ -10451,7 +10546,7 @@
       <c r="J312" s="2"/>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="n">
+      <c r="A313" s="1" t="n">
         <v>314</v>
       </c>
       <c r="B313" s="2" t="s">
@@ -10471,7 +10566,7 @@
       <c r="J313" s="2"/>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="n">
+      <c r="A314" s="1" t="n">
         <v>315</v>
       </c>
       <c r="B314" s="2" t="s">
@@ -10489,7 +10584,7 @@
       <c r="J314" s="2"/>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="n">
+      <c r="A315" s="1" t="n">
         <v>316</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -10507,7 +10602,7 @@
       <c r="J315" s="2"/>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="n">
+      <c r="A316" s="1" t="n">
         <v>317</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -10527,7 +10622,7 @@
       <c r="J316" s="2"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="n">
+      <c r="A317" s="1" t="n">
         <v>318</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -10545,7 +10640,7 @@
       <c r="J317" s="2"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="n">
+      <c r="A318" s="1" t="n">
         <v>319</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -10567,7 +10662,7 @@
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="n">
+      <c r="A319" s="1" t="n">
         <v>320</v>
       </c>
       <c r="B319" s="2" t="s">
@@ -10591,7 +10686,7 @@
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="n">
+      <c r="A320" s="1" t="n">
         <v>321</v>
       </c>
       <c r="B320" s="2" t="s">
@@ -10613,7 +10708,7 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="n">
+      <c r="A321" s="1" t="n">
         <v>322</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -10631,7 +10726,7 @@
       <c r="J321" s="2"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="n">
+      <c r="A322" s="1" t="n">
         <v>323</v>
       </c>
       <c r="B322" s="2" t="s">
@@ -10651,7 +10746,7 @@
       <c r="J322" s="2"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0" t="n">
+      <c r="A323" s="1" t="n">
         <v>324</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -10669,7 +10764,7 @@
       <c r="J323" s="2"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0" t="n">
+      <c r="A324" s="1" t="n">
         <v>325</v>
       </c>
       <c r="B324" s="2" t="s">
@@ -10691,7 +10786,7 @@
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="n">
+      <c r="A325" s="1" t="n">
         <v>326</v>
       </c>
       <c r="B325" s="2" t="s">
@@ -10713,7 +10808,7 @@
       <c r="J325" s="2"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="n">
+      <c r="A326" s="1" t="n">
         <v>327</v>
       </c>
       <c r="B326" s="2" t="s">
@@ -10731,7 +10826,7 @@
       <c r="J326" s="2"/>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="n">
+      <c r="A327" s="1" t="n">
         <v>328</v>
       </c>
       <c r="B327" s="2" t="s">
@@ -10749,7 +10844,7 @@
       <c r="J327" s="2"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="n">
+      <c r="A328" s="1" t="n">
         <v>329</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -10767,7 +10862,7 @@
       <c r="J328" s="2"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="n">
+      <c r="A329" s="1" t="n">
         <v>330</v>
       </c>
       <c r="B329" s="2" t="s">
@@ -10789,7 +10884,7 @@
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="n">
+      <c r="A330" s="1" t="n">
         <v>331</v>
       </c>
       <c r="B330" s="2" t="s">
@@ -10811,7 +10906,7 @@
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="n">
+      <c r="A331" s="1" t="n">
         <v>332</v>
       </c>
       <c r="B331" s="2" t="s">
@@ -10833,7 +10928,7 @@
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="n">
+      <c r="A332" s="1" t="n">
         <v>333</v>
       </c>
       <c r="B332" s="2" t="s">
@@ -10855,7 +10950,7 @@
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="n">
+      <c r="A333" s="1" t="n">
         <v>334</v>
       </c>
       <c r="B333" s="2" t="s">
@@ -10877,7 +10972,7 @@
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="n">
+      <c r="A334" s="1" t="n">
         <v>335</v>
       </c>
       <c r="B334" s="2" t="s">
@@ -10895,7 +10990,7 @@
       <c r="J334" s="2"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="n">
+      <c r="A335" s="1" t="n">
         <v>336</v>
       </c>
       <c r="B335" s="2" t="s">
@@ -10915,7 +11010,7 @@
       <c r="J335" s="2"/>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="n">
+      <c r="A336" s="1" t="n">
         <v>337</v>
       </c>
       <c r="B336" s="2" t="s">
@@ -10935,7 +11030,7 @@
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="n">
+      <c r="A337" s="1" t="n">
         <v>338</v>
       </c>
       <c r="B337" s="2" t="s">
@@ -10955,7 +11050,7 @@
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="n">
+      <c r="A338" s="1" t="n">
         <v>339</v>
       </c>
       <c r="B338" s="2" t="s">
@@ -10975,7 +11070,7 @@
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="n">
+      <c r="A339" s="1" t="n">
         <v>340</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -10993,7 +11088,7 @@
       <c r="J339" s="2"/>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="n">
+      <c r="A340" s="1" t="n">
         <v>341</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -11015,7 +11110,7 @@
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="n">
+      <c r="A341" s="1" t="n">
         <v>342</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -11035,7 +11130,7 @@
       <c r="J341" s="2"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="n">
+      <c r="A342" s="1" t="n">
         <v>343</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -11055,7 +11150,7 @@
       <c r="J342" s="2"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="n">
+      <c r="A343" s="1" t="n">
         <v>344</v>
       </c>
       <c r="B343" s="2" t="s">
@@ -11073,7 +11168,7 @@
       <c r="J343" s="2"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="n">
+      <c r="A344" s="1" t="n">
         <v>345</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -11091,7 +11186,7 @@
       <c r="J344" s="2"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="n">
+      <c r="A345" s="1" t="n">
         <v>346</v>
       </c>
       <c r="B345" s="2" t="s">
@@ -11109,7 +11204,7 @@
       <c r="J345" s="2"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="n">
+      <c r="A346" s="1" t="n">
         <v>347</v>
       </c>
       <c r="B346" s="2" t="s">
@@ -11127,7 +11222,7 @@
       <c r="J346" s="2"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="n">
+      <c r="A347" s="1" t="n">
         <v>348</v>
       </c>
       <c r="B347" s="2" t="s">
@@ -11149,7 +11244,7 @@
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="n">
+      <c r="A348" s="1" t="n">
         <v>349</v>
       </c>
       <c r="B348" s="2" t="s">
@@ -11169,7 +11264,7 @@
       <c r="J348" s="2"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="n">
+      <c r="A349" s="1" t="n">
         <v>350</v>
       </c>
       <c r="B349" s="2" t="s">
@@ -11193,7 +11288,7 @@
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="n">
+      <c r="A350" s="1" t="n">
         <v>351</v>
       </c>
       <c r="B350" s="2" t="s">
@@ -11211,7 +11306,7 @@
       <c r="J350" s="2"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="n">
+      <c r="A351" s="1" t="n">
         <v>352</v>
       </c>
       <c r="B351" s="2" t="s">
@@ -11231,7 +11326,7 @@
       <c r="J351" s="2"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="n">
+      <c r="A352" s="1" t="n">
         <v>353</v>
       </c>
       <c r="B352" s="2" t="s">
@@ -11249,7 +11344,7 @@
       <c r="J352" s="2"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="n">
+      <c r="A353" s="1" t="n">
         <v>354</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -11273,7 +11368,7 @@
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="n">
+      <c r="A354" s="1" t="n">
         <v>355</v>
       </c>
       <c r="B354" s="2" t="s">
@@ -11295,7 +11390,7 @@
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="n">
+      <c r="A355" s="1" t="n">
         <v>356</v>
       </c>
       <c r="B355" s="2" t="s">
@@ -11317,7 +11412,7 @@
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="n">
+      <c r="A356" s="1" t="n">
         <v>357</v>
       </c>
       <c r="B356" s="2" t="s">
@@ -11339,7 +11434,7 @@
       <c r="J356" s="2"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="n">
+      <c r="A357" s="1" t="n">
         <v>358</v>
       </c>
       <c r="B357" s="2" t="s">
@@ -11379,45 +11474,45 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="22.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="50.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="138.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -11429,17 +11524,19 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -11447,11 +11544,11 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>1002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -11460,11 +11557,11 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>1003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -11473,14 +11570,14 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>1004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C6" s="5" t="s">
         <v>1053</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1054</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -11488,14 +11585,14 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>1005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -11503,14 +11600,14 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>1006</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -11518,26 +11615,28 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>1007</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>1008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -11546,11 +11645,11 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>1009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -11559,14 +11658,14 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>1010</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -11574,14 +11673,14 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>1011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -11589,11 +11688,11 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>1012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -11602,14 +11701,14 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>1013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>1067</v>
+        <v>1068</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1069</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -11617,14 +11716,14 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>1014</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1069</v>
+        <v>1070</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1071</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -11632,14 +11731,14 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>1015</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>1071</v>
+        <v>1072</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1073</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -11647,14 +11746,14 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>1016</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>1073</v>
+        <v>1074</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1075</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -11662,29 +11761,31 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>1017</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>1018</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>1076</v>
+        <v>1078</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1079</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -11692,14 +11793,14 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>1019</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -11707,14 +11808,14 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>1020</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>1080</v>
+        <v>1082</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1083</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -11722,14 +11823,14 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>1021</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>1082</v>
+        <v>1084</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1085</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -11737,14 +11838,14 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>1022</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>1084</v>
+        <v>1086</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1087</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -11752,29 +11853,31 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>1023</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>1085</v>
+      <c r="C25" s="4" t="s">
+        <v>1088</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>1089</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>1024</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>1087</v>
+        <v>1090</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1091</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -11782,14 +11885,14 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>1025</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -11797,14 +11900,14 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>1026</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -11812,14 +11915,14 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>1027</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>1093</v>
+        <v>1096</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1097</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -11827,14 +11930,14 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>1028</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -11842,14 +11945,14 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>1029</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -11857,14 +11960,14 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>1030</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -11872,11 +11975,11 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>1031</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -11885,11 +11988,11 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>1032</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -11898,11 +12001,11 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>1033</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -11911,11 +12014,11 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>1034</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -11924,11 +12027,11 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>1035</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -11937,11 +12040,11 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>1036</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -11950,11 +12053,11 @@
       <c r="G38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>1037</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -11989,61 +12092,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1107</v>
+      <c r="B1" s="2" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1109</v>
+      <c r="A2" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1111</v>
+      <c r="A3" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1113</v>
+      <c r="A4" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1115</v>
+      <c r="A5" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>1116</v>
+      <c r="A6" s="1" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>1118</v>
+      <c r="A7" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1122</v>
       </c>
     </row>
   </sheetData>

--- a/i18n/de.xlsx
+++ b/i18n/de.xlsx
@@ -3668,9 +3668,9 @@
   <dimension ref="A1:J357"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E163" activeCellId="0" sqref="E163"/>
+      <selection pane="bottomLeft" activeCell="A201" activeCellId="0" sqref="A201:A357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8197,7 +8197,7 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>662</v>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>665</v>
@@ -8245,7 +8245,7 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>668</v>
@@ -8271,7 +8271,7 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>672</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>675</v>
@@ -8319,7 +8319,7 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>678</v>
@@ -8343,7 +8343,7 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>681</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>684</v>
@@ -8389,7 +8389,7 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>687</v>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>690</v>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>693</v>
@@ -8461,7 +8461,7 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>696</v>
@@ -8483,7 +8483,7 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>699</v>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>703</v>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>706</v>
@@ -8551,7 +8551,7 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>709</v>
@@ -8575,7 +8575,7 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>713</v>
@@ -8595,7 +8595,7 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>716</v>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>719</v>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>722</v>
@@ -8661,7 +8661,7 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>726</v>
@@ -8683,7 +8683,7 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>730</v>
@@ -8705,7 +8705,7 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>733</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>736</v>
@@ -8749,7 +8749,7 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>739</v>
@@ -8769,7 +8769,7 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>742</v>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>745</v>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>748</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>751</v>
@@ -8855,7 +8855,7 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>755</v>
@@ -8875,7 +8875,7 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>758</v>
@@ -8895,7 +8895,7 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>761</v>
@@ -8917,7 +8917,7 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>765</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>768</v>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>771</v>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>774</v>
@@ -8999,7 +8999,7 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>777</v>
@@ -9019,7 +9019,7 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>780</v>
@@ -9041,7 +9041,7 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>783</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>786</v>
@@ -9085,7 +9085,7 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>789</v>
@@ -9109,7 +9109,7 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>792</v>
@@ -9135,7 +9135,7 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>795</v>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>799</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>802</v>
@@ -9209,7 +9209,7 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>805</v>
@@ -9233,7 +9233,7 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>808</v>
@@ -9259,7 +9259,7 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>811</v>
@@ -9283,7 +9283,7 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>814</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>817</v>
@@ -9323,7 +9323,7 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>820</v>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>823</v>
@@ -9365,7 +9365,7 @@
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>826</v>
@@ -9387,7 +9387,7 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>829</v>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>832</v>
@@ -9427,7 +9427,7 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>835</v>
@@ -9451,7 +9451,7 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>838</v>
@@ -9475,7 +9475,7 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>841</v>
@@ -9499,7 +9499,7 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>844</v>
@@ -9523,7 +9523,7 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>847</v>
@@ -9547,7 +9547,7 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>850</v>
@@ -9571,7 +9571,7 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>853</v>
@@ -9591,7 +9591,7 @@
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>855</v>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>857</v>
@@ -9631,7 +9631,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>859</v>
@@ -9651,7 +9651,7 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>861</v>
@@ -9671,7 +9671,7 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>863</v>
@@ -9691,7 +9691,7 @@
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>865</v>
@@ -9711,7 +9711,7 @@
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>867</v>
@@ -9731,7 +9731,7 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>869</v>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>871</v>
@@ -9771,7 +9771,7 @@
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>873</v>
@@ -9791,7 +9791,7 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>875</v>
@@ -9811,7 +9811,7 @@
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>877</v>
@@ -9833,7 +9833,7 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>879</v>
@@ -9853,7 +9853,7 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>881</v>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>883</v>
@@ -9891,7 +9891,7 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>885</v>
@@ -9909,7 +9909,7 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>887</v>
@@ -9927,7 +9927,7 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>889</v>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>891</v>
@@ -9967,7 +9967,7 @@
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>893</v>
@@ -9987,7 +9987,7 @@
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>895</v>
@@ -10009,7 +10009,7 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>897</v>
@@ -10029,7 +10029,7 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>899</v>
@@ -10047,7 +10047,7 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>901</v>
@@ -10065,7 +10065,7 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>903</v>
@@ -10087,7 +10087,7 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>905</v>
@@ -10107,7 +10107,7 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>907</v>
@@ -10127,7 +10127,7 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>909</v>
@@ -10147,7 +10147,7 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>911</v>
@@ -10167,7 +10167,7 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>913</v>
@@ -10187,7 +10187,7 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>915</v>
@@ -10207,7 +10207,7 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>917</v>
@@ -10229,7 +10229,7 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>919</v>
@@ -10251,7 +10251,7 @@
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>921</v>
@@ -10271,7 +10271,7 @@
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>923</v>
@@ -10289,7 +10289,7 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>925</v>
@@ -10307,7 +10307,7 @@
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>927</v>
@@ -10325,7 +10325,7 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>929</v>
@@ -10343,7 +10343,7 @@
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>931</v>
@@ -10361,7 +10361,7 @@
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>933</v>
@@ -10379,7 +10379,7 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>935</v>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>937</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>939</v>
@@ -10435,7 +10435,7 @@
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>941</v>
@@ -10453,7 +10453,7 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>943</v>
@@ -10471,7 +10471,7 @@
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>945</v>
@@ -10491,7 +10491,7 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>947</v>
@@ -10511,7 +10511,7 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>949</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>951</v>
@@ -10547,7 +10547,7 @@
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>953</v>
@@ -10567,7 +10567,7 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>955</v>
@@ -10585,7 +10585,7 @@
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>957</v>
@@ -10603,7 +10603,7 @@
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>959</v>
@@ -10623,7 +10623,7 @@
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>961</v>
@@ -10641,7 +10641,7 @@
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>963</v>
@@ -10663,7 +10663,7 @@
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>965</v>
@@ -10687,7 +10687,7 @@
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>967</v>
@@ -10709,7 +10709,7 @@
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>969</v>
@@ -10727,7 +10727,7 @@
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>971</v>
@@ -10747,7 +10747,7 @@
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>973</v>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>975</v>
@@ -10787,7 +10787,7 @@
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>977</v>
@@ -10809,7 +10809,7 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>979</v>
@@ -10827,7 +10827,7 @@
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>981</v>
@@ -10845,7 +10845,7 @@
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>983</v>
@@ -10863,7 +10863,7 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>985</v>
@@ -10885,7 +10885,7 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>987</v>
@@ -10907,7 +10907,7 @@
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>989</v>
@@ -10929,7 +10929,7 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>991</v>
@@ -10951,7 +10951,7 @@
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>993</v>
@@ -10973,7 +10973,7 @@
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>995</v>
@@ -10991,7 +10991,7 @@
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>997</v>
@@ -11011,7 +11011,7 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>999</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>1001</v>
@@ -11051,7 +11051,7 @@
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>1003</v>
@@ -11071,7 +11071,7 @@
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>1005</v>
@@ -11089,7 +11089,7 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>1007</v>
@@ -11111,7 +11111,7 @@
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>1009</v>
@@ -11131,7 +11131,7 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>1011</v>
@@ -11151,7 +11151,7 @@
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>1013</v>
@@ -11169,7 +11169,7 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>1015</v>
@@ -11187,7 +11187,7 @@
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>1017</v>
@@ -11205,7 +11205,7 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>1019</v>
@@ -11223,7 +11223,7 @@
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>1021</v>
@@ -11245,7 +11245,7 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>1023</v>
@@ -11265,7 +11265,7 @@
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>1025</v>
@@ -11289,7 +11289,7 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>1027</v>
@@ -11307,7 +11307,7 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>1029</v>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>1031</v>
@@ -11345,7 +11345,7 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>1033</v>
@@ -11369,7 +11369,7 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>1035</v>
@@ -11391,7 +11391,7 @@
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>1037</v>
@@ -11413,7 +11413,7 @@
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>1039</v>
@@ -11435,7 +11435,7 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>1041</v>
@@ -11475,7 +11475,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="1" sqref="A201:A357 G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12087,7 +12087,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A201:A357 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/i18n/de.xlsx
+++ b/i18n/de.xlsx
@@ -5,14 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$B$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ExternalData_1" vbProcedure="false">Birds!$A$1:$G$447</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">Bonuses!$A$1:$H$60</definedName>
   </definedNames>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="1785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1787">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -5440,19 +5442,19 @@
     <t xml:space="preserve">Bei Aktivierung </t>
   </si>
   <si>
-    <t xml:space="preserve">WHEN PLAYED</t>
+    <t xml:space="preserve">WHEN PLAYED</t>
   </si>
   <si>
     <t xml:space="preserve">Beim Ausspeieln </t>
   </si>
   <si>
-    <t xml:space="preserve">ONCE BETWEEN TURNS</t>
+    <t xml:space="preserve">ONCE BETWEEN TURNS</t>
   </si>
   <si>
     <t xml:space="preserve">1x zwischen deinen Zügen </t>
   </si>
   <si>
-    <t xml:space="preserve">ROUND END</t>
+    <t xml:space="preserve">ROUND END</t>
   </si>
   <si>
     <t xml:space="preserve">Am Rundenende </t>
@@ -5464,19 +5466,28 @@
     <t xml:space="preserve">Am Spielende</t>
   </si>
   <si>
-    <t xml:space="preserve">of cards</t>
+    <t xml:space="preserve">of cards</t>
   </si>
   <si>
     <t xml:space="preserve">der Karten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show bonus cards match symbols</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$SFr.-807]\ #,##0.00;[RED][$SFr.-807]&quot; -&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
+    <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -5611,7 +5622,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5652,6 +5663,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5682,6 +5709,10 @@
     </dxf>
   </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16235,7 +16266,7 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
@@ -17407,7 +17438,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17425,8 +17456,8 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1773</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -17434,7 +17465,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>1775</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -17442,31 +17473,31 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>1777</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>1779</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>1781</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>1783</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -17485,4 +17516,51 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B2" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/i18n/de.xlsx
+++ b/i18n/de.xlsx
@@ -5,16 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Parameters" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Goals" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Other" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Parameters" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$B$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Goals!$A$1:$F$47</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$B$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ExternalData_1" vbProcedure="false">Birds!$A$1:$G$447</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">Bonuses!$A$1:$H$60</definedName>
   </definedNames>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="1997">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -3942,6 +3944,9 @@
     <t xml:space="preserve">asia</t>
   </si>
   <si>
+    <t xml:space="preserve">Grünflügeltaube</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lege 2 [egg] auf jeden Vogel in dieser Spalte.</t>
   </si>
   <si>
@@ -3951,6 +3956,9 @@
     <t xml:space="preserve">Eudynamys scolopaceus</t>
   </si>
   <si>
+    <t xml:space="preserve">Indischer Koel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nutzt ein Mitspieler die Aktion "Eier legen", dann legt dieser Vogel 1 [egg] auf einen anderen Vogel mit [platform] Nest. Du darfst 3 Eier über das Limit gehen.</t>
   </si>
   <si>
@@ -3960,6 +3968,9 @@
     <t xml:space="preserve">Cyanistes cyanus</t>
   </si>
   <si>
+    <t xml:space="preserve">Lasurmeise</t>
+  </si>
+  <si>
     <t xml:space="preserve">Erhalte 1 [invertebrate], [seed] oder [fruit] aus dem Vorrat.</t>
   </si>
   <si>
@@ -3969,6 +3980,9 @@
     <t xml:space="preserve">Ploceus philippinus</t>
   </si>
   <si>
+    <t xml:space="preserve">Bayaweber</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schiebe bis zu 3 [card] von deiner Hand hinter diesen Vogel. Wenn du mindestens 1 [card] schiebst, lege 1 [egg] auf diesen Vogel.</t>
   </si>
   <si>
@@ -3978,6 +3992,9 @@
     <t xml:space="preserve">Panurus biarmicus</t>
   </si>
   <si>
+    <t xml:space="preserve">Bartmeise</t>
+  </si>
+  <si>
     <t xml:space="preserve">Für jeden anderen Vogel in dieser Spalte mit einem Ei darauf, lege 1 [egg] auf diesen Vogel.</t>
   </si>
   <si>
@@ -3987,6 +4004,9 @@
     <t xml:space="preserve">Dicrurus macrocercus</t>
   </si>
   <si>
+    <t xml:space="preserve">Königsdrongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wirf beliebig viele [card] aus der Tränke ab und fülle sie wieder auf. Wenn mindestens einer der abgeworfenen Vögel ein [grassland] Vogel ist, lege 1 [egg] auf diesen Vogel.</t>
   </si>
   <si>
@@ -3996,6 +4016,9 @@
     <t xml:space="preserve">Ciconia nigra</t>
   </si>
   <si>
+    <t xml:space="preserve">Schwarzstorch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lege 1 [egg] auf jeden Vogel direkt links und rechts von diesem Vogel.</t>
   </si>
   <si>
@@ -4005,6 +4028,9 @@
     <t xml:space="preserve">Oriolus chinensis</t>
   </si>
   <si>
+    <t xml:space="preserve">Schwarznackenpirol</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wenn du in dieser Runde alle 4 Aktionen genutzt hast, erhalte 1 [wild] aus dem Vorrat, lege 1 [egg] auf einen beliebigen Vogel und ziehe 1 [card] vom Stapel.</t>
   </si>
   <si>
@@ -4014,6 +4040,9 @@
     <t xml:space="preserve">Monticola solitarius</t>
   </si>
   <si>
+    <t xml:space="preserve">Blaumerle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wenn dieser Vogel keine Vögel rechts von sich hat, kannst du ihn (nur die Karte) auf die Spielermatte des Spielers zu deiner Linken bewegen (du wählst sein Habitat). Falls du das tust, ziehe 3 [card].</t>
   </si>
   <si>
@@ -4023,6 +4052,9 @@
     <t xml:space="preserve">Haliastur indus</t>
   </si>
   <si>
+    <t xml:space="preserve">Brahminenweih</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wähle 3 [die]. Wirf sie bis zu 3-mal. Jedes Mal, wenn du mindestens 1 [fish] oder [rodent] würfelst, lagere 1 hier. Andernfalls stoppe und gib alle in diesem Zug gelagerten Nahrungsmittel zurück.</t>
   </si>
   <si>
@@ -4032,6 +4064,9 @@
     <t xml:space="preserve">Fringilla montifringilla</t>
   </si>
   <si>
+    <t xml:space="preserve">Bergfink</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ziehe 2 [card] vom Stapel und füge sie zu deiner Hand hinzu. Schiebe dann bis zu 2 [card] von deiner Hand hinter diesen Vogel.</t>
   </si>
   <si>
@@ -4041,6 +4076,9 @@
     <t xml:space="preserve">Lanius cristatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Braunwürger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alle Spieler dürfen 1 [invertebrate] aus ihrem persönlichen Vorrat auf einen Vogel in ihrem [grassland] lagern.</t>
   </si>
   <si>
@@ -4050,6 +4088,9 @@
     <t xml:space="preserve">Cissa chinensis</t>
   </si>
   <si>
+    <t xml:space="preserve">Jagdelster</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nimm 1 [invertebrate] oder [rodent] aus dem Vogelhäuschen, falls vorhanden. Du kannst es auf diesen Vogel lagern.</t>
   </si>
   <si>
@@ -4059,6 +4100,9 @@
     <t xml:space="preserve">Aegithina tiphia</t>
   </si>
   <si>
+    <t xml:space="preserve">GartenIora</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lege 1 [egg] auf einen anderen Vogel in dieser Spalte.</t>
   </si>
   <si>
@@ -4068,6 +4112,9 @@
     <t xml:space="preserve">Acridotheres tristis</t>
   </si>
   <si>
+    <t xml:space="preserve">Hirtenmaina</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kopiere die "Bei Aktivierung" (braun) Fähigkeit eines Vogels im [grassland] des Spielers zu deiner Linken.</t>
   </si>
   <si>
@@ -4077,6 +4124,9 @@
     <t xml:space="preserve">Actitis hypoleucos</t>
   </si>
   <si>
+    <t xml:space="preserve">Flussuferläufer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ziehe 1 [card] für jeden Vogel in deinem [wetland] mit einem [egg] darauf. Behalte 1 und wirf den Rest ab.</t>
   </si>
   <si>
@@ -4086,6 +4136,9 @@
     <t xml:space="preserve">Orthotomus sutorius</t>
   </si>
   <si>
+    <t xml:space="preserve">Rotstirn-Schneidervogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finde eine zusammenhängende Gruppe von Vögeln in deinem Reservat, die alle denselben Nesttyp haben. Lege 1 [egg] auf jeden von ihnen. [star] Nester zählen als jeder Nesttyp.</t>
   </si>
   <si>
@@ -4095,6 +4148,9 @@
     <t xml:space="preserve">Anas crecca</t>
   </si>
   <si>
+    <t xml:space="preserve">Krickente</t>
+  </si>
+  <si>
     <t xml:space="preserve">Für je 3 [egg] in deinem [wetland] ziehe 1 [card] vom Stapel. Du kannst bis zu 2 [card] von deiner Hand hinter diesen Vogel schieben.</t>
   </si>
   <si>
@@ -4104,12 +4160,18 @@
     <t xml:space="preserve">Psilopogon haemacephalus</t>
   </si>
   <si>
+    <t xml:space="preserve">Kupferschmied-Bartvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Crested Ibis</t>
   </si>
   <si>
     <t xml:space="preserve">Nipponia nippon</t>
   </si>
   <si>
+    <t xml:space="preserve">Nipponibis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ziehe 2 neue Bonuskarten und behalte 1. Alle Mitspieler dürfen beliebig 2 Ressourcen ([wild], [egg] oder [card]) ablegen, um dasselbe zu tun.</t>
   </si>
   <si>
@@ -4119,6 +4181,9 @@
     <t xml:space="preserve">Galerida cristata</t>
   </si>
   <si>
+    <t xml:space="preserve">Haubenlerche</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wirf 1 [seed] ab. Wenn du das tust, lege 1 [egg] auf diesen Vogel.</t>
   </si>
   <si>
@@ -4128,6 +4193,9 @@
     <t xml:space="preserve">Rhodospiza obsoleta</t>
   </si>
   <si>
+    <t xml:space="preserve">Weißflügelgimpel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lege 1 [egg] auf diesen Vogel für jeden anderen Vogel in deinem [grassland].</t>
   </si>
   <si>
@@ -4137,6 +4205,9 @@
     <t xml:space="preserve">Oenanthe deserti</t>
   </si>
   <si>
+    <t xml:space="preserve">Wüstensteinschmätzer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Für jeden Vogel in deinem [grassland] mit einem [egg] darauf, würfle mit einem [die]. Wähle 1 Art von Nahrung, die du gewürfelt hast, und erhalte 1 davon aus dem Vorrat.</t>
   </si>
   <si>
@@ -4146,6 +4217,9 @@
     <t xml:space="preserve">Fulica atra</t>
   </si>
   <si>
+    <t xml:space="preserve">Blässhuhn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schiebe bis zu 3 [card] von deiner Hand hinter diesen Vogel.</t>
   </si>
   <si>
@@ -4155,6 +4229,9 @@
     <t xml:space="preserve">Bubo bubo</t>
   </si>
   <si>
+    <t xml:space="preserve">Uhu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bis zu 3-mal, ziehe 1 [card] vom Stapel. Wenn du stoppst und die Gesamtspannweite der Vögel &lt; 110 cm beträgt, schiebe sie hinter diesen Vogel. Andernfalls wirf sie ab.</t>
   </si>
   <si>
@@ -4164,6 +4241,9 @@
     <t xml:space="preserve">Upupa epops</t>
   </si>
   <si>
+    <t xml:space="preserve">Wiedehopf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stiehl 1 [invertebrate] von jedem deiner Nachbarn. Jeder Nachbar, dem ein [invertebrate] gestohlen wurde, darf 1 [wild] aus dem Vorrat nehmen.</t>
   </si>
   <si>
@@ -4173,6 +4253,9 @@
     <t xml:space="preserve">Falco tinnunculus</t>
   </si>
   <si>
+    <t xml:space="preserve">Turmfalke</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wirf 3 [die]. Wenn du mindestens 1 [rodent] würfelst, lagere 1 [rodent] auf diesem Vogel.</t>
   </si>
   <si>
@@ -4182,12 +4265,18 @@
     <t xml:space="preserve">Circus aeruginosus</t>
   </si>
   <si>
+    <t xml:space="preserve">Rohrweihe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eurasian Treecreeper</t>
   </si>
   <si>
     <t xml:space="preserve">Certhia familiaris</t>
   </si>
   <si>
+    <t xml:space="preserve">Waldbaumläufer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Für je 3 [egg] in deinem [forest], erhalte 1 [invertebrate] oder [seed] aus dem Vorrat. Du kannst bis zu 2 davon auf diesem Vogel lagern.</t>
   </si>
   <si>
@@ -4197,6 +4286,9 @@
     <t xml:space="preserve">Serinus pusillus</t>
   </si>
   <si>
+    <t xml:space="preserve">Rotstirngirlitz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lege 1 [egg] auf diesen Vogel für jeden Vogel links von ihm in dieser Reihe.</t>
   </si>
   <si>
@@ -4206,6 +4298,9 @@
     <t xml:space="preserve">Athene blewitti</t>
   </si>
   <si>
+    <t xml:space="preserve">Blewittkauz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wähle 2 [die]. Wirf sie bis zu 3-mal. Jedes Mal, wenn du mindestens 1 [invertebrate] oder [rodent] würfelst, lagere 1 hier. Andernfalls stoppe und gib alle in diesem Zug gelagerte Nahrung zurück.</t>
   </si>
   <si>
@@ -4215,6 +4310,9 @@
     <t xml:space="preserve">Chrysolophus pictus</t>
   </si>
   <si>
+    <t xml:space="preserve">Goldfasan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alle Spieler legen 2 [egg]. Du legst zusätzlich 2 [egg].</t>
   </si>
   <si>
@@ -4224,6 +4322,9 @@
     <t xml:space="preserve">Prinia gracilis</t>
   </si>
   <si>
+    <t xml:space="preserve">Streifenprinie</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lege 1 [egg] ab. Wenn du das tust, erhalte 1 [invertebrate] aus dem Vorrat.</t>
   </si>
   <si>
@@ -4242,6 +4343,9 @@
     <t xml:space="preserve">Motacilla cinerea</t>
   </si>
   <si>
+    <t xml:space="preserve">Gebirgsstelze</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wenn du in dieser Runde alle 4 Aktionstypen verwendet hast, nimm 2 [wild] aus dem Vorrat.</t>
   </si>
   <si>
@@ -4251,6 +4355,9 @@
     <t xml:space="preserve">Phalacrocorax carbo</t>
   </si>
   <si>
+    <t xml:space="preserve">Kormoran</t>
+  </si>
+  <si>
     <t xml:space="preserve">Du kannst 1 [fish] von diesem Vogel in deinen Vorrat bewegen. Dann wirf beliebig 2 [die]. Falls einer [fish] ist, lagere 1 [fish] aus dem Vorrat auf diesem Vogel.</t>
   </si>
   <si>
@@ -4260,6 +4367,9 @@
     <t xml:space="preserve">Buceros bicornis</t>
   </si>
   <si>
+    <t xml:space="preserve">Doppelhornvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alle Spieler dürfen 1 [card] von ihrer Hand unter einen Vogel in ihrem [forest] schieben und/oder 1 [fruit] aus ihrem Vorrat auf einen Vogel in ihrem [forest] lagern.</t>
   </si>
   <si>
@@ -4269,6 +4379,9 @@
     <t xml:space="preserve">Ardeotis nigriceps</t>
   </si>
   <si>
+    <t xml:space="preserve">Indische Trappe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Löse 1 deiner Bonuskarten jetzt ein, indem du für jeden Punkt 1 [seed] aus dem Vorrat auf diesem Vogel lagerst. Löse sie noch einmal am Ende des Spiels ein.</t>
   </si>
   <si>
@@ -4278,6 +4391,9 @@
     <t xml:space="preserve">Dendrocopos major</t>
   </si>
   <si>
+    <t xml:space="preserve">Buntspecht</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nimm 1 [invertebrate] oder [seed] aus dem Vogelhäuschen, falls vorhanden.</t>
   </si>
   <si>
@@ -4287,6 +4403,9 @@
     <t xml:space="preserve">Leptoptilos dubius</t>
   </si>
   <si>
+    <t xml:space="preserve">Großer Adjutant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kopiere eine Bonuskarte des Spielers zu deiner Linken, als wäre sie deine eigene (bewerte sie basierend auf deinen eigenen Vögeln).</t>
   </si>
   <si>
@@ -4296,6 +4415,9 @@
     <t xml:space="preserve">Merops orientalis</t>
   </si>
   <si>
+    <t xml:space="preserve">Smaragdspint</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wenn mindestens 1 Vogel in der Tränke [invertebrate] in seinen Nahrungskosten hat, schiebe 1 von ihnen hinter diesen Vogel.</t>
   </si>
   <si>
@@ -4305,6 +4427,9 @@
     <t xml:space="preserve">Phasianus versicolor</t>
   </si>
   <si>
+    <t xml:space="preserve">Buntfasan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alle Spieler legen 1 [egg].</t>
   </si>
   <si>
@@ -4314,6 +4439,9 @@
     <t xml:space="preserve">Lophophorus impejanus</t>
   </si>
   <si>
+    <t xml:space="preserve">Himalaya-Glanzfasan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alle Spieler erhalten 1 [seed] aus dem Vorrat. Du legst außerdem 1 [egg].</t>
   </si>
   <si>
@@ -4323,6 +4451,9 @@
     <t xml:space="preserve">Corvus splendens</t>
   </si>
   <si>
+    <t xml:space="preserve">Glanzkrähe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Du kannst 1 [wild] von deinem Vorrat auf jedem Vogel in dieser Reihe lagern.</t>
   </si>
   <si>
@@ -4332,6 +4463,9 @@
     <t xml:space="preserve">Ibidorhyncha struthersii</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibisschnabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alle Spieler ziehen 1 [card] vom Stapel und nehmen 1 [invertebrate] aus dem Vorrat. Du ziehst zusätzlich 1 [card] vom Stapel.</t>
   </si>
   <si>
@@ -4341,6 +4475,9 @@
     <t xml:space="preserve">Pavo cristatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Blauer Pfau</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alle Spieler ziehen 2 [card] vom Stapel. Du ziehst 1 zusätzliche [card].</t>
   </si>
   <si>
@@ -4350,6 +4487,9 @@
     <t xml:space="preserve">Gyps indicus</t>
   </si>
   <si>
+    <t xml:space="preserve">Indiengeier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kopiere eine Bonuskarte des Spielers rechts von dir, als ob es deine eigene wäre (bewerte sie basierend auf deinen eigenen Vögeln).</t>
   </si>
   <si>
@@ -4359,6 +4499,9 @@
     <t xml:space="preserve">Corvus macrorhynchos</t>
   </si>
   <si>
+    <t xml:space="preserve">Dickschnabelkrähe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lege 1 [wild] aus deinem Vorrat auf einen Vogel. Wenn du dies tust, kannst du 1 [card] aus deiner Hand hinter diesen Vogel schieben.</t>
   </si>
   <si>
@@ -4368,6 +4511,9 @@
     <t xml:space="preserve">Egretta garzetta</t>
   </si>
   <si>
+    <t xml:space="preserve">Seidenreiher</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ziehe 1 [card] vom Stapel und füge sie zu deiner Hand hinzu. Alle anderen Spieler ziehen 1 [card] vom Stapel und behalten sie, wenn sie in [wetland] leben können.</t>
   </si>
   <si>
@@ -4377,6 +4523,9 @@
     <t xml:space="preserve">Tachybaptus ruficollis</t>
   </si>
   <si>
+    <t xml:space="preserve">Zwergtaucher</t>
+  </si>
+  <si>
     <t xml:space="preserve">Für jeden Vogel in dieser Spalte mit einem [egg] darauf, ziehe 1 [card]. Behalte 1 und wirf den Rest ab.</t>
   </si>
   <si>
@@ -4386,6 +4535,9 @@
     <t xml:space="preserve">Charadrius dubius</t>
   </si>
   <si>
+    <t xml:space="preserve">Flussregenpfeifer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wirf 1 [card] von deiner Hand ab. Wenn du das tust, lege 1 [egg] auf diesen Vogel.</t>
   </si>
   <si>
@@ -4395,6 +4547,9 @@
     <t xml:space="preserve">Aix galericulata</t>
   </si>
   <si>
+    <t xml:space="preserve">Mandarinente</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ziehe 5 [card] vom Stapel. Füge 1 zu deiner Hand hinzu, schiebe 1 hinter diesen Vogel, gib 1 einem anderen Spieler und wirf den Rest ab.</t>
   </si>
   <si>
@@ -4404,6 +4559,9 @@
     <t xml:space="preserve">Cinnyris jugularis</t>
   </si>
   <si>
+    <t xml:space="preserve">Grünrücken-Nektarvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jeder Spieler kann einen [die] werfen und diese Nahrung aus dem Vorrat erhalten.</t>
   </si>
   <si>
@@ -4413,6 +4571,9 @@
     <t xml:space="preserve">Phodilus badius</t>
   </si>
   <si>
+    <t xml:space="preserve">Maskeneule</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aktiviere die "Bei Aktivierung" (braun) Fähigkeiten aller deiner anderen [predator].</t>
   </si>
   <si>
@@ -4422,6 +4583,9 @@
     <t xml:space="preserve">Copsychus saularis</t>
   </si>
   <si>
+    <t xml:space="preserve">Dajaldrossel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Für je 3 [egg] in deinem [grassland] erhalte 1 [invertebrate] oder [seed] aus dem Vorrat. Du kannst bis zu 2 davon auf diesen Vogel lagern.</t>
   </si>
   <si>
@@ -4431,6 +4595,9 @@
     <t xml:space="preserve">Pithecophaga jefferyi</t>
   </si>
   <si>
+    <t xml:space="preserve">Affenadler</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wirf alle 5 [die]. Du darfst beliebig viele [die] bis zu 2 Mal neu werfen. Wenn mindestens 3 [rodent] gezeigt werden, ziehe 2 Bonuskarten und behalte 1. Erneuere das Vogelhäuschen.</t>
   </si>
   <si>
@@ -4440,6 +4607,9 @@
     <t xml:space="preserve">Phoenicurus fuliginosus</t>
   </si>
   <si>
+    <t xml:space="preserve">Wasserrotschwanz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ziehe 1 [card] vom Stapel und füge sie zu deiner Hand hinzu. Alle anderen Spieler ziehen 1 [card] vom Stapel und fügen sie ihrer Hand hinzu, wenn der Vogel eine [invertebrate] oder [seed] in seinen Nahrungskosten hat.</t>
   </si>
   <si>
@@ -4449,6 +4619,9 @@
     <t xml:space="preserve">Ardea purpurea</t>
   </si>
   <si>
+    <t xml:space="preserve">Purpurreiher</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wähle 2 [die]. Wirf sie bis zu 3 Mal. Jedes Mal, wenn du mindestens 1 [invertebrate] oder [fish] würfelst, lege 1 hier ab. Andernfalls stoppe und lege alle in diesem Zug gelagerte Nahrung zurück.</t>
   </si>
   <si>
@@ -4458,6 +4631,9 @@
     <t xml:space="preserve">Amandava amandava</t>
   </si>
   <si>
+    <t xml:space="preserve">Tigerfink</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gib 1 [card] aus deiner Hand an einen anderen Spieler. Wenn du das tust, ziehe 2 [card].</t>
   </si>
   <si>
@@ -4467,6 +4643,9 @@
     <t xml:space="preserve">Gallus gallus</t>
   </si>
   <si>
+    <t xml:space="preserve">Bankivahuhn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zähle die [egg] auf allen deinen Vögeln. Wenn die Gesamtanzahl weniger als 6 [egg] beträgt, lege 1 [egg] auf diesen Vogel.</t>
   </si>
   <si>
@@ -4476,6 +4655,9 @@
     <t xml:space="preserve">Grus japonensis</t>
   </si>
   <si>
+    <t xml:space="preserve">Mandschurenkranich</t>
+  </si>
+  <si>
     <t xml:space="preserve">Löse 1 deiner Bonuskarten jetzt ein, indem du für jeden Punkt 1 [wild] aus dem Vorrat auf diesem Vogel lagerst. Wirf die Bonuskarte ab und ziehe eine Neue.</t>
   </si>
   <si>
@@ -4485,6 +4667,9 @@
     <t xml:space="preserve">Pycnonotus cafer</t>
   </si>
   <si>
+    <t xml:space="preserve">Rotsteißbülbül</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wenn du mindestens 1 [fruit] in deinem Vorrat hast, lege 1 [egg] auf diesen Vogel.</t>
   </si>
   <si>
@@ -4494,6 +4679,9 @@
     <t xml:space="preserve">Vanellus indicus</t>
   </si>
   <si>
+    <t xml:space="preserve">Rotlappenkiebitz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Werfe beliebig viele [card] aus der Tränke ab und fülle sie dann wieder auf. Wenn mindestens 1 der abgeworfenen Vögel ein [predator] ist, lege 1 [egg] auf diesen Vogel.</t>
   </si>
   <si>
@@ -4503,6 +4691,9 @@
     <t xml:space="preserve">Cerorhinca monocerata</t>
   </si>
   <si>
+    <t xml:space="preserve">Nashornalk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wirf 2 [die]. Wenn du mindestens 1 [fish] würfelst, lagere 1 [fish] aus dem Vorrat auf diesen Vogel. Alle Spieler können 1 [card] aus ihrer Hand abwerfen, um 1 [fish] aus dem Vorrat zu erhalten.</t>
   </si>
   <si>
@@ -4512,6 +4703,9 @@
     <t xml:space="preserve">Columba livia</t>
   </si>
   <si>
+    <t xml:space="preserve">Felsentaube</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alle Spieler legen 1 [egg]. Du legst zusätzlich 1 [egg].</t>
   </si>
   <si>
@@ -4521,6 +4715,9 @@
     <t xml:space="preserve">Corvus frugilegus</t>
   </si>
   <si>
+    <t xml:space="preserve">Saatkrähe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lagere 1 [wild] aus deinem Vorrat auf diesem Vogel oder schiebe 1 [card] aus deiner Hand hinter diesen Vogel. Wenn du eines davon tust, schiebe 1 [card] vom Stapel hinter diesen Vogel.</t>
   </si>
   <si>
@@ -4530,6 +4727,9 @@
     <t xml:space="preserve">Psittacula krameri</t>
   </si>
   <si>
+    <t xml:space="preserve">Halsbandsittich</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kopiere eine "Beim Ausspielen" (weiß) Fähigkeit eines Vogels deines Nachbarns.</t>
   </si>
   <si>
@@ -4539,7 +4739,10 @@
     <t xml:space="preserve">Pastor roseus</t>
   </si>
   <si>
-    <t xml:space="preserve">schiebe bis zu 3 [card] aus deiner Hand hinter diesen Vogel. Wenn du mindestens 1 [card] schiebst, erhalte 1 [invertebrate] aus dem Vorrat.</t>
+    <t xml:space="preserve">Rosenstar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schiebe bis zu 3 [card] aus deiner Hand hinter diesen Vogel. Wenn du mindestens 1 [card] schiebst, erhalte 1 [invertebrate] aus dem Vorrat.</t>
   </si>
   <si>
     <t xml:space="preserve">Ruddy Shelduck</t>
@@ -4548,6 +4751,9 @@
     <t xml:space="preserve">Tadorna ferruginea</t>
   </si>
   <si>
+    <t xml:space="preserve">Rostgans</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ziehe 5 [card] vom Stapel. Füge 1 zu deiner Hand hinzu, schiebe 1 hinter diesen Vogel und wirf den Rest ab.</t>
   </si>
   <si>
@@ -4557,6 +4763,9 @@
     <t xml:space="preserve">Antigone antigone</t>
   </si>
   <si>
+    <t xml:space="preserve">Saruskranich</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jeder Spieler kann 1 [egg] wegwerfen, um 1 [card] vom Stapel zu ziehen.</t>
   </si>
   <si>
@@ -4566,6 +4775,9 @@
     <t xml:space="preserve">Tragopan satyra</t>
   </si>
   <si>
+    <t xml:space="preserve">Satyrtragopan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gib 1 [card] aus deiner Hand an einen anderen Spieler. Wenn du das tust, lege 2 [egg] auf diesen Vogel.</t>
   </si>
   <si>
@@ -4575,6 +4787,9 @@
     <t xml:space="preserve">Lonchura punctulata</t>
   </si>
   <si>
+    <t xml:space="preserve">Muskatfink</t>
+  </si>
+  <si>
     <t xml:space="preserve">Erhalte 1 [seed] aus dem Vorrat oder schiebe 1 [card] vom Stapel hinter diesen Vogel.</t>
   </si>
   <si>
@@ -4584,6 +4799,9 @@
     <t xml:space="preserve">Pericrocotus cinnamomeus</t>
   </si>
   <si>
+    <t xml:space="preserve">Zwergmennigvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spiele 1 zusätzlichen Vogel in deinem [forest]. Du kannst 1 [invertebrate] oder 1 [egg] aus den Kosten ignorieren.</t>
   </si>
   <si>
@@ -4593,6 +4811,9 @@
     <t xml:space="preserve">Mergellus albellus</t>
   </si>
   <si>
+    <t xml:space="preserve">Zwergsäger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ziehe 4 [card]. Schiebe 2 [card] hinter diesen Vogel und füge die anderen 2 [card] zu deiner Hand hinzu.</t>
   </si>
   <si>
@@ -4602,6 +4823,9 @@
     <t xml:space="preserve">Calidris pygmaea</t>
   </si>
   <si>
+    <t xml:space="preserve">Löffelstrandläufer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ziehe 2 neue Bonuskarten und behalte 1. Andere Spieler können 2 beliebige Ressourcen ([wild], [egg] oder [card]) abwerfen, um dasselbe zu tun.</t>
   </si>
   <si>
@@ -4611,6 +4835,9 @@
     <t xml:space="preserve">Streptopelia chinensis</t>
   </si>
   <si>
+    <t xml:space="preserve">Perlhalstaube</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wenn dieser Vogel keine Vögel rechts von sich hat, kannst du ihn (nur die Karte) zum Spielertablett des Spielers rechts von dir verschieben (du wählst sein Habitat). Wenn du das tust, ziehe 3 [card].</t>
   </si>
   <si>
@@ -4620,6 +4847,9 @@
     <t xml:space="preserve">Urocissa ornata</t>
   </si>
   <si>
+    <t xml:space="preserve">Schmuckkitta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Du kannst 1 [wild] aus deinem Vorrat auf jeden deiner anderen Vögel legen.</t>
   </si>
   <si>
@@ -4629,6 +4859,9 @@
     <t xml:space="preserve">Batrachostomus moniliger</t>
   </si>
   <si>
+    <t xml:space="preserve">Ceylonschwalm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wirf 1 [die]. Wenn du [invertebrate] würfelst, lagere 1 [invertebrate] aus dem Vorrat auf diesem Vogel. Alle Spieler können 1 [card] aus ihrer Hand abwerfen, um 1 [invertebrate] aus dem Vorrat zu erhalten.</t>
   </si>
   <si>
@@ -4638,6 +4871,9 @@
     <t xml:space="preserve">Pelargopsis capensis</t>
   </si>
   <si>
+    <t xml:space="preserve">Storchschnabelliest</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wähle 1 [die]. Würfle ihn einmal für jeden deiner [wetland] Vögel. Wenn du mindestens 1 [fish] würfelst, erhalte 1 aus dem Vorrat. Du kannst ihn auf diesem Vogel lagern.</t>
   </si>
   <si>
@@ -4647,6 +4883,9 @@
     <t xml:space="preserve">Bucanetes githagineus</t>
   </si>
   <si>
+    <t xml:space="preserve">Wüstengimpel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spiele 1 zusätzlichen Vogel in deinem [grassland]. Du kannst 1 [seed] oder 1 [egg] der Kosten ignorieren.</t>
   </si>
   <si>
@@ -4656,6 +4895,9 @@
     <t xml:space="preserve">Linaria flavirostris</t>
   </si>
   <si>
+    <t xml:space="preserve">Berghänfling</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ziehe 2 [card] vom Stapel und füge sie zu deiner Hand hinzu. Schiebe dann 2 beliebige [card] aus deiner Hand hinter diesen Vogel.</t>
   </si>
   <si>
@@ -4665,7 +4907,29 @@
     <t xml:space="preserve">Eumyias thalassinus</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn du in diesem Zug ein [invertebrate] aus dem Vogelhäuschen erhalten hast, erhalte 1 [fruit] aus dem Vorrat.</t>
+    <t xml:space="preserve">Lazulischnäpper</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Wenn du in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> diesem Zug ein [invertebrate] aus dem Vogelhäuschen erhalten hast, erhalte 1 [fruit] aus dem Vorrat.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Violet Cuckoo</t>
@@ -4674,6 +4938,9 @@
     <t xml:space="preserve">Chrysococcyx xanthorhynchus</t>
   </si>
   <si>
+    <t xml:space="preserve">Amethystkuckuck</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wenn ein anderer Spieler die "lege Eier" Aktion durchführt, lege 1 [egg] auf einen anderen Vogel mit einer Spannweite &lt;30 cm. Du kannst bis zu 2 über sein Limit gehen.</t>
   </si>
   <si>
@@ -4683,6 +4950,9 @@
     <t xml:space="preserve">Leptopoecile sophiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Purpurhähnchen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Für jeden Vogel in deinem [forest] mit einem Ei darauf, wirf 1 [die]. Wähle 1 Art von Nahrung, die du geworfen hast, und erhalte 1 davon aus dem Vorrat.</t>
   </si>
   <si>
@@ -4692,6 +4962,9 @@
     <t xml:space="preserve">Garrulax leucolophus</t>
   </si>
   <si>
+    <t xml:space="preserve">Weißhaubenhäherling</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schiebe 1 [card] aus deiner Hand hinter diesen Vogel. Wenn du das tust, erhalte 1 [invertebrate], [seed] oder [fruit] aus dem Vogelhäuschen.</t>
   </si>
   <si>
@@ -4701,6 +4974,9 @@
     <t xml:space="preserve">Oxyura leucocephala</t>
   </si>
   <si>
+    <t xml:space="preserve">Weißkopf-Ruderente</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ziehe 3 neue Bonuskarten und behalte 1.</t>
   </si>
   <si>
@@ -4710,6 +4986,9 @@
     <t xml:space="preserve">Halcyon smyrnensis</t>
   </si>
   <si>
+    <t xml:space="preserve">Braunliest</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wähle 1 [die]. Wirf ihn bis zu 3 Mal. Jedes Mal, wenn du [invertebrate], [fish] oder [rodent] würfelst, lagere 1 hier. Andernfalls stoppe und lege alle in diesem Zug abgelegte Nahrung zurück.</t>
   </si>
   <si>
@@ -4719,6 +4998,9 @@
     <t xml:space="preserve">Poecile montanus</t>
   </si>
   <si>
+    <t xml:space="preserve">Weidenmeise</t>
+  </si>
+  <si>
     <t xml:space="preserve">Falls vorhanden, lege 1 [invertebrate], [seed] oder [fruit] aus dem Vogelhäuschen auf diesen Vogel.</t>
   </si>
   <si>
@@ -4728,6 +5010,9 @@
     <t xml:space="preserve">Ixobrychus sinensis</t>
   </si>
   <si>
+    <t xml:space="preserve">Chinadommel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ziehe die [card] im mittleren Fach der Tränke.</t>
   </si>
   <si>
@@ -4735,6 +5020,9 @@
   </si>
   <si>
     <t xml:space="preserve">Geopelia striata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sperbertäubchen</t>
   </si>
   <si>
     <t xml:space="preserve">Alle Spieler können 1 [seed] aus ihrem Vorrat abwerfen, um 1 [egg] zu legen.</t>
@@ -5433,31 +5721,461 @@
     <t xml:space="preserve">[automa] Rare Species Lister</t>
   </si>
   <si>
+    <t xml:space="preserve">Explanatory Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavity Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowl Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Cavity Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Bowl Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Ground Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Platform Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets of Eggs in 3 Habitats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food in Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Futter im eigenen Vorrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[wild] im eigenen Vorrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Anzahl der Futtermarker in deinem Vorrat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Cards in Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vogelkarten auf der Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Anzahl der Vogelkarten auf deiner Hand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth over 4 Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vögel mit Wert größer 4SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bird] mit Wert &gt;4[point]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Anzahl deiner gespielten Vögel mit einem Wert größer 4 Siegpunkten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with No Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vögel ohne Eier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Anzahl deiner gespielten Vögel, auf denen keine Eier liegen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds in 1 Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vögel in einer Reihe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bird] in einer Reihe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Anzahl der gespielten Vögel in deinem Lebensraum mit den meisten Vögeln.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filled Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">komplett gefüllte Spalten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Anzahl der Spalten auf deinem Tableau, in denen alle 3 Kartenplätze mit Vögeln belegt sind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braune Fähigkeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">braune Fähigkeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Anzahl deiner gespielten Vögel mit einer braunen Fähigkeit („Bei Aktivierung“).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White &amp; No Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weiße &amp; keine Fähigkeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Anzahl deiner gespielten Vögel mit einer weißen („Beim Ausspielen“) oder ohne Fähigkeit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with Tucked Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vögel mit Karten darunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[flocking] Vögel mit Karten darunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Anzahl deiner Vögel unter denen mindestens 1 Karte liegt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Cost of Played Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Futterkosten gespielter Vögel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zähle die Futterkosten deiner Vögel. Kannst du zwischen Futterarten wählen, zähle die Kosten nur einmal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invertebrate in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wirbellose in den Futterkosten eurer Vögel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[invertebrate] in den Futterkosten deiner Vögel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zählt die Anzahl der Futtersymbole auf euren gespielten Vögeln, die dem Futtersymbol auf dem Rundenziel entsprechen. Zähle zum Beispiel für das Rundenziel „[fruit]+[seed] in den Futterkosten deiner Vögel“ die Anzahl aller [fruit] plus der Anzahl aller [seed] in den Futterkosten der Vögel auf eurem Spielertableau. Hat ein Vogel „[fruit]/[seed]“ Futterkosten (du hast also 1 [fruit] ODER 1 [seed] bezahlt, um den Vogel zu spielen), zählt dies nur als 1 für das Rundenziel (nicht als 2). [wild] und [nectar] zählen nicht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit + Seed in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Früchte + Samen in den Futterkosten eurer Vögel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[fruit] + [seed]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> in den Futterkosten deiner Vögel</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodent + Fish in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nager + Fische in den Futterkosten eurer Vögel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[rodent] + [fish]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> in den Futterkosten deiner Vögel</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">No Goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kein Ziel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am Ende dieser Runde wird kein Rundenziel gewertet. Ihr behaltet euren Aktionswürfel. In den folgenden Runden könnt ihr also eine Aktion mehr machen als üblich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schnabel zeigt nach links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[beak-left] Schnabel zeigt nach links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Für diese Rundenziele zählen eure gespielten Vögel, deren Schnabel in die angegebene Richtung zeigt. Vögel, deren Schnabel nach vorn oder senkrecht nach oben zeigt, zählen für keines der beiden Rundenziele.&lt;br&gt;Diese Rundenziele sollen euch ermutigen, euch die Illustrationen noch genauer anzusehen. Falls ihr euch häufig nicht einigen könnt, in welche Richtung der Schnabel zeigt, entfernt dieses Zielplättchen aus dem Spiel. Auch wenn wir finden, dass man die Schnabelrichtung meist gut zuordnen kann, möchten wir folgendes klarstellen:&lt;br&gt;&lt;ul&gt;&lt;li&gt;Auch wenn der &lt;b&gt;Schiefschnabel&lt;/b&gt; nach vorn blickt, zeigt sein Schnabel zur linken Seite der Karte.&lt;/li&gt;&lt;li&gt;Die Karte des &lt;b&gt;Eistauchers&lt;/b&gt; (aus dem Grundspiel) zeigt 2 Vögel mit Blick in jeweils eine Richtung. Sie zählt daher für beide Ziele.&lt;/li&gt;&lt;li&gt;Die Karte des &lt;b&gt;Haubentauchers&lt;/b&gt; (aus der Europa-Erweiterung) zeigt 2 Vögel mit Blick in dieselbe Richtung. Sie zählt als 1 Vogel mit Blickrichtung links.&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;Die Schnäbel der folgenden Vögel zeigen weder nach rechts noch nach links.&lt;br&gt;&lt;b&gt;Grundspiel&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Fleckenkauz&lt;/li&gt;&lt;li&gt;Kalifornischer Kondor&lt;/li&gt;&lt;li&gt;Kaninchenkauz&lt;/li&gt;&lt;li&gt;Ohrenlerche&lt;/li&gt;&lt;li&gt;Ostkreischeule&lt;/li&gt;&lt;li&gt;Schleiereule&lt;/li&gt;&lt;li&gt;Streifenkauz&lt;/li&gt;&lt;li&gt;Virginiauhu&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Europa-Erweiterung&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Gartenbaumläufer&lt;/li&gt;&lt;li&gt;Schneeeule&lt;/li&gt;&lt;li&gt;Steinkauz&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Ozeanien-Erweiterung&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Baumschwalm&lt;/li&gt;&lt;li&gt;Kakapo&lt;/li&gt;&lt;li&gt;Rostkauz&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Asien-Erweiterung&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Bartmeise&lt;/li&gt;&lt;li&gt;Blewittkauz&lt;/li&gt;&lt;li&gt;Ceylonschwalm&lt;/li&gt;&lt;li&gt;Löffelstrandläufer&lt;/li&gt;&lt;li&gt;Maskeneule&lt;/li&gt;&lt;li&gt;Uhu&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schnabel zeigt nach rechts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[beak-left] Schnabel zeigt nach rechts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cubes on "Play a Bird"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktionswürfel auf „Vogel spielen“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[cube] Aktionswürfel auf „Vogel spielen“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zählt die Anzahl der Aktionswürfel, die ihr in dieser Runde auf „Vogel spielen“ gelegt habt. Beachtet: Für die Wertung dieses Rundenziels ist es wichtig, dass ihr die Aktionswürfel bis nach der Wertung in der gespielten Reihe liegen lasst!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth Less than or Equal to 3 Points</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[bird] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">mit Wert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ≤3[point]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairs of Matching Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auf Paaren mit gleichen Symbolen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zähle, wie viele deiner Duellmarker Teil eines Paares (= 2 Marker deiner Farbe) mit dem gleichen Symbol auf einem Feld sind. Jeder Duellmarker zählt nur einmal. Die Symbole müssen genau übereinstimmen wie z. B. 2 Nager oder 2x 50+ cm Spannweite. Boni auf den Feldern müssen nicht übereinstimmen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nest Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auf Nestsymbolen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] auf [bowl][cavity][ground][platform]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zähle alle deine Duellmarker auf Feldern mit einem beliebigen Nestsymbol ([bowl] [cavity] [ground] [platform]). Auch mehrere Symbole der gleichen Art zählen (z. B. zählen bei 2 Markern auf unterschiedlichen [platform]-Feldern beide).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auf Futtersymbolen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] auf [fish][fruit][rodent][seed][invertebrate]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zähle alle deine Duellmarker auf Feldern mit einem beliebigen Futtersymbol ([fruit] [seed] [invertebrate] [rodent] [fish]). Auch mehrere Symbole der gleichen Art zählen (z. B. zählen bei 2 Markern auf unterschiedlichen [fish]-Feldern beide).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not on Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicht am Rand der Karte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] nicht am Rand der Karte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeder Rand der Karte hat 6 Felder: Die Seiten haben je 3 eingerückte Felder, die auch als am Rand der Karte zählen. Es gibt also 20 Randfelder und 16 innere Felder. Für diese Ziele zählst du, wie viele deiner Duellmarker am Rand der Karte auf inneren Feldern bzw. Randfeldern liegen.&lt;i&gt; (Beachte: Die Symbole der Lebensräume zählen nicht als Felder.)&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">am Rand der Karte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] am Rand der Karte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokens in Any One Horizontal Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in 1 beliebigen horizontalen Reihe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] in 1 beliebigen horizontalen Reihe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bestimme die horizontale Reihe der Karte, die für dich am besten ist und zähle die Anzahl deiner Duellmarker in dieser Reihe. Die Duellmarker müssen keine zusammenhängende Gruppe bilden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal Rows with at Least One of Your Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontale Reihen mit mind. 1 deiner Duellmarker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zähle, in wie vielen der 6 horizontalen Reihen mindestens 1 deiner Duellmarker liegt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fewest Tokens on Bonus Spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenigste Duellmarker auf Bonusfeldern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wenigste [duet-token] auf Bonusfeldern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonusfelder sind Felder, durch die ihr [dice]/[egg]/[card] erhaltet, wenn ihr einen Duellmarker darauf legt. Zähle wie viele deiner Duellmarker auf diesen 9 Feldern liegen. Die Punkte für dieses Rundenziel erhält, wer weniger Duellmarker auf Bonusfeldern hat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im Wald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] im [forest]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zähle die Anzahl deiner Duellmarker im Bereich des entsprechenden Lebensraums auf der Duellkarte. Diese Zahl kann von der Zahl der Vögel auf deinem Tableau abweichen, falls sich Vögel während des Spiels bewegt haben (durch eine Fähigkeit).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im Grasland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] im [grassland]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im Wasser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] im [wetland]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Duet Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auf der Karte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] auf der Karte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zähle die Anzahl deiner Duellmarker auf der Karte. Diese Zahl kann von der Zahl der Vögel auf deinem Tableau abweichen, falls sich Vögel während des Spiels bewegt haben (durch eine Fähigkeit).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Translated</t>
   </si>
   <si>
     <t xml:space="preserve">WHEN ACTIVATED</t>
   </si>
   <si>
-    <t xml:space="preserve">Bei Aktivierung </t>
+    <t xml:space="preserve">Bei Aktivierung</t>
   </si>
   <si>
     <t xml:space="preserve">WHEN PLAYED</t>
   </si>
   <si>
-    <t xml:space="preserve">Beim Ausspeieln </t>
+    <t xml:space="preserve">Beim Ausspielen</t>
   </si>
   <si>
     <t xml:space="preserve">ONCE BETWEEN TURNS</t>
   </si>
   <si>
-    <t xml:space="preserve">1x zwischen deinen Zügen </t>
+    <t xml:space="preserve">1x zwischen deinen Zügen</t>
   </si>
   <si>
     <t xml:space="preserve">ROUND END</t>
   </si>
   <si>
-    <t xml:space="preserve">Am Rundenende </t>
+    <t xml:space="preserve">Am Rundenende</t>
   </si>
   <si>
     <t xml:space="preserve">GAME END</t>
@@ -5489,7 +6207,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5542,10 +6260,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <sz val="10"/>
+      <color rgb="FF4D4946"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -5560,6 +6278,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="238"/>
     </font>
     <font>
@@ -5567,6 +6292,25 @@
       <name val="FuturaPT-Light"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF49423E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5622,7 +6366,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5647,35 +6391,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5691,7 +6459,7 @@
     <cellStyle name="Wynik2" xfId="21"/>
     <cellStyle name="Excel Built-in Normal" xfId="22"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5707,7 +6475,83 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF49423E"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4D4946"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF4D4946"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF49423E"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -5715,21 +6559,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:K447" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:K447"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1"/>
+  <tableColumns count="1">
     <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="English name"/>
-    <tableColumn id="3" name="Scientific name"/>
-    <tableColumn id="4" name="Expansion"/>
-    <tableColumn id="5" name="Common name"/>
-    <tableColumn id="6" name="Power text"/>
-    <tableColumn id="7" name="Note"/>
-    <tableColumn id="8" name="Anatomist"/>
-    <tableColumn id="9" name="Cartographer"/>
-    <tableColumn id="10" name="Historian"/>
-    <tableColumn id="11" name="Photographer"/>
   </tableColumns>
 </table>
 </file>
@@ -5939,10 +6777,12 @@
   </sheetPr>
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E190" activeCellId="0" sqref="E190"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14044,9 +14884,11 @@
       <c r="D358" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E358" s="5"/>
-      <c r="F358" s="6" t="s">
+      <c r="E358" s="6" t="s">
         <v>1304</v>
+      </c>
+      <c r="F358" s="7" t="s">
+        <v>1305</v>
       </c>
       <c r="G358" s="5"/>
       <c r="H358" s="5"/>
@@ -14063,17 +14905,19 @@
         <v>359</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D359" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E359" s="5"/>
-      <c r="F359" s="6" t="s">
-        <v>1307</v>
+      <c r="E359" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F359" s="7" t="s">
+        <v>1309</v>
       </c>
       <c r="G359" s="5"/>
       <c r="H359" s="5"/>
@@ -14088,17 +14932,19 @@
         <v>360</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E360" s="5"/>
-      <c r="F360" s="6" t="s">
-        <v>1310</v>
+      <c r="E360" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F360" s="7" t="s">
+        <v>1313</v>
       </c>
       <c r="G360" s="5"/>
       <c r="H360" s="5"/>
@@ -14113,17 +14959,19 @@
         <v>361</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E361" s="5"/>
-      <c r="F361" s="6" t="s">
-        <v>1313</v>
+      <c r="E361" s="6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F361" s="7" t="s">
+        <v>1317</v>
       </c>
       <c r="G361" s="5"/>
       <c r="H361" s="5"/>
@@ -14136,17 +14984,19 @@
         <v>362</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E362" s="5"/>
-      <c r="F362" s="6" t="s">
-        <v>1316</v>
+      <c r="E362" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F362" s="7" t="s">
+        <v>1321</v>
       </c>
       <c r="G362" s="5"/>
       <c r="H362" s="5"/>
@@ -14159,17 +15009,19 @@
         <v>363</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>1318</v>
+        <v>1323</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E363" s="5"/>
-      <c r="F363" s="6" t="s">
-        <v>1319</v>
+      <c r="E363" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F363" s="7" t="s">
+        <v>1325</v>
       </c>
       <c r="G363" s="5"/>
       <c r="H363" s="5"/>
@@ -14184,17 +15036,19 @@
         <v>364</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E364" s="5"/>
-      <c r="F364" s="6" t="s">
-        <v>1322</v>
+      <c r="E364" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F364" s="7" t="s">
+        <v>1329</v>
       </c>
       <c r="G364" s="5"/>
       <c r="H364" s="5"/>
@@ -14209,17 +15063,19 @@
         <v>365</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1323</v>
+        <v>1330</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>1324</v>
+        <v>1331</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E365" s="5"/>
-      <c r="F365" s="6" t="s">
-        <v>1325</v>
+      <c r="E365" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F365" s="7" t="s">
+        <v>1333</v>
       </c>
       <c r="G365" s="5"/>
       <c r="H365" s="5" t="s">
@@ -14236,17 +15092,19 @@
         <v>366</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1326</v>
+        <v>1334</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>1327</v>
+        <v>1335</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E366" s="5"/>
-      <c r="F366" s="6" t="s">
-        <v>1328</v>
+      <c r="E366" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F366" s="7" t="s">
+        <v>1337</v>
       </c>
       <c r="G366" s="5"/>
       <c r="H366" s="5"/>
@@ -14261,17 +15119,19 @@
         <v>367</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>1330</v>
+        <v>1339</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E367" s="5"/>
-      <c r="F367" s="6" t="s">
-        <v>1331</v>
+      <c r="E367" s="6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F367" s="7" t="s">
+        <v>1341</v>
       </c>
       <c r="G367" s="5"/>
       <c r="H367" s="5"/>
@@ -14284,17 +15144,19 @@
         <v>368</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>1332</v>
+        <v>1342</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>1333</v>
+        <v>1343</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E368" s="5"/>
-      <c r="F368" s="6" t="s">
-        <v>1334</v>
+      <c r="E368" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F368" s="7" t="s">
+        <v>1345</v>
       </c>
       <c r="G368" s="5"/>
       <c r="H368" s="5"/>
@@ -14307,17 +15169,19 @@
         <v>369</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E369" s="5"/>
-      <c r="F369" s="6" t="s">
-        <v>1337</v>
+      <c r="E369" s="6" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F369" s="7" t="s">
+        <v>1349</v>
       </c>
       <c r="G369" s="5"/>
       <c r="H369" s="5"/>
@@ -14332,17 +15196,19 @@
         <v>370</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1338</v>
+        <v>1350</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E370" s="5"/>
-      <c r="F370" s="6" t="s">
-        <v>1340</v>
+      <c r="E370" s="6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F370" s="7" t="s">
+        <v>1353</v>
       </c>
       <c r="G370" s="5"/>
       <c r="H370" s="5"/>
@@ -14357,17 +15223,19 @@
         <v>371</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>1341</v>
+        <v>1354</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>1342</v>
+        <v>1355</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E371" s="5"/>
-      <c r="F371" s="6" t="s">
-        <v>1343</v>
+      <c r="E371" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F371" s="7" t="s">
+        <v>1357</v>
       </c>
       <c r="G371" s="5"/>
       <c r="H371" s="5"/>
@@ -14380,17 +15248,19 @@
         <v>372</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1344</v>
+        <v>1358</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>1345</v>
+        <v>1359</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E372" s="5"/>
-      <c r="F372" s="6" t="s">
-        <v>1346</v>
+      <c r="E372" s="6" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F372" s="7" t="s">
+        <v>1361</v>
       </c>
       <c r="G372" s="5"/>
       <c r="H372" s="5"/>
@@ -14403,17 +15273,19 @@
         <v>373</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>1347</v>
+        <v>1362</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>1348</v>
+        <v>1363</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E373" s="5"/>
-      <c r="F373" s="6" t="s">
-        <v>1349</v>
+      <c r="E373" s="6" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F373" s="7" t="s">
+        <v>1365</v>
       </c>
       <c r="G373" s="5"/>
       <c r="H373" s="5"/>
@@ -14426,17 +15298,19 @@
         <v>374</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>1350</v>
+        <v>1366</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>1351</v>
+        <v>1367</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E374" s="5"/>
-      <c r="F374" s="6" t="s">
-        <v>1352</v>
+      <c r="E374" s="6" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F374" s="7" t="s">
+        <v>1369</v>
       </c>
       <c r="G374" s="5"/>
       <c r="H374" s="5"/>
@@ -14449,17 +15323,19 @@
         <v>375</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>1353</v>
+        <v>1370</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>1354</v>
+        <v>1371</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E375" s="5"/>
-      <c r="F375" s="6" t="s">
-        <v>1355</v>
+      <c r="E375" s="6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F375" s="7" t="s">
+        <v>1373</v>
       </c>
       <c r="G375" s="5"/>
       <c r="H375" s="5"/>
@@ -14474,16 +15350,18 @@
         <v>376</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1356</v>
+        <v>1374</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>1357</v>
+        <v>1375</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E376" s="5"/>
-      <c r="F376" s="6" t="s">
+      <c r="E376" s="6" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F376" s="7" t="s">
         <v>573</v>
       </c>
       <c r="G376" s="5"/>
@@ -14497,17 +15375,19 @@
         <v>377</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>1358</v>
+        <v>1377</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>1359</v>
+        <v>1378</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E377" s="5"/>
-      <c r="F377" s="6" t="s">
-        <v>1360</v>
+      <c r="E377" s="6" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F377" s="7" t="s">
+        <v>1380</v>
       </c>
       <c r="G377" s="5"/>
       <c r="H377" s="5" t="s">
@@ -14522,17 +15402,19 @@
         <v>378</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>1362</v>
+        <v>1382</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E378" s="5"/>
-      <c r="F378" s="6" t="s">
-        <v>1363</v>
+      <c r="E378" s="6" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F378" s="7" t="s">
+        <v>1384</v>
       </c>
       <c r="G378" s="5"/>
       <c r="H378" s="5" t="s">
@@ -14547,17 +15429,19 @@
         <v>379</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>1364</v>
+        <v>1385</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>1365</v>
+        <v>1386</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E379" s="5"/>
-      <c r="F379" s="6" t="s">
-        <v>1366</v>
+      <c r="E379" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F379" s="7" t="s">
+        <v>1388</v>
       </c>
       <c r="G379" s="5"/>
       <c r="H379" s="5"/>
@@ -14572,17 +15456,19 @@
         <v>380</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>1367</v>
+        <v>1389</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>1368</v>
+        <v>1390</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E380" s="5"/>
-      <c r="F380" s="6" t="s">
-        <v>1369</v>
+      <c r="E380" s="6" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F380" s="7" t="s">
+        <v>1392</v>
       </c>
       <c r="G380" s="5"/>
       <c r="H380" s="5"/>
@@ -14597,17 +15483,19 @@
         <v>381</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>1370</v>
+        <v>1393</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>1371</v>
+        <v>1394</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E381" s="5"/>
-      <c r="F381" s="6" t="s">
-        <v>1372</v>
+      <c r="E381" s="6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F381" s="7" t="s">
+        <v>1396</v>
       </c>
       <c r="G381" s="5"/>
       <c r="H381" s="5"/>
@@ -14622,17 +15510,19 @@
         <v>382</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>1373</v>
+        <v>1397</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>1374</v>
+        <v>1398</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E382" s="5"/>
-      <c r="F382" s="6" t="s">
-        <v>1375</v>
+      <c r="E382" s="6" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F382" s="7" t="s">
+        <v>1400</v>
       </c>
       <c r="G382" s="5"/>
       <c r="H382" s="5"/>
@@ -14647,17 +15537,19 @@
         <v>383</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>1376</v>
+        <v>1401</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>1377</v>
+        <v>1402</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E383" s="5"/>
-      <c r="F383" s="6" t="s">
-        <v>1378</v>
+      <c r="E383" s="6" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F383" s="7" t="s">
+        <v>1404</v>
       </c>
       <c r="G383" s="5"/>
       <c r="H383" s="5"/>
@@ -14672,17 +15564,19 @@
         <v>384</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1379</v>
+        <v>1405</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>1380</v>
+        <v>1406</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E384" s="5"/>
-      <c r="F384" s="6" t="s">
-        <v>1381</v>
+      <c r="E384" s="6" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F384" s="7" t="s">
+        <v>1408</v>
       </c>
       <c r="G384" s="5"/>
       <c r="H384" s="5"/>
@@ -14697,17 +15591,19 @@
         <v>385</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>1382</v>
+        <v>1409</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>1383</v>
+        <v>1410</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E385" s="5"/>
-      <c r="F385" s="6" t="s">
-        <v>1375</v>
+      <c r="E385" s="6" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F385" s="7" t="s">
+        <v>1400</v>
       </c>
       <c r="G385" s="5"/>
       <c r="H385" s="5"/>
@@ -14722,17 +15618,19 @@
         <v>386</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>1384</v>
+        <v>1412</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>1385</v>
+        <v>1413</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E386" s="5"/>
-      <c r="F386" s="6" t="s">
-        <v>1386</v>
+      <c r="E386" s="6" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F386" s="7" t="s">
+        <v>1415</v>
       </c>
       <c r="G386" s="5"/>
       <c r="H386" s="5"/>
@@ -14747,17 +15645,19 @@
         <v>387</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1387</v>
+        <v>1416</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>1388</v>
+        <v>1417</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E387" s="5"/>
-      <c r="F387" s="6" t="s">
-        <v>1389</v>
+      <c r="E387" s="6" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F387" s="7" t="s">
+        <v>1419</v>
       </c>
       <c r="G387" s="5"/>
       <c r="H387" s="5"/>
@@ -14772,17 +15672,19 @@
         <v>388</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>1390</v>
+        <v>1420</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>1391</v>
+        <v>1421</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E388" s="5"/>
-      <c r="F388" s="6" t="s">
-        <v>1392</v>
+      <c r="E388" s="6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F388" s="7" t="s">
+        <v>1423</v>
       </c>
       <c r="G388" s="5"/>
       <c r="H388" s="5"/>
@@ -14797,17 +15699,19 @@
         <v>389</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1393</v>
+        <v>1424</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>1394</v>
+        <v>1425</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E389" s="5"/>
-      <c r="F389" s="6" t="s">
-        <v>1395</v>
+      <c r="E389" s="6" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F389" s="7" t="s">
+        <v>1427</v>
       </c>
       <c r="G389" s="5"/>
       <c r="H389" s="5"/>
@@ -14822,17 +15726,19 @@
         <v>390</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1396</v>
+        <v>1428</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>1397</v>
+        <v>1429</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E390" s="5"/>
-      <c r="F390" s="6" t="s">
-        <v>1398</v>
+      <c r="E390" s="6" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F390" s="7" t="s">
+        <v>1431</v>
       </c>
       <c r="G390" s="5"/>
       <c r="H390" s="5"/>
@@ -14845,17 +15751,19 @@
         <v>391</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>1399</v>
+        <v>1432</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>1400</v>
+        <v>1433</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E391" s="5"/>
-      <c r="F391" s="6" t="s">
-        <v>1401</v>
+      <c r="E391" s="6" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F391" s="7" t="s">
+        <v>1434</v>
       </c>
       <c r="G391" s="5"/>
       <c r="H391" s="5"/>
@@ -14868,17 +15776,19 @@
         <v>392</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1402</v>
+        <v>1435</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>1403</v>
+        <v>1436</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E392" s="5"/>
-      <c r="F392" s="6" t="s">
-        <v>1404</v>
+      <c r="E392" s="6" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F392" s="7" t="s">
+        <v>1438</v>
       </c>
       <c r="G392" s="5"/>
       <c r="H392" s="5" t="s">
@@ -14895,17 +15805,19 @@
         <v>393</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1405</v>
+        <v>1439</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>1406</v>
+        <v>1440</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E393" s="5"/>
-      <c r="F393" s="6" t="s">
-        <v>1407</v>
+      <c r="E393" s="6" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F393" s="7" t="s">
+        <v>1442</v>
       </c>
       <c r="G393" s="5"/>
       <c r="H393" s="5"/>
@@ -14918,17 +15830,19 @@
         <v>394</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1408</v>
+        <v>1443</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>1409</v>
+        <v>1444</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E394" s="5"/>
-      <c r="F394" s="6" t="s">
-        <v>1410</v>
+      <c r="E394" s="6" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F394" s="7" t="s">
+        <v>1446</v>
       </c>
       <c r="G394" s="5"/>
       <c r="H394" s="5" t="s">
@@ -14943,17 +15857,19 @@
         <v>395</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>1411</v>
+        <v>1447</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>1412</v>
+        <v>1448</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E395" s="5"/>
-      <c r="F395" s="6" t="s">
-        <v>1413</v>
+      <c r="E395" s="6" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F395" s="7" t="s">
+        <v>1450</v>
       </c>
       <c r="G395" s="5"/>
       <c r="H395" s="5"/>
@@ -14968,17 +15884,19 @@
         <v>396</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>1414</v>
+        <v>1451</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>1415</v>
+        <v>1452</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E396" s="5"/>
-      <c r="F396" s="6" t="s">
-        <v>1416</v>
+      <c r="E396" s="6" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F396" s="7" t="s">
+        <v>1454</v>
       </c>
       <c r="G396" s="5"/>
       <c r="H396" s="5"/>
@@ -14991,17 +15909,19 @@
         <v>397</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1417</v>
+        <v>1455</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>1418</v>
+        <v>1456</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E397" s="5"/>
-      <c r="F397" s="6" t="s">
-        <v>1419</v>
+      <c r="E397" s="6" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F397" s="7" t="s">
+        <v>1458</v>
       </c>
       <c r="G397" s="5"/>
       <c r="H397" s="5"/>
@@ -15014,17 +15934,19 @@
         <v>398</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>1420</v>
+        <v>1459</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>1421</v>
+        <v>1460</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E398" s="5"/>
-      <c r="F398" s="6" t="s">
-        <v>1422</v>
+      <c r="E398" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F398" s="7" t="s">
+        <v>1462</v>
       </c>
       <c r="G398" s="5"/>
       <c r="H398" s="5"/>
@@ -15039,17 +15961,19 @@
         <v>399</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>1423</v>
+        <v>1463</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>1424</v>
+        <v>1464</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E399" s="5"/>
-      <c r="F399" s="6" t="s">
-        <v>1425</v>
+      <c r="E399" s="6" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F399" s="7" t="s">
+        <v>1466</v>
       </c>
       <c r="G399" s="5"/>
       <c r="H399" s="5"/>
@@ -15064,17 +15988,19 @@
         <v>400</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>1426</v>
+        <v>1467</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>1427</v>
+        <v>1468</v>
       </c>
       <c r="D400" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E400" s="5"/>
-      <c r="F400" s="6" t="s">
-        <v>1428</v>
+      <c r="E400" s="6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F400" s="7" t="s">
+        <v>1470</v>
       </c>
       <c r="G400" s="5"/>
       <c r="H400" s="5"/>
@@ -15089,17 +16015,19 @@
         <v>401</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1429</v>
+        <v>1471</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>1430</v>
+        <v>1472</v>
       </c>
       <c r="D401" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E401" s="5"/>
-      <c r="F401" s="6" t="s">
-        <v>1431</v>
+      <c r="E401" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F401" s="7" t="s">
+        <v>1474</v>
       </c>
       <c r="G401" s="5"/>
       <c r="H401" s="5"/>
@@ -15112,17 +16040,19 @@
         <v>402</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>1432</v>
+        <v>1475</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>1433</v>
+        <v>1476</v>
       </c>
       <c r="D402" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E402" s="5"/>
-      <c r="F402" s="6" t="s">
-        <v>1434</v>
+      <c r="E402" s="6" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F402" s="7" t="s">
+        <v>1478</v>
       </c>
       <c r="G402" s="5"/>
       <c r="H402" s="5" t="s">
@@ -15137,17 +16067,19 @@
         <v>403</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1435</v>
+        <v>1479</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>1436</v>
+        <v>1480</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E403" s="5"/>
-      <c r="F403" s="6" t="s">
-        <v>1437</v>
+      <c r="E403" s="6" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F403" s="7" t="s">
+        <v>1482</v>
       </c>
       <c r="G403" s="5"/>
       <c r="H403" s="5"/>
@@ -15162,17 +16094,19 @@
         <v>404</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1438</v>
+        <v>1483</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>1439</v>
+        <v>1484</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E404" s="5"/>
-      <c r="F404" s="6" t="s">
-        <v>1440</v>
+      <c r="E404" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F404" s="7" t="s">
+        <v>1486</v>
       </c>
       <c r="G404" s="5"/>
       <c r="H404" s="5"/>
@@ -15187,17 +16121,19 @@
         <v>405</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1441</v>
+        <v>1487</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>1442</v>
+        <v>1488</v>
       </c>
       <c r="D405" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E405" s="5"/>
-      <c r="F405" s="6" t="s">
-        <v>1443</v>
+      <c r="E405" s="6" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F405" s="7" t="s">
+        <v>1490</v>
       </c>
       <c r="G405" s="5"/>
       <c r="H405" s="5" t="s">
@@ -15212,17 +16148,19 @@
         <v>406</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>1444</v>
+        <v>1491</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>1445</v>
+        <v>1492</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E406" s="5"/>
-      <c r="F406" s="6" t="s">
-        <v>1446</v>
+      <c r="E406" s="6" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F406" s="7" t="s">
+        <v>1494</v>
       </c>
       <c r="G406" s="5"/>
       <c r="H406" s="5"/>
@@ -15235,17 +16173,19 @@
         <v>407</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1447</v>
+        <v>1495</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>1448</v>
+        <v>1496</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E407" s="5"/>
-      <c r="F407" s="6" t="s">
-        <v>1449</v>
+      <c r="E407" s="6" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F407" s="7" t="s">
+        <v>1498</v>
       </c>
       <c r="G407" s="5"/>
       <c r="H407" s="5"/>
@@ -15258,17 +16198,19 @@
         <v>408</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1450</v>
+        <v>1499</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>1451</v>
+        <v>1500</v>
       </c>
       <c r="D408" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E408" s="5"/>
-      <c r="F408" s="6" t="s">
-        <v>1452</v>
+      <c r="E408" s="6" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F408" s="7" t="s">
+        <v>1502</v>
       </c>
       <c r="G408" s="5"/>
       <c r="H408" s="5"/>
@@ -15281,17 +16223,19 @@
         <v>409</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1453</v>
+        <v>1503</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>1454</v>
+        <v>1504</v>
       </c>
       <c r="D409" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E409" s="5"/>
-      <c r="F409" s="6" t="s">
-        <v>1455</v>
+      <c r="E409" s="6" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F409" s="7" t="s">
+        <v>1506</v>
       </c>
       <c r="G409" s="5"/>
       <c r="H409" s="5"/>
@@ -15304,17 +16248,19 @@
         <v>410</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>1456</v>
+        <v>1507</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>1457</v>
+        <v>1508</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E410" s="5"/>
-      <c r="F410" s="6" t="s">
-        <v>1458</v>
+      <c r="E410" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F410" s="7" t="s">
+        <v>1510</v>
       </c>
       <c r="G410" s="5"/>
       <c r="H410" s="5" t="s">
@@ -15331,17 +16277,19 @@
         <v>411</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1459</v>
+        <v>1511</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>1460</v>
+        <v>1512</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E411" s="5"/>
-      <c r="F411" s="6" t="s">
-        <v>1461</v>
+      <c r="E411" s="6" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F411" s="7" t="s">
+        <v>1514</v>
       </c>
       <c r="G411" s="5"/>
       <c r="H411" s="5"/>
@@ -15356,17 +16304,19 @@
         <v>412</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1462</v>
+        <v>1515</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>1463</v>
+        <v>1516</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E412" s="5"/>
-      <c r="F412" s="6" t="s">
-        <v>1464</v>
+      <c r="E412" s="6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F412" s="7" t="s">
+        <v>1518</v>
       </c>
       <c r="G412" s="5"/>
       <c r="H412" s="5"/>
@@ -15381,17 +16331,19 @@
         <v>413</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>1465</v>
+        <v>1519</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>1466</v>
+        <v>1520</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E413" s="5"/>
-      <c r="F413" s="6" t="s">
-        <v>1467</v>
+      <c r="E413" s="6" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F413" s="7" t="s">
+        <v>1522</v>
       </c>
       <c r="G413" s="5"/>
       <c r="H413" s="5"/>
@@ -15406,17 +16358,19 @@
         <v>414</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>1468</v>
+        <v>1523</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>1469</v>
+        <v>1524</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E414" s="5"/>
-      <c r="F414" s="6" t="s">
-        <v>1470</v>
+      <c r="E414" s="6" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F414" s="7" t="s">
+        <v>1526</v>
       </c>
       <c r="G414" s="5"/>
       <c r="H414" s="5"/>
@@ -15431,17 +16385,19 @@
         <v>415</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>1471</v>
+        <v>1527</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>1472</v>
+        <v>1528</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E415" s="5"/>
-      <c r="F415" s="6" t="s">
-        <v>1473</v>
+      <c r="E415" s="6" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F415" s="7" t="s">
+        <v>1530</v>
       </c>
       <c r="G415" s="5"/>
       <c r="H415" s="5"/>
@@ -15456,17 +16412,19 @@
         <v>416</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>1474</v>
+        <v>1531</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>1475</v>
+        <v>1532</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E416" s="5"/>
-      <c r="F416" s="6" t="s">
-        <v>1476</v>
+      <c r="E416" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F416" s="7" t="s">
+        <v>1534</v>
       </c>
       <c r="G416" s="5"/>
       <c r="H416" s="5"/>
@@ -15481,17 +16439,19 @@
         <v>417</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>1477</v>
+        <v>1535</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>1478</v>
+        <v>1536</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E417" s="5"/>
-      <c r="F417" s="6" t="s">
-        <v>1479</v>
+      <c r="E417" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F417" s="7" t="s">
+        <v>1538</v>
       </c>
       <c r="G417" s="5"/>
       <c r="H417" s="5"/>
@@ -15508,17 +16468,19 @@
         <v>418</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>1480</v>
+        <v>1539</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>1481</v>
+        <v>1540</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E418" s="5"/>
-      <c r="F418" s="6" t="s">
-        <v>1482</v>
+      <c r="E418" s="6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F418" s="7" t="s">
+        <v>1542</v>
       </c>
       <c r="G418" s="5"/>
       <c r="H418" s="5" t="s">
@@ -15535,17 +16497,19 @@
         <v>419</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>1483</v>
+        <v>1543</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>1484</v>
+        <v>1544</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E419" s="5"/>
-      <c r="F419" s="6" t="s">
-        <v>1485</v>
+      <c r="E419" s="6" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F419" s="7" t="s">
+        <v>1546</v>
       </c>
       <c r="G419" s="5"/>
       <c r="H419" s="5" t="s">
@@ -15562,17 +16526,19 @@
         <v>420</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>1486</v>
+        <v>1547</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>1487</v>
+        <v>1548</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E420" s="5"/>
-      <c r="F420" s="6" t="s">
-        <v>1488</v>
+      <c r="E420" s="6" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F420" s="7" t="s">
+        <v>1550</v>
       </c>
       <c r="G420" s="5"/>
       <c r="H420" s="5" t="s">
@@ -15589,17 +16555,19 @@
         <v>421</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>1489</v>
+        <v>1551</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>1490</v>
+        <v>1552</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E421" s="5"/>
-      <c r="F421" s="6" t="s">
-        <v>1491</v>
+      <c r="E421" s="6" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F421" s="7" t="s">
+        <v>1554</v>
       </c>
       <c r="G421" s="5"/>
       <c r="H421" s="5"/>
@@ -15612,17 +16580,19 @@
         <v>422</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>1492</v>
+        <v>1555</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>1493</v>
+        <v>1556</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E422" s="5"/>
-      <c r="F422" s="6" t="s">
-        <v>1494</v>
+      <c r="E422" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F422" s="7" t="s">
+        <v>1558</v>
       </c>
       <c r="G422" s="5"/>
       <c r="H422" s="5"/>
@@ -15635,17 +16605,19 @@
         <v>423</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>1495</v>
+        <v>1559</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>1496</v>
+        <v>1560</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E423" s="5"/>
-      <c r="F423" s="6" t="s">
-        <v>1497</v>
+      <c r="E423" s="6" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F423" s="7" t="s">
+        <v>1562</v>
       </c>
       <c r="G423" s="5"/>
       <c r="H423" s="5"/>
@@ -15658,17 +16630,19 @@
         <v>424</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>1498</v>
+        <v>1563</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>1499</v>
+        <v>1564</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E424" s="5"/>
-      <c r="F424" s="6" t="s">
-        <v>1500</v>
+      <c r="E424" s="6" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F424" s="7" t="s">
+        <v>1566</v>
       </c>
       <c r="G424" s="5"/>
       <c r="H424" s="5"/>
@@ -15683,17 +16657,19 @@
         <v>425</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>1501</v>
+        <v>1567</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>1502</v>
+        <v>1568</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E425" s="5"/>
-      <c r="F425" s="6" t="s">
-        <v>1503</v>
+      <c r="E425" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F425" s="7" t="s">
+        <v>1570</v>
       </c>
       <c r="G425" s="5"/>
       <c r="H425" s="5"/>
@@ -15708,17 +16684,19 @@
         <v>426</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>1504</v>
+        <v>1571</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>1505</v>
+        <v>1572</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E426" s="5"/>
-      <c r="F426" s="6" t="s">
-        <v>1506</v>
+      <c r="E426" s="6" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F426" s="7" t="s">
+        <v>1574</v>
       </c>
       <c r="G426" s="5"/>
       <c r="H426" s="5"/>
@@ -15733,17 +16711,19 @@
         <v>427</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>1507</v>
+        <v>1575</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>1508</v>
+        <v>1576</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E427" s="5"/>
-      <c r="F427" s="6" t="s">
-        <v>1509</v>
+      <c r="E427" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F427" s="7" t="s">
+        <v>1578</v>
       </c>
       <c r="G427" s="5"/>
       <c r="H427" s="5"/>
@@ -15756,17 +16736,19 @@
         <v>428</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>1510</v>
+        <v>1579</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>1511</v>
+        <v>1580</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E428" s="5"/>
-      <c r="F428" s="6" t="s">
-        <v>1512</v>
+      <c r="E428" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F428" s="7" t="s">
+        <v>1582</v>
       </c>
       <c r="G428" s="5"/>
       <c r="H428" s="5"/>
@@ -15779,17 +16761,19 @@
         <v>429</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>1513</v>
+        <v>1583</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>1514</v>
+        <v>1584</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E429" s="5"/>
-      <c r="F429" s="6" t="s">
-        <v>1515</v>
+      <c r="E429" s="6" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F429" s="7" t="s">
+        <v>1586</v>
       </c>
       <c r="G429" s="5"/>
       <c r="H429" s="5" t="s">
@@ -15804,17 +16788,19 @@
         <v>430</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>1516</v>
+        <v>1587</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>1517</v>
+        <v>1588</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E430" s="5"/>
-      <c r="F430" s="6" t="s">
-        <v>1518</v>
+      <c r="E430" s="6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F430" s="7" t="s">
+        <v>1590</v>
       </c>
       <c r="G430" s="5"/>
       <c r="H430" s="5"/>
@@ -15827,17 +16813,19 @@
         <v>431</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>1519</v>
+        <v>1591</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>1520</v>
+        <v>1592</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E431" s="5"/>
-      <c r="F431" s="6" t="s">
-        <v>1521</v>
+      <c r="E431" s="6" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F431" s="7" t="s">
+        <v>1594</v>
       </c>
       <c r="G431" s="5"/>
       <c r="H431" s="5"/>
@@ -15850,17 +16838,19 @@
         <v>432</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>1522</v>
+        <v>1595</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>1523</v>
+        <v>1596</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E432" s="5"/>
-      <c r="F432" s="6" t="s">
-        <v>1524</v>
+      <c r="E432" s="6" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F432" s="7" t="s">
+        <v>1598</v>
       </c>
       <c r="G432" s="5"/>
       <c r="H432" s="5" t="s">
@@ -15875,17 +16865,19 @@
         <v>433</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>1525</v>
+        <v>1599</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>1526</v>
+        <v>1600</v>
       </c>
       <c r="D433" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E433" s="5"/>
-      <c r="F433" s="6" t="s">
-        <v>1527</v>
+      <c r="E433" s="6" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F433" s="7" t="s">
+        <v>1602</v>
       </c>
       <c r="G433" s="5"/>
       <c r="H433" s="5"/>
@@ -15898,17 +16890,19 @@
         <v>434</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1528</v>
+        <v>1603</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>1529</v>
+        <v>1604</v>
       </c>
       <c r="D434" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E434" s="5"/>
-      <c r="F434" s="6" t="s">
-        <v>1530</v>
+      <c r="E434" s="6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F434" s="7" t="s">
+        <v>1606</v>
       </c>
       <c r="G434" s="5"/>
       <c r="H434" s="5"/>
@@ -15925,17 +16919,19 @@
         <v>435</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>1531</v>
+        <v>1607</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>1532</v>
+        <v>1608</v>
       </c>
       <c r="D435" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E435" s="5"/>
-      <c r="F435" s="6" t="s">
-        <v>1533</v>
+      <c r="E435" s="6" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F435" s="7" t="s">
+        <v>1610</v>
       </c>
       <c r="G435" s="5"/>
       <c r="H435" s="5"/>
@@ -15950,17 +16946,19 @@
         <v>436</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>1534</v>
+        <v>1611</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>1535</v>
+        <v>1612</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E436" s="5"/>
-      <c r="F436" s="6" t="s">
-        <v>1536</v>
+      <c r="E436" s="6" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F436" s="7" t="s">
+        <v>1614</v>
       </c>
       <c r="G436" s="5"/>
       <c r="H436" s="5" t="s">
@@ -15975,17 +16973,19 @@
         <v>437</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>1537</v>
+        <v>1615</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>1538</v>
+        <v>1616</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E437" s="5"/>
-      <c r="F437" s="6" t="s">
-        <v>1539</v>
+      <c r="E437" s="6" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F437" s="7" t="s">
+        <v>1618</v>
       </c>
       <c r="G437" s="5"/>
       <c r="H437" s="5"/>
@@ -15998,17 +16998,19 @@
         <v>438</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>1540</v>
+        <v>1619</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>1541</v>
+        <v>1620</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E438" s="5"/>
-      <c r="F438" s="6" t="s">
-        <v>1542</v>
+      <c r="E438" s="6" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F438" s="7" t="s">
+        <v>1622</v>
       </c>
       <c r="G438" s="5"/>
       <c r="H438" s="5"/>
@@ -16021,17 +17023,19 @@
         <v>439</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>1543</v>
+        <v>1623</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>1544</v>
+        <v>1624</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E439" s="5"/>
-      <c r="F439" s="6" t="s">
-        <v>1545</v>
+      <c r="E439" s="6" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F439" s="8" t="s">
+        <v>1626</v>
       </c>
       <c r="G439" s="5"/>
       <c r="H439" s="5"/>
@@ -16046,17 +17050,19 @@
         <v>440</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>1546</v>
+        <v>1627</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>1547</v>
+        <v>1628</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E440" s="5"/>
-      <c r="F440" s="6" t="s">
-        <v>1548</v>
+      <c r="E440" s="6" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F440" s="7" t="s">
+        <v>1630</v>
       </c>
       <c r="G440" s="5"/>
       <c r="H440" s="5"/>
@@ -16071,17 +17077,19 @@
         <v>441</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>1549</v>
+        <v>1631</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>1550</v>
+        <v>1632</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E441" s="5"/>
-      <c r="F441" s="6" t="s">
-        <v>1551</v>
+      <c r="E441" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F441" s="7" t="s">
+        <v>1634</v>
       </c>
       <c r="G441" s="5"/>
       <c r="H441" s="5" t="s">
@@ -16098,17 +17106,19 @@
         <v>442</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>1552</v>
+        <v>1635</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>1553</v>
+        <v>1636</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E442" s="5"/>
-      <c r="F442" s="6" t="s">
-        <v>1554</v>
+      <c r="E442" s="6" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F442" s="7" t="s">
+        <v>1638</v>
       </c>
       <c r="G442" s="5"/>
       <c r="H442" s="5" t="s">
@@ -16125,17 +17135,19 @@
         <v>443</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>1555</v>
+        <v>1639</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>1556</v>
+        <v>1640</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E443" s="5"/>
-      <c r="F443" s="6" t="s">
-        <v>1557</v>
+      <c r="E443" s="6" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F443" s="7" t="s">
+        <v>1642</v>
       </c>
       <c r="G443" s="5"/>
       <c r="H443" s="5" t="s">
@@ -16152,17 +17164,19 @@
         <v>444</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>1558</v>
+        <v>1643</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>1559</v>
+        <v>1644</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E444" s="5"/>
-      <c r="F444" s="6" t="s">
-        <v>1560</v>
+      <c r="E444" s="6" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F444" s="7" t="s">
+        <v>1646</v>
       </c>
       <c r="G444" s="5"/>
       <c r="H444" s="5" t="s">
@@ -16179,17 +17193,19 @@
         <v>445</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>1561</v>
+        <v>1647</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>1562</v>
+        <v>1648</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E445" s="5"/>
-      <c r="F445" s="6" t="s">
-        <v>1563</v>
+      <c r="E445" s="6" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F445" s="7" t="s">
+        <v>1650</v>
       </c>
       <c r="G445" s="5"/>
       <c r="H445" s="5"/>
@@ -16202,17 +17218,19 @@
         <v>446</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>1564</v>
+        <v>1651</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>1565</v>
+        <v>1652</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E446" s="5"/>
-      <c r="F446" s="6" t="s">
-        <v>1566</v>
+      <c r="E446" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F446" s="7" t="s">
+        <v>1654</v>
       </c>
       <c r="G446" s="5"/>
       <c r="H446" s="5"/>
@@ -16227,17 +17245,19 @@
         <v>447</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>1567</v>
+        <v>1655</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>1568</v>
+        <v>1656</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E447" s="5"/>
-      <c r="F447" s="6" t="s">
-        <v>1569</v>
+      <c r="E447" s="6" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F447" s="7" t="s">
+        <v>1658</v>
       </c>
       <c r="G447" s="5"/>
       <c r="H447" s="5"/>
@@ -16267,9 +17287,11 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16296,16 +17318,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1570</v>
+        <v>1659</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1571</v>
+        <v>1660</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1572</v>
+        <v>1661</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1573</v>
+        <v>1662</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -16318,23 +17340,23 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1574</v>
+        <v>1663</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1575</v>
+        <v>1664</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1576</v>
+        <v>1665</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1577</v>
+        <v>1666</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1578</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16342,19 +17364,19 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C3" s="7" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1580</v>
+        <v>1669</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1581</v>
+        <v>1670</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1582</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16362,22 +17384,22 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C4" s="7" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1584</v>
+        <v>1673</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1585</v>
+        <v>1674</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1586</v>
+        <v>1675</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1587</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16385,19 +17407,19 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C5" s="7" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1589</v>
+        <v>1678</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1590</v>
+        <v>1679</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1591</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16405,19 +17427,19 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>1593</v>
+        <v>1681</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1682</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1594</v>
+        <v>1683</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1595</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16425,22 +17447,22 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C7" s="7" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1597</v>
+        <v>1686</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1598</v>
+        <v>1687</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1599</v>
+        <v>1688</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1600</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16448,19 +17470,19 @@
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C8" s="7" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1602</v>
+        <v>1691</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1603</v>
+        <v>1692</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1604</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16470,23 +17492,23 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1605</v>
+        <v>1694</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1606</v>
+        <v>1695</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1607</v>
+        <v>1696</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1577</v>
+        <v>1666</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1578</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16494,19 +17516,19 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="C10" s="7" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1609</v>
+        <v>1698</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1610</v>
+        <v>1699</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1611</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16514,19 +17536,19 @@
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C11" s="7" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1613</v>
+        <v>1702</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1614</v>
+        <v>1703</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1615</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16534,22 +17556,22 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C12" s="7" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1617</v>
+        <v>1706</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1618</v>
+        <v>1707</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1619</v>
+        <v>1708</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1595</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16557,22 +17579,22 @@
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C13" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1621</v>
+        <v>1710</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1622</v>
+        <v>1711</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1623</v>
+        <v>1712</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1591</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16580,22 +17602,22 @@
         <v>1012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C14" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1625</v>
+        <v>1714</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1626</v>
+        <v>1715</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1627</v>
+        <v>1716</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1628</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16603,19 +17625,19 @@
         <v>1013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1630</v>
+        <v>1718</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1719</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1631</v>
+        <v>1720</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1595</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16623,22 +17645,22 @@
         <v>1014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1633</v>
+        <v>1721</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1722</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1634</v>
+        <v>1723</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1635</v>
+        <v>1724</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1615</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16646,22 +17668,22 @@
         <v>1015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1637</v>
+        <v>1725</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1726</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1638</v>
+        <v>1727</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1639</v>
+        <v>1728</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1595</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16669,19 +17691,19 @@
         <v>1016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>1641</v>
+        <v>1729</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1730</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1642</v>
+        <v>1731</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1643</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16691,23 +17713,23 @@
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1644</v>
+        <v>1733</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1645</v>
+        <v>1734</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1646</v>
+        <v>1735</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1595</v>
+        <v>1684</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1578</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16715,19 +17737,19 @@
         <v>1018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1648</v>
+        <v>1736</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1737</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1649</v>
+        <v>1738</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1650</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16735,22 +17757,22 @@
         <v>1019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C21" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1652</v>
+        <v>1741</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1653</v>
+        <v>1742</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1654</v>
+        <v>1743</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1591</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16758,22 +17780,22 @@
         <v>1020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>1656</v>
+        <v>1744</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1745</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1657</v>
+        <v>1746</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1658</v>
+        <v>1747</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1595</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16781,19 +17803,19 @@
         <v>1021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>1660</v>
+        <v>1748</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1749</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1661</v>
+        <v>1750</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1662</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16801,19 +17823,19 @@
         <v>1022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>1664</v>
+        <v>1752</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>1753</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1665</v>
+        <v>1754</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1650</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16823,23 +17845,23 @@
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>1666</v>
+      <c r="C25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>1755</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>1667</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>1668</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16847,22 +17869,22 @@
         <v>1024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>1670</v>
+        <v>1758</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>1759</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1671</v>
+        <v>1760</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1672</v>
+        <v>1761</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1591</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16870,19 +17892,19 @@
         <v>1025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C27" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1674</v>
+        <v>1763</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1675</v>
+        <v>1764</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1615</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16890,22 +17912,22 @@
         <v>1026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C28" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1677</v>
+        <v>1766</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1678</v>
+        <v>1767</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1679</v>
+        <v>1768</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1595</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16913,19 +17935,19 @@
         <v>1027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>1681</v>
+        <v>1769</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>1770</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1682</v>
+        <v>1771</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1683</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16933,22 +17955,22 @@
         <v>1028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C30" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1685</v>
+        <v>1774</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1686</v>
+        <v>1775</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1687</v>
+        <v>1776</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1577</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16956,19 +17978,19 @@
         <v>1029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C31" s="7" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1689</v>
+        <v>1778</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1690</v>
+        <v>1779</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1691</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16976,22 +17998,22 @@
         <v>1030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C32" s="7" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1693</v>
+        <v>1782</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1694</v>
+        <v>1783</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1695</v>
+        <v>1784</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1591</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16999,7 +18021,7 @@
         <v>1031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1696</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17007,22 +18029,22 @@
         <v>1032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C34" s="7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1698</v>
+        <v>1787</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1699</v>
+        <v>1788</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1700</v>
+        <v>1789</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1701</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17030,19 +18052,19 @@
         <v>1033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C35" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1703</v>
+        <v>1792</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1704</v>
+        <v>1793</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1705</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17050,19 +18072,19 @@
         <v>1034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C36" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1707</v>
+        <v>1796</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1708</v>
+        <v>1797</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1709</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17070,19 +18092,19 @@
         <v>1035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C37" s="7" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1711</v>
+        <v>1800</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1712</v>
+        <v>1801</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1709</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17090,22 +18112,22 @@
         <v>1036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C38" s="7" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1714</v>
+        <v>1803</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1715</v>
+        <v>1804</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1716</v>
+        <v>1805</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1717</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17113,22 +18135,22 @@
         <v>1037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C39" s="7" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1719</v>
+        <v>1808</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1720</v>
+        <v>1809</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1721</v>
+        <v>1810</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1722</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17136,19 +18158,19 @@
         <v>1038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C40" s="7" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1724</v>
+        <v>1813</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1725</v>
+        <v>1814</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1709</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17156,20 +18178,20 @@
         <v>1039</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C41" s="8" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>1303</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1727</v>
+        <v>1816</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1728</v>
+        <v>1817</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1" t="s">
-        <v>1729</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17177,20 +18199,20 @@
         <v>1040</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C42" s="8" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>1303</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1731</v>
+        <v>1820</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1732</v>
+        <v>1821</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1" t="s">
-        <v>1733</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17198,20 +18220,20 @@
         <v>1041</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C43" s="8" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>1303</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1735</v>
+        <v>1824</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1736</v>
+        <v>1825</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1" t="s">
-        <v>1737</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17219,20 +18241,20 @@
         <v>1042</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1738</v>
-      </c>
-      <c r="C44" s="8" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>1303</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1739</v>
+        <v>1828</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1740</v>
+        <v>1829</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1" t="s">
-        <v>1741</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17240,20 +18262,20 @@
         <v>1043</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C45" s="8" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>1303</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1743</v>
+        <v>1832</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1744</v>
+        <v>1833</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1" t="s">
-        <v>1737</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17261,20 +18283,20 @@
         <v>1044</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C46" s="8" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>1303</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1746</v>
+        <v>1835</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1747</v>
+        <v>1836</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1" t="s">
-        <v>1741</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17282,20 +18304,20 @@
         <v>1045</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C47" s="8" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>1303</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1749</v>
+        <v>1838</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1750</v>
+        <v>1839</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1" t="s">
-        <v>1751</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17303,20 +18325,20 @@
         <v>1046</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C48" s="8" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>1303</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>1754</v>
+        <v>1842</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>1843</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1" t="s">
-        <v>1755</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17324,20 +18346,20 @@
         <v>1047</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C49" s="8" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>1303</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1757</v>
+        <v>1846</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1758</v>
+        <v>1847</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1" t="s">
-        <v>1737</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17345,20 +18367,20 @@
         <v>1048</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C50" s="8" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>1303</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1760</v>
+        <v>1849</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1761</v>
+        <v>1850</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1" t="s">
-        <v>1741</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17366,20 +18388,20 @@
         <v>1049</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C51" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>1303</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1763</v>
+        <v>1852</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1764</v>
+        <v>1853</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1" t="s">
-        <v>1765</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17387,22 +18409,22 @@
         <v>1050</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C52" s="8" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>1303</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1767</v>
+        <v>1856</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1768</v>
+        <v>1857</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1769</v>
+        <v>1858</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1770</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17410,9 +18432,9 @@
         <v>1051</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C53" s="8" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>1303</v>
       </c>
     </row>
@@ -17435,10 +18457,875 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="49.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="51.22"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>1880</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="12" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="12" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F47"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17453,55 +19340,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1772</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1774</v>
+        <v>1983</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1984</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1776</v>
+        <v>1985</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1986</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1778</v>
+        <v>1987</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1988</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>1780</v>
+        <v>1989</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1990</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1781</v>
+        <v>1991</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1782</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1783</v>
+        <v>1993</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1784</v>
+        <v>1994</v>
       </c>
     </row>
   </sheetData>
@@ -17518,36 +19405,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="29.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1785</v>
+      <c r="A1" s="13" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1995</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B2" s="13" t="b">
+      <c r="A2" s="2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B2" s="19" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/i18n/de.xlsx
+++ b/i18n/de.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
@@ -5982,7 +5982,7 @@
     <t xml:space="preserve">[beak-left] Schnabel zeigt nach links</t>
   </si>
   <si>
-    <t xml:space="preserve">Für diese Rundenziele zählen eure gespielten Vögel, deren Schnabel in die angegebene Richtung zeigt. Vögel, deren Schnabel nach vorn oder senkrecht nach oben zeigt, zählen für keines der beiden Rundenziele.&lt;br&gt;Diese Rundenziele sollen euch ermutigen, euch die Illustrationen noch genauer anzusehen. Falls ihr euch häufig nicht einigen könnt, in welche Richtung der Schnabel zeigt, entfernt dieses Zielplättchen aus dem Spiel. Auch wenn wir finden, dass man die Schnabelrichtung meist gut zuordnen kann, möchten wir folgendes klarstellen:&lt;br&gt;&lt;ul&gt;&lt;li&gt;Auch wenn der &lt;b&gt;Schiefschnabel&lt;/b&gt; nach vorn blickt, zeigt sein Schnabel zur linken Seite der Karte.&lt;/li&gt;&lt;li&gt;Die Karte des &lt;b&gt;Eistauchers&lt;/b&gt; (aus dem Grundspiel) zeigt 2 Vögel mit Blick in jeweils eine Richtung. Sie zählt daher für beide Ziele.&lt;/li&gt;&lt;li&gt;Die Karte des &lt;b&gt;Haubentauchers&lt;/b&gt; (aus der Europa-Erweiterung) zeigt 2 Vögel mit Blick in dieselbe Richtung. Sie zählt als 1 Vogel mit Blickrichtung links.&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;Die Schnäbel der folgenden Vögel zeigen weder nach rechts noch nach links.&lt;br&gt;&lt;b&gt;Grundspiel&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Fleckenkauz&lt;/li&gt;&lt;li&gt;Kalifornischer Kondor&lt;/li&gt;&lt;li&gt;Kaninchenkauz&lt;/li&gt;&lt;li&gt;Ohrenlerche&lt;/li&gt;&lt;li&gt;Ostkreischeule&lt;/li&gt;&lt;li&gt;Schleiereule&lt;/li&gt;&lt;li&gt;Streifenkauz&lt;/li&gt;&lt;li&gt;Virginiauhu&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Europa-Erweiterung&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Gartenbaumläufer&lt;/li&gt;&lt;li&gt;Schneeeule&lt;/li&gt;&lt;li&gt;Steinkauz&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Ozeanien-Erweiterung&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Baumschwalm&lt;/li&gt;&lt;li&gt;Kakapo&lt;/li&gt;&lt;li&gt;Rostkauz&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Asien-Erweiterung&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Bartmeise&lt;/li&gt;&lt;li&gt;Blewittkauz&lt;/li&gt;&lt;li&gt;Ceylonschwalm&lt;/li&gt;&lt;li&gt;Löffelstrandläufer&lt;/li&gt;&lt;li&gt;Maskeneule&lt;/li&gt;&lt;li&gt;Uhu&lt;/li&gt;&lt;/ul&gt;</t>
+    <t xml:space="preserve">Für diese Rundenziele zählen eure gespielten Vögel, deren Schnabel in die angegebene Richtung zeigt. Vögel, deren Schnabel nach vorn oder senkrecht nach oben zeigt, zählen für keines der beiden Rundenziele.&lt;br&gt;Diese Rundenziele sollen euch ermutigen, euch die Illustrationen noch genauer anzusehen. Falls ihr euch häufig nicht einigen könnt, in welche Richtung der Schnabel zeigt, entfernt dieses Zielplättchen aus dem Spiel. Auch wenn wir finden, dass man die Schnabelrichtung meist gut zuordnen kann, möchten wir folgendes klarstellen:&lt;br&gt;&lt;ul&gt;&lt;li&gt;Obwohl der Schiefschnabel (Ozeanienerweiterung) nach vorn blickt, zeigt sein Schnabel auf die linke Seite der Karte.&lt;/li&gt;&lt;li&gt;Der Eistaucher (Grundspiel) und der Zwergtaucher (Asienerweiterung) zeigen je 1 Vogel, der nach links und 1 Vogel, der nach rechts blickt. Sie zählt daher für beide Ziele.&lt;/li&gt;&lt;li&gt;Der Haubentaucher (Europaerweiterung) zeigt 2 Vögel, die in die gleiche Richtung blicken. Er zählt nur für das Ziel „nach links zeigend“ und auch nur 1x.&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;Die Schnäbel der folgenden Vögel zeigen weder nach rechts noch nach links.&lt;br&gt;&lt;b&gt;Grundspiel&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Fleckenkauz&lt;/li&gt;&lt;li&gt;Kalifornischer Kondor&lt;/li&gt;&lt;li&gt;Kaninchenkauz&lt;/li&gt;&lt;li&gt;Ohrenlerche&lt;/li&gt;&lt;li&gt;Ostkreischeule&lt;/li&gt;&lt;li&gt;Schleiereule&lt;/li&gt;&lt;li&gt;Streifenkauz&lt;/li&gt;&lt;li&gt;Virginiauhu&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Europa-Erweiterung&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Gartenbaumläufer&lt;/li&gt;&lt;li&gt;Schneeeule&lt;/li&gt;&lt;li&gt;Steinkauz&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Ozeanien-Erweiterung&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Baumschwalm&lt;/li&gt;&lt;li&gt;Kakapo&lt;/li&gt;&lt;li&gt;Rostkauz&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Asien-Erweiterung&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Bartmeise&lt;/li&gt;&lt;li&gt;Blewittkauz&lt;/li&gt;&lt;li&gt;Ceylonschwalm&lt;/li&gt;&lt;li&gt;Löffelstrandläufer&lt;/li&gt;&lt;li&gt;Maskeneule&lt;/li&gt;&lt;li&gt;Uhu&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Beak Pointing Right</t>
@@ -6800,12 +6800,12 @@
   </sheetPr>
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="F15" activeCellId="1" sqref="F32 F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17346,7 +17346,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="1" sqref="F32 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18514,12 +18514,12 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19380,7 +19380,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="1" sqref="F32 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19470,7 +19470,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="F32 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
